--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF7C00-C7F6-4E8F-B417-1F03924CE5AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70BFD0-E9E9-413B-8ABB-CC8B4D201508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
+    <sheet name="Literature review" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>Reference</t>
   </si>
@@ -178,6 +180,198 @@
   </si>
   <si>
     <t>SimpleLogistic</t>
+  </si>
+  <si>
+    <t>Ma et al., 2017</t>
+  </si>
+  <si>
+    <t>Decision Tree (J48)</t>
+  </si>
+  <si>
+    <t>12 Pressure Sensor (Force Sensitive Resistor)</t>
+  </si>
+  <si>
+    <t>Sensor Placement</t>
+  </si>
+  <si>
+    <t>Recognised Postures</t>
+  </si>
+  <si>
+    <t>Proper Sitting (PS) 
+Lean Left (LL) 
+Lean Right (LR)
+Lean Forward (LF) 
+Lean Backward (LB)</t>
+  </si>
+  <si>
+    <t>Sit Straight
+Left Recline
+Right Recline
+Lounge
+Lean Backward
+Cross left leg
+Cross right leg</t>
+  </si>
+  <si>
+    <t>16 Force Sensor</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>81% - 98%</t>
+  </si>
+  <si>
+    <t>Zemp et al, 2016</t>
+  </si>
+  <si>
+    <t>Tsai et al, 2023</t>
+  </si>
+  <si>
+    <t>13 pressure sensors (FSR-406)</t>
+  </si>
+  <si>
+    <t>SVM (Linear)</t>
+  </si>
+  <si>
+    <t>upper body hunched, sitting upright (the correct sitting posture), leaning backward, leaning left, leaning right, sitting at the front edge, leaning forward, left leg crossed, right leg crossed, and both cross-legged postures</t>
+  </si>
+  <si>
+    <t>right-, left-, forward- and backward leaning</t>
+  </si>
+  <si>
+    <t>8x8 Pressure Sensor</t>
+  </si>
+  <si>
+    <t>CNN </t>
+  </si>
+  <si>
+    <t>sitting straight, lean left, lean right, sitting at the front of the chair and sitting crossed-legged on the chair</t>
+  </si>
+  <si>
+    <t>Luna-Perejón et al, 2021</t>
+  </si>
+  <si>
+    <t>User Feedback System</t>
+  </si>
+  <si>
+    <t>Posture 1 In an upright posture, with the back supported by the chair’s backrest and
+the buttocks placed at the back of the seat.
+Posture 2 In a reclined position, with only the upper part of the back resting on the back
+of the chair and the buttocks resting on the front part of the seat.
+Posture 3 With the torso bent forward, elbows resting on the legs, back completely
+separated from the backrest.
+Posture 4 With the torso inclined laterally to the right, armrest supporting
+part of the weight.
+Posture 5 With the torso inclined laterally to the left, armrest supporting
+part of the weight.
+Posture 6 In an upright posture, similar to posture 1, but with the right leg
+crossed over the left.
+Posture 7 In an upright posture, similar to posture 1, but with the left leg
+crossed over the right.</t>
+  </si>
+  <si>
+    <t>6 Force Sensitive
+Resistors (FSR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low accuracy </t>
+  </si>
+  <si>
+    <t>Cai et al. 2021</t>
+  </si>
+  <si>
+    <t>SOM (ISOM-SPR)</t>
+  </si>
+  <si>
+    <t>3x3 Flexible Array Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Mobile App</t>
+  </si>
+  <si>
+    <t>Standard sitting
+Lean Left
+Lean Right
+Waist Bow
+Right Cross-Legs
+Left Cross-Legs</t>
+  </si>
+  <si>
+    <t>Few Test Samples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No accuracy </t>
+  </si>
+  <si>
+    <t>Fan et al., 2022</t>
+  </si>
+  <si>
+    <t>Is Realtime</t>
+  </si>
+  <si>
+    <t>44 × 52 Pressure Sensor Array</t>
+  </si>
+  <si>
+    <t>Backward 
+Forward 
+Left 
+Right 
+Standard</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>_ Few Test Samples
+_ Lack of detection of spine curvatures</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Chen, 2019</t>
+  </si>
+  <si>
+    <t>Astra3D Sensor</t>
+  </si>
+  <si>
+    <t>PC Screen
+(Correct/Wrong)</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Used OpenPose (open source library developed by Carngie Mellon University) to determine body posture by using a camera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy issue with camera always watching the individual
+Can't work in bad lighting
+Lack of proper user feedback system for posture correction 
+</t>
+  </si>
+  <si>
+    <t>Ma et al., 2020</t>
+  </si>
+  <si>
+    <t>Proper Sitting
+Lean Left
+Lean Right 
+Lean Front 
+Lean Backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure array </t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Fard et al., 2013</t>
+  </si>
+  <si>
+    <t>Ren et al, 2013</t>
   </si>
 </sst>
 </file>
@@ -226,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -549,23 +746,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="25.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="5" width="19" customWidth="1"/>
+    <col min="6" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -573,302 +773,588 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2"/>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2"/>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6">
+      <c r="G6" s="3"/>
+      <c r="H6">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1">
+      <c r="G7" s="1">
         <v>0.92679999999999996</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="1">
+      <c r="G9" s="1">
         <v>0.97070000000000001</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1">
+      <c r="G10" s="1">
         <v>0.97940000000000005</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2"/>
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="1">
+      <c r="G12" s="1">
         <v>0.99270000000000003</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1">
+      <c r="G13" s="1">
         <v>0.97430000000000005</v>
       </c>
-      <c r="F13">
+      <c r="H13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2"/>
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="4">
+      <c r="G14" s="4">
         <v>0.92</v>
       </c>
-      <c r="F14">
+      <c r="H14">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1">
+      <c r="G15" s="1">
         <v>0.93400000000000005</v>
       </c>
-      <c r="F15">
+      <c r="H15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="4">
+      <c r="G16" s="4">
         <v>0.87</v>
       </c>
-      <c r="F16">
+      <c r="H16">
         <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="H19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="H21">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="H22">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H23">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" t="s">
+        <v>81</v>
+      </c>
+      <c r="L24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D1E6-A3F9-43EF-8681-7C71C58C09B5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F70BFD0-E9E9-413B-8ABB-CC8B4D201508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290D1D2-AB86-4B76-A369-F8DC4CDC7624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
     <sheet name="Literature review" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
   <si>
     <t>Reference</t>
   </si>
@@ -346,12 +345,6 @@
     <t>Used OpenPose (open source library developed by Carngie Mellon University) to determine body posture by using a camera.</t>
   </si>
   <si>
-    <t xml:space="preserve">Privacy issue with camera always watching the individual
-Can't work in bad lighting
-Lack of proper user feedback system for posture correction 
-</t>
-  </si>
-  <si>
     <t>Ma et al., 2020</t>
   </si>
   <si>
@@ -372,6 +365,46 @@
   </si>
   <si>
     <t>Ren et al, 2013</t>
+  </si>
+  <si>
+    <t>64 Pressure Sensors Array (40x50) cm2</t>
+  </si>
+  <si>
+    <t>Sitting straight with bent knees
+Sitting straight with crossed legs
+Right on left 
+Sitting straight with crossed legs 
+Left on right
+Sitting with stretched legs</t>
+  </si>
+  <si>
+    <t>Limited number of subjects</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Used Statistical parameters
+Values of mean, standard deviation, skewness and kurtosis were calculated for each of the produced maps</t>
+  </si>
+  <si>
+    <t>6 Square-Type force Sensing Resistors</t>
+  </si>
+  <si>
+    <t>RGB LED</t>
+  </si>
+  <si>
+    <t>Embedded pressure senors to monitor sitting positions and heart variability using polyvinylidene fluoride (PVDF) film sensors
+An interview with over 50 participants was done to collecte their feedback</t>
+  </si>
+  <si>
+    <t>Not used in a real life setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy issue with Camera
+Can't work in bad lighting
+Lack of proper user feedback system for posture correction 
+</t>
   </si>
 </sst>
 </file>
@@ -748,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,6 +856,9 @@
       <c r="H2">
         <v>10</v>
       </c>
+      <c r="I2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -846,6 +882,9 @@
       <c r="H3">
         <v>32</v>
       </c>
+      <c r="I3" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -868,7 +907,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -885,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1021,7 +1060,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1105,7 +1144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1220,7 +1259,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>70</v>
       </c>
@@ -1249,7 +1288,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1281,7 +1320,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>84</v>
       </c>
@@ -1297,7 +1336,7 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>86</v>
@@ -1309,21 +1348,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
@@ -1332,14 +1371,59 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26">
+        <v>5</v>
+      </c>
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>95</v>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="J27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K27" t="s">
+        <v>81</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290D1D2-AB86-4B76-A369-F8DC4CDC7624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C39EC8-1E42-490C-89C6-B9F5147137F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>Reference</t>
   </si>
@@ -270,10 +270,6 @@
 crossed over the right.</t>
   </si>
   <si>
-    <t>6 Force Sensitive
-Resistors (FSR)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Low accuracy </t>
   </si>
   <si>
@@ -405,6 +401,89 @@
 Can't work in bad lighting
 Lack of proper user feedback system for posture correction 
 </t>
+  </si>
+  <si>
+    <t>Wang et al., 2021</t>
+  </si>
+  <si>
+    <t>SNN (LSM)</t>
+  </si>
+  <si>
+    <t>Upright, Leaning Right, Leaning Left, Leaning Forward, Leaing Back, LC and steated upright, RC and seated upright, LC and lening back, RC and leaning back, LA and seated back, Sittinhg on the leading edge, Slouching back down.</t>
+  </si>
+  <si>
+    <t>2 Pressure Sensors Array (FSR)</t>
+  </si>
+  <si>
+    <t>6 Force Sensitive Resistors (FSR)</t>
+  </si>
+  <si>
+    <t>Desktop App</t>
+  </si>
+  <si>
+    <t>Small number of postures</t>
+  </si>
+  <si>
+    <t>Lack of focus on the User feedback aspects
+Not used in real-life setting to prove it's usefulness</t>
+  </si>
+  <si>
+    <t>Xu et al, 2013</t>
+  </si>
+  <si>
+    <t>Electrical Textile</t>
+  </si>
+  <si>
+    <t>Naive Bayes Network</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Situp, Forward, Backward, Left Lean, Right Lean, Left foot over right, Right foot over left</t>
+  </si>
+  <si>
+    <t>The mobile just visualizes the sitting pressure distribution, however the value of this is not really seen to the end user's persepective.
+No sort of recommendation system.</t>
+  </si>
+  <si>
+    <t>R. et al, 2023</t>
+  </si>
+  <si>
+    <t>RCNN &amp; CNN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunchback, Reclined, Straight, Hand folds, Kneeling, Cross legs, </t>
+  </si>
+  <si>
+    <t>Used OpenPose to determin the sitting postures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No good user feedback/recommendation system </t>
+  </si>
+  <si>
+    <t>Fu and MacLeod, 2014</t>
+  </si>
+  <si>
+    <t>Web Camera</t>
+  </si>
+  <si>
+    <t>8 Force Sensing Resistors (FSR)
+FSR 406</t>
+  </si>
+  <si>
+    <t>HMM Decision Tree</t>
+  </si>
+  <si>
+    <t>• Spine labels: {0: Body Leaning Right, 1: Leaning Back,2:
+Body Leaning Left, 3: No Contact}.
+• Leg labels: {0: Sitting upright, 1: Crossing right leg
+on left leg, 2: Crossing left leg on right leg, 3: Sitting
+forward, 4: No Contact}</t>
+  </si>
+  <si>
+    <t>Lacks Proper testing 
+There's a need to implement a feedback system</t>
   </si>
 </sst>
 </file>
@@ -779,10 +858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,10 +909,10 @@
         <v>66</v>
       </c>
       <c r="K1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -857,7 +936,7 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -883,7 +962,7 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -904,7 +983,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,7 +1055,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1019,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -1037,7 +1116,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1059,6 +1138,9 @@
       <c r="H12">
         <v>14</v>
       </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1238,7 +1320,7 @@
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -1256,24 +1338,24 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G22" s="1">
         <v>0.95669999999999999</v>
@@ -1282,24 +1364,24 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
@@ -1311,21 +1393,21 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J23" t="s">
         <v>82</v>
       </c>
-      <c r="J23" t="s">
-        <v>83</v>
-      </c>
       <c r="K23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
         <v>84</v>
-      </c>
-      <c r="B24" t="s">
-        <v>85</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
@@ -1336,33 +1418,33 @@
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
@@ -1373,16 +1455,16 @@
     </row>
     <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1390,24 +1472,24 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" t="s">
         <v>97</v>
       </c>
-      <c r="J26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1417,13 +1499,135 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" t="s">
+        <v>80</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K27" t="s">
-        <v>81</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>102</v>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="H28">
+        <v>19</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H29">
+        <v>14</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" t="s">
+        <v>80</v>
+      </c>
+      <c r="L30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
+      </c>
+      <c r="K31" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87C39EC8-1E42-490C-89C6-B9F5147137F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71CF48-DF85-423D-B474-C003D0BC93C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -861,7 +861,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71CF48-DF85-423D-B474-C003D0BC93C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3730F68F-7E31-45EB-817D-C3073A7BC5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
   <si>
     <t>Reference</t>
   </si>
@@ -485,12 +485,21 @@
     <t>Lacks Proper testing 
 There's a need to implement a feedback system</t>
   </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +510,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,7 +549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -543,6 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -858,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,6 +1648,60 @@
         <v>80</v>
       </c>
     </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47">
+        <f>AVERAGE(D2:D31)</f>
+        <v>6.9629629629629628</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="1">
+        <f>AVERAGE(G2:G31)</f>
+        <v>0.93763636363636349</v>
+      </c>
+      <c r="H47">
+        <f>AVERAGE(H2:H31)</f>
+        <v>24.59090909090909</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D48">
+        <f>MAX(D2:D31)</f>
+        <v>15</v>
+      </c>
+      <c r="G48" s="1">
+        <f>MAX(G2:G31)</f>
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H48">
+        <f>MAX(H2:H30)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49">
+        <f>MIN(D2:D31)</f>
+        <v>3</v>
+      </c>
+      <c r="G49" s="1">
+        <f>MIN(G2:G31)</f>
+        <v>0.81</v>
+      </c>
+      <c r="H49">
+        <f>MIN(H2:H30)</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3730F68F-7E31-45EB-817D-C3073A7BC5C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8460B3B-A168-42C0-9A28-5E9C349DED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
-    <sheet name="Literature review" sheetId="2" r:id="rId2"/>
+    <sheet name="Literature review Papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -499,7 +499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +522,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -536,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -544,12 +560,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -561,9 +587,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -878,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,45 +923,45 @@
     <col min="11" max="11" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8460B3B-A168-42C0-9A28-5E9C349DED6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227AEAF-2AD2-42E0-8AD5-79D8CA4C8DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="151">
   <si>
     <t>Reference</t>
   </si>
@@ -72,37 +72,19 @@
     <t xml:space="preserve">LightGBM </t>
   </si>
   <si>
-    <t>Load Cell - Posture
-Conductive Nappa - ECG</t>
-  </si>
-  <si>
-    <t>Screen Printed Pressure units (16 Array)</t>
-  </si>
-  <si>
     <t>Huang et al., 2017</t>
   </si>
   <si>
-    <t>52 by 44 Piezo-Resistive Sensor Array</t>
-  </si>
-  <si>
     <t>ANN</t>
   </si>
   <si>
     <t>Martínez-Estrada et al., 2023</t>
   </si>
   <si>
-    <t>10 Presence textile capacitive sensor
-(embroidered)</t>
-  </si>
-  <si>
     <t>Matuska et al., 2020</t>
   </si>
   <si>
     <t>6 Flexible Force Sensors</t>
-  </si>
-  <si>
-    <t>Average Standard deviation with 3 Threshold values to determine good/bad postures
-(Non AI)</t>
   </si>
   <si>
     <t>Aminosharieh Najafi et al., 2022</t>
@@ -203,15 +185,6 @@
 Lean Backward (LB)</t>
   </si>
   <si>
-    <t>Sit Straight
-Left Recline
-Right Recline
-Lounge
-Lean Backward
-Cross left leg
-Cross right leg</t>
-  </si>
-  <si>
     <t>16 Force Sensor</t>
   </si>
   <si>
@@ -234,9 +207,6 @@
   </si>
   <si>
     <t>upper body hunched, sitting upright (the correct sitting posture), leaning backward, leaning left, leaning right, sitting at the front edge, leaning forward, left leg crossed, right leg crossed, and both cross-legged postures</t>
-  </si>
-  <si>
-    <t>right-, left-, forward- and backward leaning</t>
   </si>
   <si>
     <t>8x8 Pressure Sensor</t>
@@ -394,9 +364,6 @@
 An interview with over 50 participants was done to collecte their feedback</t>
   </si>
   <si>
-    <t>Not used in a real life setting</t>
-  </si>
-  <si>
     <t xml:space="preserve">Privacy issue with Camera
 Can't work in bad lighting
 Lack of proper user feedback system for posture correction 
@@ -493,6 +460,101 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>Upright sitting, Sloching, Leaning Forward, Leaning Backward, Leaning Left, Leaning Right, Right Leg Crossed, Left Leg Crossed</t>
+  </si>
+  <si>
+    <t>right, left, forward and backward leaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No real life testing
+No User Feedback system
+Limited number of test subjects </t>
+  </si>
+  <si>
+    <t>3 Load Cell - Posture Measurement
+Conductive Nappa - ECG</t>
+  </si>
+  <si>
+    <t>52x44 Piezo-Resistive Sensor Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 at the chair's base frame (anchoring end)
+1 at the seat (measurement surface)
+</t>
+  </si>
+  <si>
+    <t>On top of the seat cushion</t>
+  </si>
+  <si>
+    <t>Screen Printed Pressure sensor units (16 Array)</t>
+  </si>
+  <si>
+    <t>Interactive LCD Screen (Pressure Map)</t>
+  </si>
+  <si>
+    <t>Within the seat cushion</t>
+  </si>
+  <si>
+    <t>Used KNN model for the posture classification and DBSCAN to be able to analyze the ECG signals which came from the conductive nappa sensor</t>
+  </si>
+  <si>
+    <t>Tested 5 other algorithms (k-NN, SVM, decision tree, random forest and LightGBM) for posture classification. LightGBM had the best results</t>
+  </si>
+  <si>
+    <t>UPRIGHT SITTING (P1); SLUMPED SITTING (P2); LEANING FORWARD (P3); LEANING BACKWARD (P4); LEANING LEFT (P5); LEANING RIGHT (P6); RIGHT LEG CROSSED (P7); LEFT LEG CROSSED (P8)</t>
+  </si>
+  <si>
+    <t>Sit Straight, Left Recline, Right Recline, Lounge, Lean Backward, Cross left leg, Cross right leg</t>
+  </si>
+  <si>
+    <t>No interactive Feedback System</t>
+  </si>
+  <si>
+    <t>Posture classification using the AN classifier</t>
+  </si>
+  <si>
+    <t>Ergonomic posture, (b). Right leg crossed, (c). Left leg crossed, (d). Detach from the backrest, (e). Sit on the edge, (f). Lean to the right, (g), Lean to the left and (h). Lean back and sit on the edge.</t>
+  </si>
+  <si>
+    <t>10 Presence textile capacitive sensor (embroidered) PreCaTex</t>
+  </si>
+  <si>
+    <t>4 on top of the sitting cushion
+6 attached to the backrest cushion</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No real life testing
+Limited number of test subjects 
+The LCD only shows the pressure distribution map and not valuable recommendation to the end user.
+Small number of sitting postures </t>
+  </si>
+  <si>
+    <t>Limited number of test subjects
+No concrete method seen in determining its accuracy
+No use of AI</t>
+  </si>
+  <si>
+    <t>Used custom-made PreCaTex sensor ehich could identify 4 levels of proximity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses Average Standard deviation with 3 Threshold values to determine good/bad postures
+(Non AI) QNAP, MongoDB and NODE-RED were among the system bing used. 
+</t>
+  </si>
+  <si>
+    <t>Limited number of test subjects
+Didn't determin the accuracy of the system</t>
+  </si>
+  <si>
+    <t>6 Flexible Force Sensors (FSR402)</t>
+  </si>
+  <si>
+    <t>4 sensors and the backrest with 2 sensors</t>
   </si>
 </sst>
 </file>
@@ -575,7 +637,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -588,6 +650,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -907,17 +973,19 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="5" width="19" customWidth="1"/>
-    <col min="6" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
     <col min="10" max="10" width="27.5703125" customWidth="1"/>
     <col min="11" max="11" width="22.140625" customWidth="1"/>
@@ -931,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -952,25 +1020,30 @@
         <v>5</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="D2">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>124</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -981,22 +1054,34 @@
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>131</v>
+      </c>
+      <c r="C3" t="s">
+        <v>133</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1007,78 +1092,145 @@
       <c r="H3">
         <v>32</v>
       </c>
-      <c r="I3" t="s">
-        <v>102</v>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>128</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
+      <c r="E4" s="8" t="s">
+        <v>136</v>
+      </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="I4" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" t="s">
         <v>75</v>
+      </c>
+      <c r="K4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="H5">
         <v>5</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="3"/>
+      <c r="E6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="H6">
         <v>12</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1">
         <v>0.92679999999999996</v>
@@ -1089,33 +1241,39 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -1126,16 +1284,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G10" s="1">
         <v>0.97940000000000005</v>
@@ -1144,39 +1302,45 @@
         <v>24</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>143</v>
+      </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -1185,24 +1349,24 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G13" s="1">
         <v>0.97430000000000005</v>
@@ -1213,10 +1377,10 @@
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14">
@@ -1234,16 +1398,16 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G15" s="1">
         <v>0.93400000000000005</v>
@@ -1254,16 +1418,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4">
         <v>0.87</v>
@@ -1274,19 +1438,19 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1">
         <v>0.99470000000000003</v>
@@ -1297,19 +1461,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H18">
         <v>41</v>
@@ -1317,19 +1481,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G19" s="1">
         <v>0.99099999999999999</v>
@@ -1340,19 +1504,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
         <v>0.95299999999999996</v>
@@ -1363,19 +1527,19 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G21" s="1">
         <v>0.81</v>
@@ -1384,24 +1548,24 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G22" s="1">
         <v>0.95669999999999999</v>
@@ -1410,27 +1574,27 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="J22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G23" s="1">
         <v>0.99819999999999998</v>
@@ -1439,58 +1603,58 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J23" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G24" s="4">
         <v>0.9</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s">
+        <v>73</v>
+      </c>
+      <c r="L24" t="s">
         <v>80</v>
-      </c>
-      <c r="L24" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
@@ -1499,18 +1663,18 @@
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1518,57 +1682,57 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="G28" s="1">
         <v>0.88519999999999999</v>
@@ -1577,30 +1741,30 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F29" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G29" s="1">
         <v>0.85899999999999999</v>
@@ -1609,83 +1773,83 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G30" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J30" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K30" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="L30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="J31" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D31)</f>
-        <v>6.9629629629629628</v>
+        <v>7.0740740740740744</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G47" s="1">
         <f>AVERAGE(G2:G31)</f>
@@ -1698,7 +1862,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D48">
         <f>MAX(D2:D31)</f>
@@ -1715,7 +1879,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D49">
         <f>MIN(D2:D31)</f>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A227AEAF-2AD2-42E0-8AD5-79D8CA4C8DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC2F0B3-F6E1-4277-A904-885F6382B44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
     <sheet name="Literature review Papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
   <si>
     <t>Reference</t>
   </si>
@@ -93,9 +94,6 @@
     <t>8 Force Sensing Resistors</t>
   </si>
   <si>
-    <t>EMNM</t>
-  </si>
-  <si>
     <t>Kundaliya et al., 2022</t>
   </si>
   <si>
@@ -103,12 +101,6 @@
   </si>
   <si>
     <t>Ran et al., 2021</t>
-  </si>
-  <si>
-    <t>Pressure Array (IMMM00014, I-MOTION</t>
-  </si>
-  <si>
-    <t>5 Layer Artificial Intelligence</t>
   </si>
   <si>
     <t>Roh et al., 2018</t>
@@ -491,9 +483,6 @@
     <t>Screen Printed Pressure sensor units (16 Array)</t>
   </si>
   <si>
-    <t>Interactive LCD Screen (Pressure Map)</t>
-  </si>
-  <si>
     <t>Within the seat cushion</t>
   </si>
   <si>
@@ -526,12 +515,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No real life testing
-Limited number of test subjects 
-The LCD only shows the pressure distribution map and not valuable recommendation to the end user.
-Small number of sitting postures </t>
   </si>
   <si>
     <t>Limited number of test subjects
@@ -547,14 +530,101 @@
 </t>
   </si>
   <si>
+    <t>6 Flexible Force Sensors (FSR402)</t>
+  </si>
+  <si>
+    <t>4 sensors and the backrest with 2 sensors</t>
+  </si>
+  <si>
+    <t>5 sensors at the seat cushion
+3 sensors at the back cushion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No real life testing
+Limited number of test subjects 
+The LCD screen only shows the pressure distribution map and not valuable recommendation to the end user.
+Small number of sitting postures </t>
+  </si>
+  <si>
+    <t>The Desktop GUI just shows the sensor readings and not any valuable recommendation system</t>
+  </si>
+  <si>
+    <t>EMN</t>
+  </si>
+  <si>
+    <t>Used EMN (Echo Memory Network) among 6 others which was the best at classifiying different sitting postures
+Transitted the pressure sensor data via Wi-Fi network</t>
+  </si>
+  <si>
+    <t>P1: upright; (b) P2: slouching; (c) P3: bending forward; (d) P4: bending backwards; (e) P5: bending left; (f) P6: bending right; (g) P7: right leg above; (h) P8: left leg above</t>
+  </si>
+  <si>
+    <t>Upright Position, Leaning Forward, Inclination Backward, Right Leg Crossed, Left Leg Crossed</t>
+  </si>
+  <si>
     <t>Limited number of test subjects
-Didn't determin the accuracy of the system</t>
-  </si>
-  <si>
-    <t>6 Flexible Force Sensors (FSR402)</t>
-  </si>
-  <si>
-    <t>4 sensors and the backrest with 2 sensors</t>
+Didn't determine the accuracy of the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used IoT-based technology </t>
+  </si>
+  <si>
+    <t>Desktop App (Sensor GUI)</t>
+  </si>
+  <si>
+    <t>Interactive LCD Screen (Pressure Map GUI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile App </t>
+  </si>
+  <si>
+    <t>Sitting Upright
+Leaning Forward
+Leaning Backward
+Leaning Left 
+Leaning Right
+Cross Left Leg
+Cross Right Leg</t>
+  </si>
+  <si>
+    <t>Pressure Array (IMM00014, I-MOTION</t>
+  </si>
+  <si>
+    <t>Haptic motor Vibrations</t>
+  </si>
+  <si>
+    <t>Mobile App Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't provide on how accurate the system is
+Didn't use ML/AI in the posture classification 
+Didn't discuss on the mobile app </t>
+  </si>
+  <si>
+    <t>ANN - 5 layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No interactive feedback system </t>
+  </si>
+  <si>
+    <t>7 different ml algorithms were comapred to find the best one
+The system had  a haptic motor integrated into the seating pad</t>
+  </si>
+  <si>
+    <t>Pressure array sensor on top of the seating cushion</t>
+  </si>
+  <si>
+    <t>(a) upright sitting with backrest (UPwB); (b) upright sitting without backrest (UPwoB); (c) front sitting with backrest (FRwB); (d) front sitting without backrest (FRwoB); (e) left sitting (LE); and (f) right sitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 load cells were placed at the 4 corners (seating cushion) of the chair. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low number of test subjects
+No user feebback system </t>
+  </si>
+  <si>
+    <t>Compared 7 different Ml algorithms. SVM (RBF) had the best results</t>
   </si>
 </sst>
 </file>
@@ -637,7 +707,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -650,7 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -987,7 +1056,7 @@
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
     <col min="11" max="11" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -999,13 +1068,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1020,13 +1089,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1034,16 +1103,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1055,16 +1124,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" t="s">
-        <v>75</v>
+        <v>123</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,16 +1141,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1093,16 +1162,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="K3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1110,16 +1179,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>136</v>
+      <c r="E4" t="s">
+        <v>132</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1127,20 +1196,20 @@
       <c r="G4" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>143</v>
+      <c r="H4" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I4" t="s">
-        <v>138</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
+        <v>134</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1148,37 +1217,37 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>143</v>
+      <c r="E5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J5" t="s">
-        <v>75</v>
+        <v>140</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1186,94 +1255,133 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>143</v>
+      <c r="E6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="K6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="D7">
         <v>8</v>
       </c>
+      <c r="E7" t="s">
+        <v>150</v>
+      </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="G7" s="1">
-        <v>0.92679999999999996</v>
+        <v>0.91679999999999995</v>
       </c>
       <c r="H7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="C8" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>158</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -1281,66 +1389,93 @@
       <c r="H9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
+      <c r="E10" t="s">
+        <v>166</v>
+      </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1">
         <v>0.97940000000000005</v>
       </c>
       <c r="H10">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>68</v>
+        <v>9</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>143</v>
+      <c r="F11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="I11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -1349,12 +1484,12 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
@@ -1363,10 +1498,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>0.97430000000000005</v>
@@ -1377,10 +1512,10 @@
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14">
@@ -1398,10 +1533,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>8</v>
@@ -1418,16 +1553,16 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G16" s="4">
         <v>0.87</v>
@@ -1438,19 +1573,19 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G17" s="1">
         <v>0.99470000000000003</v>
@@ -1461,19 +1596,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H18">
         <v>41</v>
@@ -1481,19 +1616,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1">
         <v>0.99099999999999999</v>
@@ -1504,19 +1639,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G20" s="1">
         <v>0.95299999999999996</v>
@@ -1527,16 +1662,16 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1548,24 +1683,24 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1">
         <v>0.95669999999999999</v>
@@ -1574,27 +1709,27 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1">
         <v>0.99819999999999998</v>
@@ -1603,78 +1738,80 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J23" t="s">
-        <v>75</v>
+        <v>71</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G24" s="4">
         <v>0.9</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="J25" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1682,24 +1819,24 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1709,30 +1846,30 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>99</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G28" s="1">
         <v>0.88519999999999999</v>
@@ -1741,30 +1878,30 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G29" s="1">
         <v>0.85899999999999999</v>
@@ -1773,76 +1910,76 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G30" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" t="s">
-        <v>75</v>
+        <v>111</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="K30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" t="s">
         <v>115</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" t="s">
-        <v>118</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="J31" t="s">
-        <v>75</v>
+        <v>117</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="K31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D31)</f>
@@ -1853,16 +1990,16 @@
       </c>
       <c r="G47" s="1">
         <f>AVERAGE(G2:G31)</f>
-        <v>0.93763636363636349</v>
+        <v>0.93718181818181812</v>
       </c>
       <c r="H47">
         <f>AVERAGE(H2:H31)</f>
-        <v>24.59090909090909</v>
+        <v>23.90909090909091</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D48">
         <f>MAX(D2:D31)</f>
@@ -1879,7 +2016,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D49">
         <f>MIN(D2:D31)</f>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC2F0B3-F6E1-4277-A904-885F6382B44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867FB036-3E9D-4999-8B46-499ACBB3AA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="Literature review Papers" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="189">
   <si>
     <t>Reference</t>
   </si>
@@ -115,17 +114,7 @@
     <t>Kim et al, 2018</t>
   </si>
   <si>
-    <t>Textile Pressure Sensors
-(Conductive Ni-Ti alloy fiber)</t>
-  </si>
-  <si>
     <t>Feng et al., 2019</t>
-  </si>
-  <si>
-    <t>RFID tags</t>
-  </si>
-  <si>
-    <t>RF</t>
   </si>
   <si>
     <t>Hu et al., 2020</t>
@@ -258,9 +247,6 @@
     <t>Few Test Samples</t>
   </si>
   <si>
-    <t xml:space="preserve">No accuracy </t>
-  </si>
-  <si>
     <t>Fan et al., 2022</t>
   </si>
   <si>
@@ -378,9 +364,6 @@
   </si>
   <si>
     <t>Desktop App</t>
-  </si>
-  <si>
-    <t>Small number of postures</t>
   </si>
   <si>
     <t>Lack of focus on the User feedback aspects
@@ -625,6 +608,95 @@
   </si>
   <si>
     <t>Compared 7 different Ml algorithms. SVM (RBF) had the best results</t>
+  </si>
+  <si>
+    <t>1- uprightsitting, 2-right leg crossed over left leg, 3- upright sitting, 4- left leg crossed over right leg, 5- upright sitting, 6- sitting with both legs lifted, 7- upright sitting, and 8- back tostanding position</t>
+  </si>
+  <si>
+    <t>Desktop App (GUI)</t>
+  </si>
+  <si>
+    <t>Textile Pressure Sensors
+(Conductive Ni-Ti alloy fiber)
+Woven fabric</t>
+  </si>
+  <si>
+    <t>Placed on the seat cushion and the back rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Created a custom (fabric) pressure sensor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No classification accuracy % seen 
+Desktop Gui doesn't provide a useful feedback to the end user </t>
+  </si>
+  <si>
+    <t>Camera &amp; RFID tags</t>
+  </si>
+  <si>
+    <t>3 placed on the user's back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placed 3 tags on the user's back and had an antenna positioned at the back of the user. The idea is that under different sitting positions, the distance and angle between the tags and antenna varies. </t>
+  </si>
+  <si>
+    <t>(a) Sitting Straight (b) Lean Forward (c) Lean Backward</t>
+  </si>
+  <si>
+    <t>Low number of postures
+Low number of test subjects</t>
+  </si>
+  <si>
+    <t>RF (Random Forest)</t>
+  </si>
+  <si>
+    <t>3 sensors on top of the seating cushion
+2 sensors at the arm rest
+1 sensors at the back</t>
+  </si>
+  <si>
+    <t>No user feedback system 
+Not realtime</t>
+  </si>
+  <si>
+    <t>Used 6 different flex senors to determin sitting postures</t>
+  </si>
+  <si>
+    <t>6 pressure sensors placed on the seating cushion
+6 distace sensors placed on the backrest</t>
+  </si>
+  <si>
+    <t>Leaning on the seatback
+while keeping the back straight, (2) detaching the back from the seatback
+and keeping the trunk erect, (3) flexing the trunk forward about 45
+degrees (slouch), (4) leaning against an armrest with lateral bending
+(left), (5) leaning against an armrest with lateral bending (right), (6)
+sitting on the leading edge with convex trunk, (7) leaning back with hips
+slightly forward (slump), (8) legs crossed (left), (9) legs crossed (right),
+(10) rotating the trunk about 20 degrees (left), and (11) rotating the trunk</t>
+  </si>
+  <si>
+    <t>Used distance and pressure senosr to classify different sitting postures. Having the mixed sensor system achieved better results and accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Feedback system </t>
+  </si>
+  <si>
+    <t>4 sensors distributed across the seating cushion
+4 sensors located at the backrest</t>
+  </si>
+  <si>
+    <t>(P1) Seated upright, (P2) Slouching, (P3) Leaning forward, (P4) Leaning back, (P5) Leaning back with no lumbar support, (P6) Leaning left, (P7) Leaning right, (P8) Right leg crossed, (P9) Right leg crossed, leaning left, (P10) Left leg crossed, (P11) Left leg crossed, leaning right</t>
+  </si>
+  <si>
+    <t>It had a low accuracy for the classification of 11 postures. They had to reduce it to 8 postures to be able to achieve 93.40%
+Little to nothing was discussed on the mobile app</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used ANN to classify 11 sitting postures in realt-ime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used ANN to classify 11 sitting postures in real-time</t>
   </si>
 </sst>
 </file>
@@ -1041,14 +1113,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
@@ -1068,13 +1140,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>2</v>
@@ -1089,13 +1161,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1103,16 +1175,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1124,16 +1196,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1141,16 +1213,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1162,16 +1234,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1179,16 +1251,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1197,19 +1269,19 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1217,37 +1289,37 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1255,37 +1327,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1296,16 +1368,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G7" s="1">
         <v>0.91679999999999995</v>
@@ -1314,16 +1386,16 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,34 +1406,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,19 +1441,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" t="s">
         <v>157</v>
-      </c>
-      <c r="F9" t="s">
-        <v>162</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -1390,16 +1462,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1410,13 +1482,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1428,16 +1500,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1445,37 +1517,57 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="D11">
         <v>7</v>
       </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
       <c r="F11" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J11" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
+      <c r="E12" t="s">
+        <v>174</v>
+      </c>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -1483,25 +1575,37 @@
       <c r="H12">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>99</v>
+      <c r="I12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>177</v>
+      </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G13" s="1">
         <v>0.97430000000000005</v>
@@ -1509,18 +1613,35 @@
       <c r="H13">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="D14">
         <v>11</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="F14" t="s">
         <v>8</v>
       </c>
@@ -1530,39 +1651,69 @@
       <c r="H14">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
       <c r="F15" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="1">
-        <v>0.93400000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G16" s="4">
         <v>0.87</v>
@@ -1573,19 +1724,19 @@
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="1">
         <v>0.99470000000000003</v>
@@ -1596,19 +1747,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H18">
         <v>41</v>
@@ -1616,19 +1767,19 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G19" s="1">
         <v>0.99099999999999999</v>
@@ -1642,16 +1793,16 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1">
         <v>0.95299999999999996</v>
@@ -1662,16 +1813,16 @@
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1683,24 +1834,24 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G22" s="1">
         <v>0.95669999999999999</v>
@@ -1709,27 +1860,27 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G23" s="1">
         <v>0.99819999999999998</v>
@@ -1738,80 +1889,80 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G24" s="4">
         <v>0.9</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
       </c>
       <c r="H25" s="3"/>
       <c r="J25" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1819,24 +1970,24 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="J26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K26" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1846,30 +1997,30 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="G28" s="1">
         <v>0.88519999999999999</v>
@@ -1878,30 +2029,30 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G29" s="1">
         <v>0.85899999999999999</v>
@@ -1910,76 +2061,76 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K29" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G30" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D31)</f>
@@ -1990,7 +2141,7 @@
       </c>
       <c r="G47" s="1">
         <f>AVERAGE(G2:G31)</f>
-        <v>0.93718181818181812</v>
+        <v>0.92654545454545467</v>
       </c>
       <c r="H47">
         <f>AVERAGE(H2:H31)</f>
@@ -1999,7 +2150,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D48">
         <f>MAX(D2:D31)</f>
@@ -2016,7 +2167,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D49">
         <f>MIN(D2:D31)</f>
@@ -2024,7 +2175,7 @@
       </c>
       <c r="G49" s="1">
         <f>MIN(G2:G31)</f>
-        <v>0.81</v>
+        <v>0.7</v>
       </c>
       <c r="H49">
         <f>MIN(H2:H30)</f>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867FB036-3E9D-4999-8B46-499ACBB3AA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C228E-F273-45AE-85EB-38AA39BB1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="210">
   <si>
     <t>Reference</t>
   </si>
@@ -136,9 +136,6 @@
   </si>
   <si>
     <t>Mutlu et al., 2007</t>
-  </si>
-  <si>
-    <t>Pressure sensors (Force Sensing Resistors)</t>
   </si>
   <si>
     <t>SimpleLogistic</t>
@@ -172,9 +169,6 @@
     <t>Random Forest</t>
   </si>
   <si>
-    <t>81% - 98%</t>
-  </si>
-  <si>
     <t>Zemp et al, 2016</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
   </si>
   <si>
     <t>upper body hunched, sitting upright (the correct sitting posture), leaning backward, leaning left, leaning right, sitting at the front edge, leaning forward, left leg crossed, right leg crossed, and both cross-legged postures</t>
-  </si>
-  <si>
-    <t>8x8 Pressure Sensor</t>
   </si>
   <si>
     <t>CNN </t>
@@ -693,17 +684,98 @@
 Little to nothing was discussed on the mobile app</t>
   </si>
   <si>
-    <t xml:space="preserve"> Used ANN to classify 11 sitting postures in realt-ime</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Used ANN to classify 11 sitting postures in real-time</t>
+  </si>
+  <si>
+    <t>19 4x4 Pressure sensors (Force Sensing Resistors)</t>
+  </si>
+  <si>
+    <t>Left leg crossed, (2) Right leg crossed, leaning left, (3) Leaning back, (4) Leaning forward, (5) Leaning left, (6) Leaning right, (7) Left leg crossed, leaning right, (8) Seated upright, (9) Right leg crossed, (10) Slouching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 sensors at the back rest
+11 sensors </t>
+  </si>
+  <si>
+    <t>Low classification accuracy
+Low number of test subjects
+No User feedback system</t>
+  </si>
+  <si>
+    <t>Used SimpleLogistic classify different sitting postures</t>
+  </si>
+  <si>
+    <t>7 sensors placed on top of the wheelchair seat
+5 sensors placed on the backrest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used a decision-based algorithm to classify postures.
+Seven different classifer was considered </t>
+  </si>
+  <si>
+    <t>1: upright position, 2: reclined position, 3: forward inclined position, 4/5: laterally tilted right/left position, 6/7: crossed legs, the left leg over the right one/the right leg over the left one)</t>
+  </si>
+  <si>
+    <t>Low nubr of test subjects</t>
+  </si>
+  <si>
+    <t>10 pressure sensors were fixed within the seat pan
+4 were fixed on the backrest 
+2 were fixed on each armrest.</t>
+  </si>
+  <si>
+    <t>Didn't branch out to the user feedback area</t>
+  </si>
+  <si>
+    <t>Comapred 5 different algorithm; RF achieve the best accuracy</t>
+  </si>
+  <si>
+    <t>Haeseok Jeong et al.</t>
+  </si>
+  <si>
+    <t>Haeyoon Cho et al</t>
+  </si>
+  <si>
+    <t>Jianquan Wang et al</t>
+  </si>
+  <si>
+    <t>13 sensors placed on top of the seating cushion</t>
+  </si>
+  <si>
+    <t>Dektop App</t>
+  </si>
+  <si>
+    <t>The feedback system wasn't implemented into a mobile app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested 5 differentt classfiers to detect postures
+Implemeted a usability surveys System Usability Scale (SUS) and the Questionnaire for User Interface Satisfaction (QUIS)
+Incorperated an alarm feature that notifies the user if an abnormal posture was detected for 30 mins </t>
+  </si>
+  <si>
+    <t>Focused on the classification of children's sitting postures</t>
+  </si>
+  <si>
+    <t>Bao et al.</t>
+  </si>
+  <si>
+    <t>Kamiya et al.</t>
+  </si>
+  <si>
+    <t>Sensor placed inside children’s chair seat cushion.</t>
+  </si>
+  <si>
+    <t>8x8 Pressure Mat Sensor</t>
+  </si>
+  <si>
+    <t>Used CNN to classify different sitting for children</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,8 +814,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +832,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -774,12 +858,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -787,18 +872,20 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1114,7 +1201,7 @@
   <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,7 +1209,7 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="44.140625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
@@ -1133,41 +1220,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>72</v>
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1175,16 +1262,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1196,16 +1283,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>134</v>
+        <v>115</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1213,16 +1300,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1234,16 +1321,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1251,16 +1338,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -1268,20 +1355,20 @@
       <c r="G4" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>134</v>
+      <c r="H4" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,37 +1376,37 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>134</v>
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1327,37 +1414,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>134</v>
+      <c r="E6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1368,16 +1455,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G7" s="1">
         <v>0.91679999999999995</v>
@@ -1386,16 +1473,16 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,35 +1492,35 @@
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>134</v>
+      <c r="C8" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>134</v>
+        <v>143</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1441,19 +1528,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -1462,16 +1549,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1482,13 +1569,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -1500,16 +1587,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>134</v>
+        <v>160</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,37 +1604,37 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>134</v>
+        <v>162</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1555,19 +1642,19 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -1576,16 +1663,16 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>134</v>
+        <v>172</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,13 +1683,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -1614,16 +1701,16 @@
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>134</v>
+        <v>175</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -1652,16 +1739,16 @@
         <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>134</v>
+        <v>180</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1672,13 +1759,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -1690,53 +1777,74 @@
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>185</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
+      <c r="E16" t="s">
+        <v>186</v>
+      </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="4">
-        <v>0.87</v>
+        <v>0.78</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>20</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="1">
         <v>0.99470000000000003</v>
@@ -1744,42 +1852,75 @@
       <c r="H17">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
+      <c r="I17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="F18" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.90900000000000003</v>
       </c>
       <c r="H18">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1">
         <v>0.99099999999999999</v>
@@ -1787,22 +1928,37 @@
       <c r="H19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J19" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>208</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G20" s="1">
         <v>0.95299999999999996</v>
@@ -1810,19 +1966,31 @@
       <c r="H20">
         <v>10</v>
       </c>
+      <c r="I20" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>63</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -1834,24 +2002,24 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1">
         <v>0.95669999999999999</v>
@@ -1860,27 +2028,27 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1">
         <v>0.99819999999999998</v>
@@ -1889,80 +2057,80 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>134</v>
+        <v>64</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G24" s="4">
         <v>0.9</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="J25" s="8" t="s">
-        <v>134</v>
+      <c r="J25" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1970,24 +2138,24 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1997,30 +2165,30 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" t="s">
-        <v>92</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G28" s="1">
         <v>0.88519999999999999</v>
@@ -2029,30 +2197,30 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1">
         <v>0.85899999999999999</v>
@@ -2061,76 +2229,101 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G30" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>134</v>
+        <v>103</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>110</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J31" s="8" t="s">
-        <v>134</v>
+        <v>109</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>113</v>
+      <c r="A47" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D31)</f>
@@ -2141,16 +2334,16 @@
       </c>
       <c r="G47" s="1">
         <f>AVERAGE(G2:G31)</f>
-        <v>0.92654545454545467</v>
+        <v>0.92186956521739127</v>
       </c>
       <c r="H47">
         <f>AVERAGE(H2:H31)</f>
-        <v>23.90909090909091</v>
+        <v>22.727272727272727</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D48">
         <f>MAX(D2:D31)</f>
@@ -2167,7 +2360,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D49">
         <f>MIN(D2:D31)</f>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059C228E-F273-45AE-85EB-38AA39BB1AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F7DCC-37FF-49CC-8398-AE8EA3D67DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="210">
   <si>
     <t>Reference</t>
   </si>
@@ -899,6 +899,1187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Postures</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$A$2:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>Pereira and Plácido Da Silva, 2023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Ahmad et al., 2021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huang et al., 2017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Martínez-Estrada et al., 2023</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Matuska et al., 2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aminosharieh Najafi et al., 2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Kundaliya et al., 2022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Ran et al., 2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Roh et al., 2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Kim et al, 2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Feng et al., 2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Hu et al., 2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Jeong and Park, 2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Martins et al. 2013</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Mutlu et al., 2007</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Ma et al., 2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Zemp et al, 2016</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Tsai et al, 2023</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Kim et al, 2018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Luna-Perejón et al, 2021</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Cai et al. 2021</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Fan et al., 2022</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Chen, 2019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Ma et al., 2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Fard et al., 2013</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ren et al, 2013</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Wang et al., 2021</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Xu et al, 2013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>R. et al, 2023</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$D$2:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83CE-4E9E-A247-D7B51E624BD0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="964372416"/>
+        <c:axId val="964555584"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="964372416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964555584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="964555584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="964372416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1065892</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>861787</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>124732</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{564EDCC6-E5B1-5708-0BA5-18B818F043AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,7 +3254,12 @@
       <c r="B24" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="D24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>131</v>
+      </c>
       <c r="F24" t="s">
         <v>47</v>
       </c>
@@ -2377,6 +3563,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402F7DCC-37FF-49CC-8398-AE8EA3D67DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D3343E-53C3-435E-B85C-A9A1D455322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="214">
   <si>
     <t>Reference</t>
   </si>
@@ -212,9 +212,6 @@
 crossed over the right.</t>
   </si>
   <si>
-    <t xml:space="preserve">Low accuracy </t>
-  </si>
-  <si>
     <t>Cai et al. 2021</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
   </si>
   <si>
     <t>Naive Bayes Network</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>Situp, Forward, Backward, Left Lean, Right Lean, Left foot over right, Right foot over left</t>
@@ -769,6 +763,26 @@
   </si>
   <si>
     <t>Used CNN to classify different sitting for children</t>
+  </si>
+  <si>
+    <t>Sensor placed on the seating cushion</t>
+  </si>
+  <si>
+    <t>PC Application (Sensor Heat Map)</t>
+  </si>
+  <si>
+    <t>Used ANN to clasify the different sitting postures. Developed a PC application that shows the distribution of pressure on th chair</t>
+  </si>
+  <si>
+    <t>Low accuracy 
+Limited number of test subjects
+PC application only looked at the distribution of pressure data (heat map) within the GUI. Not feedback/recommendation was given</t>
+  </si>
+  <si>
+    <t>Relying on RGB to be able to provide feedbacks</t>
+  </si>
+  <si>
+    <t>Mobile app</t>
   </si>
 </sst>
 </file>
@@ -2045,16 +2059,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1065892</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>351518</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>102053</xdr:rowOff>
+      <xdr:rowOff>181428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>861787</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>124732</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>362858</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2381,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2432,10 +2446,10 @@
         <v>50</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2443,16 +2457,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -2464,16 +2478,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2481,16 +2495,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2502,16 +2516,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2519,16 +2533,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
         <v>117</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2537,19 +2551,19 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2557,37 +2571,37 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" t="s">
         <v>131</v>
-      </c>
-      <c r="K5" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2595,37 +2609,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2636,16 +2650,16 @@
         <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G7" s="1">
         <v>0.91679999999999995</v>
@@ -2654,16 +2668,16 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="J7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2674,34 +2688,34 @@
         <v>19</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K8" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" t="s">
         <v>143</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" t="s">
-        <v>152</v>
-      </c>
-      <c r="K8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2709,19 +2723,19 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -2730,16 +2744,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2750,13 +2764,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
@@ -2768,16 +2782,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2785,37 +2799,37 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2823,19 +2837,19 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" t="s">
         <v>171</v>
-      </c>
-      <c r="F12" t="s">
-        <v>173</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -2844,16 +2858,16 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,13 +2878,13 @@
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
         <v>27</v>
@@ -2882,16 +2896,16 @@
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2902,13 +2916,13 @@
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -2920,16 +2934,16 @@
         <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2940,13 +2954,13 @@
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -2958,16 +2972,16 @@
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2975,16 +2989,16 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F16" t="s">
         <v>33</v>
@@ -2996,16 +3010,16 @@
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3016,7 +3030,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3034,16 +3048,16 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3054,13 +3068,13 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
@@ -3072,16 +3086,16 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3092,7 +3106,7 @@
         <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -3110,16 +3124,16 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>62</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="K19" t="s">
-        <v>63</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,10 +3141,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3148,16 +3162,16 @@
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3165,7 +3179,10 @@
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -3182,25 +3199,37 @@
       <c r="H21">
         <v>12</v>
       </c>
-      <c r="I21" t="s">
-        <v>52</v>
+      <c r="I21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J21" t="s">
+        <v>209</v>
+      </c>
+      <c r="K21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1">
         <v>0.95669999999999999</v>
@@ -3209,24 +3238,27 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="K22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
         <v>47</v>
@@ -3238,27 +3270,27 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
-        <v>67</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
         <v>47</v>
@@ -3266,57 +3298,66 @@
       <c r="G24" s="4">
         <v>0.9</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="J25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3324,24 +3365,24 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" t="s">
         <v>79</v>
       </c>
-      <c r="J26" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3350,31 +3391,34 @@
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
+      <c r="I27" t="s">
+        <v>212</v>
+      </c>
       <c r="J27" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" t="s">
+        <v>62</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="K27" t="s">
-        <v>63</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G28" s="1">
         <v>0.88519999999999999</v>
@@ -3383,30 +3427,30 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
         <v>93</v>
-      </c>
-      <c r="B29" t="s">
-        <v>94</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" s="1">
         <v>0.85899999999999999</v>
@@ -3415,101 +3459,105 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K29" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G30" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="I30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D47">
         <f>AVERAGE(D2:D31)</f>
@@ -3529,7 +3577,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D48">
         <f>MAX(D2:D31)</f>
@@ -3546,7 +3594,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D49">
         <f>MIN(D2:D31)</f>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D3343E-53C3-435E-B85C-A9A1D455322E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C9FB7-CBFD-4932-AFC1-26C3038AEFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530C9FB7-CBFD-4932-AFC1-26C3038AEFE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49052A0-DB9E-46A5-9AF6-B8C5D73C5910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
-    <sheet name="Literature review Papers" sheetId="2" r:id="rId2"/>
+    <sheet name="Pressure Sensors" sheetId="3" r:id="rId2"/>
+    <sheet name="Literature review Papers" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -710,9 +711,6 @@
     <t>1: upright position, 2: reclined position, 3: forward inclined position, 4/5: laterally tilted right/left position, 6/7: crossed legs, the left leg over the right one/the right leg over the left one)</t>
   </si>
   <si>
-    <t>Low nubr of test subjects</t>
-  </si>
-  <si>
     <t>10 pressure sensors were fixed within the seat pan
 4 were fixed on the backrest 
 2 were fixed on each armrest.</t>
@@ -783,13 +781,16 @@
   </si>
   <si>
     <t>Mobile app</t>
+  </si>
+  <si>
+    <t>Low number of test subjects</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,8 +836,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +866,21 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
   </fills>
@@ -872,13 +902,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -895,9 +928,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
+    <cellStyle name="Accent1" xfId="5" builtinId="29"/>
+    <cellStyle name="Accent4" xfId="6" builtinId="41"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2395,8 +2434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2453,7 +2492,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2491,7 +2530,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
@@ -2529,7 +2568,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
@@ -2567,7 +2606,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2605,7 +2644,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
@@ -2643,7 +2682,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
@@ -2681,7 +2720,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B8" t="s">
@@ -2719,7 +2758,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
@@ -2757,7 +2796,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B10" t="s">
@@ -2985,7 +3024,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B16" t="s">
@@ -3023,7 +3062,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B17" t="s">
@@ -3048,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>129</v>
@@ -3068,7 +3107,7 @@
         <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D18">
         <v>7</v>
@@ -3086,7 +3125,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>129</v>
@@ -3095,18 +3134,18 @@
         <v>79</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -3124,16 +3163,16 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
         <v>62</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3141,10 +3180,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3162,27 +3201,27 @@
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>201</v>
+      </c>
+      <c r="J20" t="s">
+        <v>55</v>
       </c>
       <c r="K20" t="s">
         <v>62</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -3200,16 +3239,16 @@
         <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
         <v>62</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3337,7 +3376,7 @@
         <v>129</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>129</v>
@@ -3392,7 +3431,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
         <v>82</v>
@@ -3532,27 +3571,27 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3616,6 +3655,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A15BCD2-717D-4638-A2AB-9DBE4F9B1BF7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D1E6-A3F9-43EF-8681-7C71C58C09B5}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49052A0-DB9E-46A5-9AF6-B8C5D73C5910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A04C0-09E7-4876-8E0A-E5934B00C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
   <si>
     <t>Reference</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Matuska et al., 2020</t>
-  </si>
-  <si>
-    <t>6 Flexible Force Sensors</t>
   </si>
   <si>
     <t>Aminosharieh Najafi et al., 2022</t>
@@ -410,10 +407,6 @@
 forward, 4: No Contact}</t>
   </si>
   <si>
-    <t>Lacks Proper testing 
-There's a need to implement a feedback system</t>
-  </si>
-  <si>
     <t>RESULTS</t>
   </si>
   <si>
@@ -784,6 +777,26 @@
   </si>
   <si>
     <t>Low number of test subjects</t>
+  </si>
+  <si>
+    <t>6 Flex Sensors</t>
+  </si>
+  <si>
+    <t>AbuTerkia et al, 2022</t>
+  </si>
+  <si>
+    <t>5 Flex sensors</t>
+  </si>
+  <si>
+    <t>1-sit straight; 2-left recline; 3-right recline; 4-lounge;5-lean backward; 6-cross left leg; 7-cross right leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used "Binary Classification" to determine sitting postures, which seems to be quite a weak algorithm
+Theres no user testing involved in their paper
+</t>
+  </si>
+  <si>
+    <t>Used Flex sensor to determine siiting postures</t>
   </si>
 </sst>
 </file>
@@ -2100,13 +2113,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>351518</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>181428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>362858</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>11339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2432,10 +2445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,13 +2474,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>2</v>
@@ -2482,30 +2495,30 @@
         <v>5</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -2517,16 +2530,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,16 +2547,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2555,16 +2568,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2572,16 +2585,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
         <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2590,19 +2603,19 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2610,37 +2623,37 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
         <v>129</v>
-      </c>
-      <c r="K5" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,57 +2661,57 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G7" s="1">
         <v>0.91679999999999995</v>
@@ -2707,74 +2720,74 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="J7" t="s">
-        <v>144</v>
-      </c>
-      <c r="K7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
         <v>141</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J8" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -2783,36 +2796,36 @@
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="1">
         <v>0.97940000000000005</v>
@@ -2821,74 +2834,74 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
         <v>169</v>
-      </c>
-      <c r="F12" t="s">
-        <v>171</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -2897,36 +2910,36 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G13" s="1">
         <v>0.97430000000000005</v>
@@ -2935,33 +2948,33 @@
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="K13" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -2973,33 +2986,33 @@
         <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -3011,36 +3024,36 @@
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="4">
         <v>0.78</v>
@@ -3049,36 +3062,36 @@
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1">
         <v>0.99470000000000003</v>
@@ -3087,36 +3100,36 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" s="8">
         <v>0.90900000000000003</v>
@@ -3125,36 +3138,36 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>43</v>
       </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
       <c r="C19" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1">
         <v>0.99099999999999999</v>
@@ -3163,36 +3176,36 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="J19" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="K19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D20">
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G20" s="1">
         <v>0.95299999999999996</v>
@@ -3201,33 +3214,33 @@
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D21">
         <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
@@ -3239,36 +3252,36 @@
         <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22">
         <v>6</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1">
         <v>0.95669999999999999</v>
@@ -3277,30 +3290,30 @@
         <v>40</v>
       </c>
       <c r="I22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="1">
         <v>0.99819999999999998</v>
@@ -3309,94 +3322,94 @@
         <v>8</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
         <v>65</v>
       </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G24" s="4">
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3404,24 +3417,24 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" t="s">
         <v>78</v>
       </c>
-      <c r="J26" t="s">
-        <v>64</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3431,33 +3444,33 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="J27" t="s">
+        <v>81</v>
+      </c>
+      <c r="K27" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="K27" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" s="1">
         <v>0.88519999999999999</v>
@@ -3466,30 +3479,30 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>93</v>
       </c>
       <c r="D29">
         <v>7</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G29" s="1">
         <v>0.85899999999999999</v>
@@ -3498,152 +3511,185 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G30" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I30" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F31" t="s">
         <v>104</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" t="s">
-        <v>105</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>107</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="I31" s="2"/>
       <c r="J31" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>194</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K32" t="s">
+        <v>78</v>
+      </c>
+      <c r="L32" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47">
-        <f>AVERAGE(D2:D31)</f>
-        <v>7.0740740740740744</v>
-      </c>
-      <c r="F47" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48">
+        <f>AVERAGE(D2:D32)</f>
+        <v>7.0714285714285712</v>
+      </c>
+      <c r="F48" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G48" s="1">
         <f>AVERAGE(G2:G31)</f>
         <v>0.92186956521739127</v>
       </c>
-      <c r="H47">
+      <c r="H48">
         <f>AVERAGE(H2:H31)</f>
         <v>22.727272727272727</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48">
-        <f>MAX(D2:D31)</f>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49">
+        <f>MAX(D2:D32)</f>
         <v>15</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G49" s="1">
         <f>MAX(G2:G31)</f>
         <v>0.99819999999999998</v>
       </c>
-      <c r="H48">
+      <c r="H49">
         <f>MAX(H2:H30)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49">
-        <f>MIN(D2:D31)</f>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50">
+        <f>MIN(D2:D32)</f>
         <v>3</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G50" s="1">
         <f>MIN(G2:G31)</f>
         <v>0.7</v>
       </c>
-      <c r="H49">
+      <c r="H50">
         <f>MIN(H2:H30)</f>
         <v>5</v>
       </c>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2A04C0-09E7-4876-8E0A-E5934B00C1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4697F5-ED63-419D-882F-C21B343C1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="220">
   <si>
     <t>Reference</t>
   </si>
@@ -359,19 +359,6 @@
     <t>Xu et al, 2013</t>
   </si>
   <si>
-    <t>Electrical Textile</t>
-  </si>
-  <si>
-    <t>Naive Bayes Network</t>
-  </si>
-  <si>
-    <t>Situp, Forward, Backward, Left Lean, Right Lean, Left foot over right, Right foot over left</t>
-  </si>
-  <si>
-    <t>The mobile just visualizes the sitting pressure distribution, however the value of this is not really seen to the end user's persepective.
-No sort of recommendation system.</t>
-  </si>
-  <si>
     <t>R. et al, 2023</t>
   </si>
   <si>
@@ -797,6 +784,26 @@
   </si>
   <si>
     <t>Used Flex sensor to determine siiting postures</t>
+  </si>
+  <si>
+    <t>Mobile App (Pressure Distribution Map)</t>
+  </si>
+  <si>
+    <t>Situp Forward Backward LL RL LFOR RFOL</t>
+  </si>
+  <si>
+    <t>dynamic time warping based algorithm</t>
+  </si>
+  <si>
+    <t>Mobile app doesn't provided an valuable feedback
+Didn't use ML
+Lower accuracy compared to others</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textile Pressure Sensor Array </t>
+  </si>
+  <si>
+    <t>Please on the seating cushion</t>
   </si>
 </sst>
 </file>
@@ -1105,9 +1112,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$2:$A$30</c:f>
+              <c:f>'Sitting Posture System'!$A$2:$A$29</c:f>
               <c:strCache>
-                <c:ptCount val="29"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>Pereira and Plácido Da Silva, 2023</c:v>
                 </c:pt>
@@ -1190,9 +1197,6 @@
                   <c:v>Wang et al., 2021</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Xu et al, 2013</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>R. et al, 2023</c:v>
                 </c:pt>
               </c:strCache>
@@ -1200,10 +1204,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$D$2:$D$30</c:f>
+              <c:f>'Sitting Posture System'!$D$2:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1283,9 +1287,6 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -2447,8 +2448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2509,16 +2510,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -2530,16 +2531,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K2" t="s">
         <v>78</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,16 +2548,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2568,16 +2569,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K3" t="s">
         <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2585,16 +2586,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2603,57 +2604,57 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
         <v>78</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
         <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,37 +2662,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" t="s">
         <v>140</v>
-      </c>
-      <c r="J6" t="s">
-        <v>144</v>
       </c>
       <c r="K6" t="s">
         <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2702,16 +2703,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G7" s="1">
         <v>0.91679999999999995</v>
@@ -2720,16 +2721,16 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K7" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2740,34 +2741,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K8" t="s">
         <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,19 +2776,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -2796,16 +2797,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K9" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2816,13 +2817,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -2834,54 +2835,54 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
         <v>78</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K11" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,19 +2890,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F12" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -2910,16 +2911,16 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
         <v>78</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2927,16 +2928,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -2948,16 +2949,16 @@
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K13" t="s">
         <v>78</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2968,13 +2969,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -2986,16 +2987,16 @@
         <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
         <v>78</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3006,13 +3007,13 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -3024,7 +3025,7 @@
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
         <v>54</v>
@@ -3033,7 +3034,7 @@
         <v>61</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3041,16 +3042,16 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -3062,16 +3063,16 @@
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K16" t="s">
         <v>78</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3082,7 +3083,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3100,16 +3101,16 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K17" t="s">
         <v>78</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3120,13 +3121,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
@@ -3138,16 +3139,16 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K18" t="s">
         <v>78</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,7 +3159,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -3176,16 +3177,16 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
         <v>61</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,10 +3194,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3214,7 +3215,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J20" t="s">
         <v>54</v>
@@ -3223,7 +3224,7 @@
         <v>61</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3234,7 +3235,7 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -3252,16 +3253,16 @@
         <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,7 +3273,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -3325,7 +3326,7 @@
         <v>62</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K23" t="s">
         <v>61</v>
@@ -3339,10 +3340,10 @@
         <v>65</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
         <v>46</v>
@@ -3351,7 +3352,7 @@
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>83</v>
@@ -3386,16 +3387,16 @@
         <v>0.89</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3444,7 +3445,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
         <v>81</v>
@@ -3457,7 +3458,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>84</v>
       </c>
       <c r="B28" t="s">
@@ -3488,15 +3489,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>94</v>
@@ -3505,87 +3506,93 @@
         <v>93</v>
       </c>
       <c r="G29" s="1">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="H29">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" t="s">
-        <v>54</v>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I29" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="K29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="1">
-        <v>0.92500000000000004</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G30" s="3"/>
       <c r="H30" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I30" t="s">
-        <v>100</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="I30" s="2"/>
       <c r="J30" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s">
         <v>61</v>
       </c>
-      <c r="L30" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>101</v>
+      <c r="A31" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>210</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" t="s">
-        <v>104</v>
-      </c>
-      <c r="G31" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="H31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I31" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K31" t="s">
-        <v>61</v>
+        <v>78</v>
+      </c>
+      <c r="L31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>213</v>
+        <v>91</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
       </c>
       <c r="D32">
         <v>7</v>
@@ -3593,56 +3600,53 @@
       <c r="E32" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>127</v>
+      <c r="F32" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>127</v>
+        <v>217</v>
+      </c>
+      <c r="J32" t="s">
+        <v>214</v>
       </c>
       <c r="K32" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" t="s">
-        <v>217</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D48">
         <f>AVERAGE(D2:D32)</f>
@@ -3652,45 +3656,45 @@
         <v>12</v>
       </c>
       <c r="G48" s="1">
-        <f>AVERAGE(G2:G31)</f>
-        <v>0.92186956521739127</v>
+        <f>AVERAGE(G2:G30)</f>
+        <v>0.92472727272727273</v>
       </c>
       <c r="H48">
-        <f>AVERAGE(H2:H31)</f>
-        <v>22.727272727272727</v>
+        <f>AVERAGE(H2:H30)</f>
+        <v>23.142857142857142</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D49">
         <f>MAX(D2:D32)</f>
         <v>15</v>
       </c>
       <c r="G49" s="1">
-        <f>MAX(G2:G31)</f>
+        <f>MAX(G2:G30)</f>
         <v>0.99819999999999998</v>
       </c>
       <c r="H49">
-        <f>MAX(H2:H30)</f>
+        <f>MAX(H2:H29)</f>
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D50">
         <f>MIN(D2:D32)</f>
         <v>3</v>
       </c>
       <c r="G50" s="1">
-        <f>MIN(G2:G31)</f>
+        <f>MIN(G2:G30)</f>
         <v>0.7</v>
       </c>
       <c r="H50">
-        <f>MIN(H2:H30)</f>
+        <f>MIN(H2:H29)</f>
         <v>5</v>
       </c>
     </row>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4697F5-ED63-419D-882F-C21B343C1297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8934F-0B1F-4AB5-87B9-83D5B61B07A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="221">
   <si>
     <t>Reference</t>
   </si>
@@ -256,9 +256,6 @@
 _ Lack of detection of spine curvatures</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Chen, 2019</t>
   </si>
   <si>
@@ -805,12 +802,18 @@
   <si>
     <t>Please on the seating cushion</t>
   </si>
+  <si>
+    <t>Chairs With A Feedback System</t>
+  </si>
+  <si>
+    <t>Chairs Without A Feedback System</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -870,8 +873,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -903,8 +913,13 @@
         <fgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -921,8 +936,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -930,8 +960,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -951,8 +982,12 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Accent4" xfId="6" builtinId="41"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -960,6 +995,7 @@
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="7" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1498,7 +1534,329 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$D$52:$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Chairs Without A Feedback System</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Chairs With A Feedback System</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$E$52:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A43-417F-9610-FB55522FD97D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2108,6 +2466,607 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2141,6 +3100,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>849759</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>180226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>477321</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>33820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D97EC6F-BDF6-10A4-A716-8C4E853500F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2446,10 +3441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2502,7 +3497,7 @@
         <v>58</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -2510,16 +3505,16 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -2531,16 +3526,16 @@
         <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,16 +3543,16 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
         <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -2569,16 +3564,16 @@
         <v>32</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2586,16 +3581,16 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
@@ -2604,19 +3599,19 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
         <v>118</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2624,37 +3619,37 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" t="s">
         <v>61</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2662,37 +3657,37 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" t="s">
         <v>127</v>
-      </c>
-      <c r="C6" t="s">
-        <v>128</v>
       </c>
       <c r="D6">
         <v>9</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6">
         <v>12</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>139</v>
       </c>
       <c r="K6" t="s">
         <v>61</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2703,16 +3698,16 @@
         <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="1">
         <v>0.91679999999999995</v>
@@ -2721,16 +3716,16 @@
         <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2741,34 +3736,34 @@
         <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="J8" t="s">
         <v>144</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>143</v>
       </c>
       <c r="K8" t="s">
         <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,19 +3771,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G9" s="1">
         <v>0.97070000000000001</v>
@@ -2797,16 +3792,16 @@
         <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>142</v>
       </c>
       <c r="K9" t="s">
         <v>61</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2817,13 +3812,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -2835,16 +3830,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2852,37 +3847,37 @@
         <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J11" t="s">
         <v>154</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="J11" t="s">
-        <v>155</v>
       </c>
       <c r="K11" t="s">
         <v>61</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2890,19 +3885,19 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" t="s">
         <v>160</v>
-      </c>
-      <c r="C12" t="s">
-        <v>161</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G12" s="1">
         <v>0.99270000000000003</v>
@@ -2911,16 +3906,16 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2928,16 +3923,16 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13">
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
         <v>26</v>
@@ -2949,16 +3944,16 @@
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2969,13 +3964,13 @@
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" t="s">
         <v>8</v>
@@ -2987,33 +3982,33 @@
         <v>36</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D15">
         <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
@@ -3025,16 +4020,16 @@
         <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" t="s">
+        <v>174</v>
+      </c>
+      <c r="J15" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K15" t="s">
         <v>61</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3042,16 +4037,16 @@
         <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16">
         <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -3063,16 +4058,16 @@
         <v>20</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3083,7 +4078,7 @@
         <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -3101,16 +4096,16 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,13 +4116,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
         <v>40</v>
@@ -3139,16 +4134,16 @@
         <v>41</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3159,7 +4154,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -3177,16 +4172,16 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J19" t="s">
         <v>192</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>191</v>
       </c>
       <c r="K19" t="s">
         <v>61</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3194,10 +4189,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -3215,16 +4210,16 @@
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="J20" t="s">
-        <v>54</v>
+        <v>194</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="K20" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3232,10 +4227,10 @@
         <v>48</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -3253,16 +4248,16 @@
         <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3273,7 +4268,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -3293,7 +4288,7 @@
       <c r="I22" t="s">
         <v>56</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="10" t="s">
         <v>54</v>
       </c>
       <c r="K22" t="s">
@@ -3326,7 +4321,7 @@
         <v>62</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K23" t="s">
         <v>61</v>
@@ -3334,16 +4329,16 @@
     </row>
     <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="B24" t="s">
-        <v>65</v>
-      </c>
       <c r="D24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F24" t="s">
         <v>46</v>
@@ -3352,65 +4347,65 @@
         <v>0.9</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="K24" t="s">
         <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25">
         <v>5</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G25" s="4">
         <v>0.89</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3418,24 +4413,24 @@
         <v>5</v>
       </c>
       <c r="I26" t="s">
+        <v>76</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K26" t="s">
         <v>77</v>
       </c>
-      <c r="J26" t="s">
-        <v>63</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -3445,33 +4440,33 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
-        <v>205</v>
-      </c>
-      <c r="J27" t="s">
-        <v>81</v>
+        <v>204</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="K27" t="s">
         <v>61</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28">
         <v>15</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" s="1">
         <v>0.88519999999999999</v>
@@ -3480,10 +4475,10 @@
         <v>19</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J28" t="s">
         <v>89</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="K28" t="s">
         <v>61</v>
@@ -3491,59 +4486,59 @@
     </row>
     <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="1">
         <v>0.92500000000000004</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" t="s">
         <v>61</v>
       </c>
       <c r="L29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" t="s">
         <v>99</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" t="s">
-        <v>100</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s">
         <v>61</v>
@@ -3551,57 +4546,57 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L31" t="s">
         <v>212</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" t="s">
-        <v>78</v>
-      </c>
-      <c r="L31" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" t="s">
         <v>218</v>
-      </c>
-      <c r="C32" t="s">
-        <v>219</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" t="s">
         <v>215</v>
-      </c>
-      <c r="F32" t="s">
-        <v>216</v>
       </c>
       <c r="G32" s="1">
         <v>0.85899999999999999</v>
@@ -3610,10 +4605,10 @@
         <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J32" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K32" t="s">
         <v>61</v>
@@ -3621,32 +4616,32 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D48">
         <f>AVERAGE(D2:D32)</f>
@@ -3666,7 +4661,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49">
         <f>MAX(D2:D32)</f>
@@ -3683,7 +4678,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D50">
         <f>MIN(D2:D32)</f>
@@ -3696,6 +4691,22 @@
       <c r="H50">
         <f>MIN(H2:H29)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>219</v>
+      </c>
+      <c r="E53">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8934F-0B1F-4AB5-87B9-83D5B61B07A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30060C24-2386-4809-B207-4876C18BCF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -1574,6 +1574,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-CD10-4451-AA7C-0CB90EDC3970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1593,6 +1598,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-CD10-4451-AA7C-0CB90EDC3970}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30060C24-2386-4809-B207-4876C18BCF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3C1972-3C7D-4AC3-9837-D7D1BBAB8EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="226">
   <si>
     <t>Reference</t>
   </si>
@@ -807,6 +807,25 @@
   </si>
   <si>
     <t>Chairs Without A Feedback System</t>
+  </si>
+  <si>
+    <t>La Mura et al, 2023</t>
+  </si>
+  <si>
+    <t>4 FSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used Iot to develop a system to detect posture assymentry.
+Relied on the pronciple of having even weights across all sensors to determine incorrect postures 
+</t>
+  </si>
+  <si>
+    <t>Left out posture classification and relied on concept of having even ditrsibution of weights accos all sensors
+Can't detect trunk rotations</t>
+  </si>
+  <si>
+    <t>The sensors are placed under a 1 cm thick foam layer of square shape with a 40 cm
+side in top-left (Lt), bottom-left (Lb), top-right (Rt), and bottom-right (Rb) positions</t>
   </si>
 </sst>
 </file>
@@ -962,7 +981,7 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -986,6 +1005,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -3453,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,38 +4646,70 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>101</v>
-      </c>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48">
-        <f>AVERAGE(D2:D32)</f>
-        <v>7.0714285714285712</v>
+        <f>AVERAGE(D2:D33)</f>
+        <v>7.0344827586206895</v>
       </c>
       <c r="F48" t="s">
         <v>12</v>
@@ -4670,11 +4724,11 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>102</v>
+      <c r="A49" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="D49">
-        <f>MAX(D2:D32)</f>
+        <f>MAX(D2:D33)</f>
         <v>15</v>
       </c>
       <c r="G49" s="1">
@@ -4688,10 +4742,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50">
-        <f>MIN(D2:D32)</f>
+        <f>MIN(D2:D33)</f>
         <v>3</v>
       </c>
       <c r="G50" s="1">
@@ -4701,6 +4755,11 @@
       <c r="H50">
         <f>MIN(H2:H29)</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3C1972-3C7D-4AC3-9837-D7D1BBAB8EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B108811B-7A3F-41FD-B7B5-530E2AB2C198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -3475,8 +3475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B108811B-7A3F-41FD-B7B5-530E2AB2C198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E4CE2-145A-4B00-B3BA-78FB8B8B54F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="228">
   <si>
     <t>Reference</t>
   </si>
@@ -699,13 +699,7 @@
     <t>Comapred 5 different algorithm; RF achieve the best accuracy</t>
   </si>
   <si>
-    <t>Haeseok Jeong et al.</t>
-  </si>
-  <si>
     <t>Haeyoon Cho et al</t>
-  </si>
-  <si>
-    <t>Jianquan Wang et al</t>
   </si>
   <si>
     <t>13 sensors placed on top of the seating cushion</t>
@@ -725,12 +719,6 @@
     <t>Focused on the classification of children's sitting postures</t>
   </si>
   <si>
-    <t>Bao et al.</t>
-  </si>
-  <si>
-    <t>Kamiya et al.</t>
-  </si>
-  <si>
     <t>Sensor placed inside children’s chair seat cushion.</t>
   </si>
   <si>
@@ -826,6 +814,31 @@
   <si>
     <t>The sensors are placed under a 1 cm thick foam layer of square shape with a 40 cm
 side in top-left (Lt), bottom-left (Lb), top-right (Rt), and bottom-right (Rb) positions</t>
+  </si>
+  <si>
+    <t>16 Pressure sensors
+2 Ultrasonic sensors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure senors placed on the bottom seating
+Ultrasonic sensor placed on the neck rest </t>
+  </si>
+  <si>
+    <t>CNN &amp; LBCNet (Lower-Balanced Check Network)</t>
+  </si>
+  <si>
+    <t>It would be have been recommended too have compare &amp; contrast other ML models
+Low number of test subjects</t>
+  </si>
+  <si>
+    <t>Mobile app 
+(Included recommended Youtube videos which focused on correct sitting postures)
+Shows analytic data concerning an individual's sitting patterns</t>
+  </si>
+  <si>
+    <t>Develop a chair named as PosChair which incorperated the use of pressure sensors and ultrasonic senors to determine siting posture using LBCNet
+Additionally an android app was developed to provided useful feedback and alerts to the end user. 
+Used VGG19 pre-trained model to get the difference between 2 images (the user's correct posture &amp; the actual posture)</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1712,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$D$52:$D$53</c:f>
+              <c:f>'Sitting Posture System'!$D$48:$D$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1713,15 +1726,15 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$E$52:$E$53</c:f>
+              <c:f>'Sitting Posture System'!$E$48:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,15 +3117,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>351518</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>181428</xdr:rowOff>
+      <xdr:colOff>126771</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>149831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>362858</xdr:colOff>
+      <xdr:colOff>138111</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>11339</xdr:rowOff>
+      <xdr:rowOff>161171</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3141,13 +3154,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>849759</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>180226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>477321</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>33820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3473,10 +3486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3955,7 +3968,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>165</v>
@@ -4128,7 +4141,7 @@
         <v>12</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>122</v>
@@ -4186,7 +4199,7 @@
         <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D19">
         <v>10</v>
@@ -4204,16 +4217,16 @@
         <v>20</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
         <v>61</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4221,10 +4234,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -4242,7 +4255,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>122</v>
@@ -4251,7 +4264,7 @@
         <v>77</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4262,7 +4275,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D21">
         <v>7</v>
@@ -4280,16 +4293,16 @@
         <v>12</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
         <v>61</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,7 +4430,7 @@
         <v>122</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>122</v>
@@ -4472,7 +4485,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>80</v>
@@ -4578,16 +4591,16 @@
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D31">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>122</v>
@@ -4599,7 +4612,7 @@
         <v>122</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>122</v>
@@ -4608,7 +4621,7 @@
         <v>77</v>
       </c>
       <c r="L31" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4616,19 +4629,19 @@
         <v>90</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D32">
         <v>7</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G32" s="1">
         <v>0.85899999999999999</v>
@@ -4637,10 +4650,10 @@
         <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="J32" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s">
         <v>61</v>
@@ -4648,13 +4661,13 @@
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -4669,7 +4682,7 @@
         <v>122</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J33" s="15" t="s">
         <v>88</v>
@@ -4678,104 +4691,114 @@
         <v>61</v>
       </c>
       <c r="L33" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="D34">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" t="s">
+        <v>61</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>187</v>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f>AVERAGE(D2:D34)</f>
+        <v>7.3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="1">
+        <f>AVERAGE(G2:G30)</f>
+        <v>0.92472727272727273</v>
+      </c>
+      <c r="H44">
+        <f>AVERAGE(H2:H30)</f>
+        <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>188</v>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45">
+        <f>MAX(D2:D34)</f>
+        <v>15</v>
+      </c>
+      <c r="G45" s="1">
+        <f>MAX(G2:G30)</f>
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="H45">
+        <f>MAX(H2:H29)</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>189</v>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46">
+        <f>MIN(D2:D34)</f>
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <f>MIN(G2:G30)</f>
+        <v>0.7</v>
+      </c>
+      <c r="H46">
+        <f>MIN(H2:H29)</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>196</v>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <f>AVERAGE(D2:D33)</f>
-        <v>7.0344827586206895</v>
-      </c>
-      <c r="F48" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="1">
-        <f>AVERAGE(G2:G30)</f>
-        <v>0.92472727272727273</v>
-      </c>
-      <c r="H48">
-        <f>AVERAGE(H2:H30)</f>
-        <v>23.142857142857142</v>
+      <c r="D48" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48">
+        <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49">
-        <f>MAX(D2:D33)</f>
-        <v>15</v>
-      </c>
-      <c r="G49" s="1">
-        <f>MAX(G2:G30)</f>
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="H49">
-        <f>MAX(H2:H29)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50">
-        <f>MIN(D2:D33)</f>
-        <v>3</v>
-      </c>
-      <c r="G50" s="1">
-        <f>MIN(G2:G30)</f>
-        <v>0.7</v>
-      </c>
-      <c r="H50">
-        <f>MIN(H2:H29)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>220</v>
-      </c>
-      <c r="E52">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D53" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53">
-        <v>9</v>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>215</v>
+      </c>
+      <c r="E49">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957E4CE2-145A-4B00-B3BA-78FB8B8B54F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56810796-AA8F-46E0-925C-F2FFD4508FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -3488,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56810796-AA8F-46E0-925C-F2FFD4508FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA2066-970E-4A85-82F9-88900A765512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="229">
   <si>
     <t>Reference</t>
   </si>
@@ -839,6 +839,10 @@
     <t>Develop a chair named as PosChair which incorperated the use of pressure sensors and ultrasonic senors to determine siting posture using LBCNet
 Additionally an android app was developed to provided useful feedback and alerts to the end user. 
 Used VGG19 pre-trained model to get the difference between 2 images (the user's correct posture &amp; the actual posture)</t>
+  </si>
+  <si>
+    <t>Used Flex sesnsors array along with the ISOM-SPR to classify sitting posture with 95.67% accuracy
+Data was then uploaded to the cloud</t>
   </si>
 </sst>
 </file>
@@ -3488,8 +3492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,6 +4342,9 @@
       </c>
       <c r="K22" t="s">
         <v>61</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DA2066-970E-4A85-82F9-88900A765512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CED20A-D7F9-497B-B39D-B55AD33D9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="258">
   <si>
     <t>Reference</t>
   </si>
@@ -282,9 +282,6 @@
 Lean Backward</t>
   </si>
   <si>
-    <t xml:space="preserve">Pressure array </t>
-  </si>
-  <si>
     <t>Decision Tree</t>
   </si>
   <si>
@@ -292,9 +289,6 @@
   </si>
   <si>
     <t>Ren et al, 2013</t>
-  </si>
-  <si>
-    <t>64 Pressure Sensors Array (40x50) cm2</t>
   </si>
   <si>
     <t>Sitting straight with bent knees
@@ -363,12 +357,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hunchback, Reclined, Straight, Hand folds, Kneeling, Cross legs, </t>
-  </si>
-  <si>
-    <t>Used OpenPose to determin the sitting postures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No good user feedback/recommendation system </t>
   </si>
   <si>
     <t>Fu and MacLeod, 2014</t>
@@ -763,11 +751,6 @@
     <t>1-sit straight; 2-left recline; 3-right recline; 4-lounge;5-lean backward; 6-cross left leg; 7-cross right leg</t>
   </si>
   <si>
-    <t xml:space="preserve">Used "Binary Classification" to determine sitting postures, which seems to be quite a weak algorithm
-Theres no user testing involved in their paper
-</t>
-  </si>
-  <si>
     <t>Used Flex sensor to determine siiting postures</t>
   </si>
   <si>
@@ -808,10 +791,6 @@
 </t>
   </si>
   <si>
-    <t>Left out posture classification and relied on concept of having even ditrsibution of weights accos all sensors
-Can't detect trunk rotations</t>
-  </si>
-  <si>
     <t>The sensors are placed under a 1 cm thick foam layer of square shape with a 40 cm
 side in top-left (Lt), bottom-left (Lb), top-right (Rt), and bottom-right (Rb) positions</t>
   </si>
@@ -843,13 +822,130 @@
   <si>
     <t>Used Flex sesnsors array along with the ISOM-SPR to classify sitting posture with 95.67% accuracy
 Data was then uploaded to the cloud</t>
+  </si>
+  <si>
+    <t>Placed on the seat cushion</t>
+  </si>
+  <si>
+    <t>Used feature extraction along with CNN to classifying sitting postures based on pressure on the hip interface</t>
+  </si>
+  <si>
+    <t>Other ML Models compared</t>
+  </si>
+  <si>
+    <t>Placed the camera in front of the subject</t>
+  </si>
+  <si>
+    <t>6 FSR Sensors</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>64 Pressure Sensors Array (40x50) cm2 sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI which shows pressure distribution map </t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>MDPI (Sensors)</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>9x9 FSR Sheet was placed on the seat pan
+10x9 FSR Sheet was placed on the back rest</t>
+  </si>
+  <si>
+    <t>Self-Organizing Maps (SOM), Principal Component Analysis (PCA), Linear Discriminant Analysis (LDA), Locally Linear Embedding (LLE), Laplacian Eigenmaps (LE), Support Vector Machine (SVM), Random Forest (RF), K-Means and K-Nearest Neighbor (KNN)</t>
+  </si>
+  <si>
+    <t>Developed model using the spiking neural networks for prediction</t>
+  </si>
+  <si>
+    <t>web camera placed at the side view of the individual</t>
+  </si>
+  <si>
+    <t>Used OpenPose to determine to extract keypoints and used CNn for the posture predictions</t>
+  </si>
+  <si>
+    <t>No good user feedback/recommendation system 
+System reliabilirty is highly dependent on the camera's lateral view of the subject and lighting conditions
+No thorough testing seen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 FSR Sensors placed on the back rest
+4 FSR Sensors placed 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need further testing among subjects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used "Binary Classification" to determine sitting postures, which seems to be quite a weak algorithm
+Theres no user testing involved in their paper
+Severly underdeveloped. It wasn't encorperated into a smart chair
+</t>
+  </si>
+  <si>
+    <t>Developed a textile-based pressure sensor, along with DTW algorithm to classify sitting postures</t>
+  </si>
+  <si>
+    <t>Left out posture classification and relied on concept of having even distribution of weights across all sensors
+Can't detect trunk rotations</t>
+  </si>
+  <si>
+    <t>N/A
+1. leaning forward on the left, 2. leaning forward on the right, 3. leaning backward on the left, 4. leaning backward on the right, 5. crossing the left leg, 6. crossing the right leg</t>
+  </si>
+  <si>
+    <t>10 typical sitting postures and add 5 different postures:
+crossed-legged, left/right leg-on-the-chair, crossed-legged with
+left or right leg up.</t>
+  </si>
+  <si>
+    <t>Scientific Research Engineering</t>
+  </si>
+  <si>
+    <t>IOP Conference Series: Materials Science and Engineering</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>MDPI (Electronics)</t>
+  </si>
+  <si>
+    <t>MDPI (Applied Sciences)</t>
+  </si>
+  <si>
+    <t>Hindawi</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Research Square</t>
+  </si>
+  <si>
+    <t>MDPI (Materials)</t>
+  </si>
+  <si>
+    <t>KnE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +1008,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -988,7 +1091,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -997,8 +1100,9 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1025,8 +1129,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="8" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Accent4" xfId="6" builtinId="41"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1035,6 +1150,7 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="7" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="8" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1105,7 +1221,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$D$1</c:f>
+              <c:f>'Sitting Posture System'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1187,7 +1303,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$2:$A$29</c:f>
+              <c:f>'Sitting Posture System'!$B$2:$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
@@ -1279,7 +1395,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$D$2:$D$29</c:f>
+              <c:f>'Sitting Posture System'!$E$2:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="28"/>
@@ -1716,7 +1832,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$D$48:$D$49</c:f>
+              <c:f>'Sitting Posture System'!$E$48:$E$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1730,7 +1846,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$E$48:$E$49</c:f>
+              <c:f>'Sitting Posture System'!$F$48:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -3120,13 +3236,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>126771</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>149831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>138111</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>161171</xdr:rowOff>
@@ -3156,13 +3272,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>849759</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>180226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>477321</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>33820</xdr:rowOff>
@@ -3490,1321 +3606,1516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="A3" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="N1" s="6" t="s">
+        <v>225</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>107</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2">
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5">
         <v>8</v>
       </c>
-      <c r="G2" s="1">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H2">
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="I7">
+        <v>40</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>255</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0.97070000000000001</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.99270000000000003</v>
+      </c>
+      <c r="I12">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.97430000000000005</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.92</v>
+      </c>
+      <c r="I14">
+        <v>36</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I15">
+        <v>30</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="F16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.99470000000000003</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>252</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="I18">
+        <v>41</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s">
+        <v>75</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="I20">
+        <v>10</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>227</v>
+      </c>
+      <c r="D25" t="s">
+        <v>223</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26" s="16">
+        <v>4</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="16">
+        <v>5</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>77</v>
       </c>
-      <c r="L2" t="s">
-        <v>113</v>
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="N27" s="18" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.99029999999999996</v>
-      </c>
-      <c r="H3">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
-      </c>
-      <c r="K3" t="s">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="I28">
+        <v>19</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="L28" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>114</v>
+      <c r="M28" t="s">
+        <v>236</v>
+      </c>
+      <c r="N28" t="s">
+        <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4">
+    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29" t="s">
+        <v>238</v>
+      </c>
+      <c r="N29" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" t="s">
+        <v>61</v>
+      </c>
+      <c r="N30" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L31" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" t="s">
+        <v>203</v>
+      </c>
+      <c r="N31" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" t="s">
+        <v>209</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G32" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" t="s">
+        <v>243</v>
+      </c>
+      <c r="N32" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L33" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="N33" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" t="s">
+        <v>218</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="I34">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" t="s">
+        <v>61</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <f>AVERAGE(E2:E34)</f>
+        <v>7.290322580645161</v>
+      </c>
+      <c r="G44" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" t="s">
-        <v>118</v>
+      <c r="H44" s="1">
+        <f>AVERAGE(H2:H30)</f>
+        <v>0.92472727272727273</v>
+      </c>
+      <c r="I44">
+        <f>AVERAGE(I2:I30)</f>
+        <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H5">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45">
+        <f>MAX(E2:E34)</f>
+        <v>15</v>
+      </c>
+      <c r="H45" s="1">
+        <f>MAX(H2:H30)</f>
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="I45">
+        <f>MAX(I2:I29)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46">
+        <f>MIN(E2:E34)</f>
+        <v>3</v>
+      </c>
+      <c r="H46" s="1">
+        <f>MIN(H2:H30)</f>
+        <v>0.7</v>
+      </c>
+      <c r="I46">
+        <f>MIN(I2:I29)</f>
         <v>5</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K5" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" t="s">
-        <v>124</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>125</v>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.91679999999999995</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J7" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>132</v>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>211</v>
+      </c>
+      <c r="F48">
+        <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.97070000000000001</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="K9" t="s">
-        <v>61</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.97940000000000005</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" t="s">
-        <v>77</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0.99270000000000003</v>
-      </c>
-      <c r="H12">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0.97430000000000005</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K13" t="s">
-        <v>77</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.92</v>
-      </c>
-      <c r="H14">
-        <v>36</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="H15">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>177</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.78</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.99470000000000003</v>
-      </c>
-      <c r="H17">
-        <v>12</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="H18">
-        <v>41</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K18" t="s">
-        <v>77</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="K19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" t="s">
-        <v>77</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21">
-        <v>7</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="J21" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22">
-        <v>6</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="H22">
-        <v>40</v>
-      </c>
-      <c r="I22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" t="s">
-        <v>61</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="H23">
-        <v>8</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" t="s">
-        <v>61</v>
-      </c>
-      <c r="L24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25">
-        <v>5</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.89</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26">
-        <v>5</v>
-      </c>
-      <c r="I26" t="s">
-        <v>76</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K26" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" t="s">
-        <v>200</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K27" t="s">
-        <v>61</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28">
-        <v>15</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="1">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="H28">
-        <v>19</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="K28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" t="s">
-        <v>99</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K31" t="s">
-        <v>77</v>
-      </c>
-      <c r="L31" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" s="2" t="s">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
         <v>210</v>
       </c>
-      <c r="F32" t="s">
-        <v>211</v>
-      </c>
-      <c r="G32" s="1">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="H32">
-        <v>14</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="J32" t="s">
-        <v>209</v>
-      </c>
-      <c r="K32" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="K33" t="s">
-        <v>61</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D34">
-        <v>15</v>
-      </c>
-      <c r="F34" t="s">
-        <v>224</v>
-      </c>
-      <c r="G34" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="H34">
-        <v>8</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="J34" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="K34" t="s">
-        <v>61</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <f>AVERAGE(D2:D34)</f>
-        <v>7.3</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="1">
-        <f>AVERAGE(G2:G30)</f>
-        <v>0.92472727272727273</v>
-      </c>
-      <c r="H44">
-        <f>AVERAGE(H2:H30)</f>
-        <v>23.142857142857142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D45">
-        <f>MAX(D2:D34)</f>
-        <v>15</v>
-      </c>
-      <c r="G45" s="1">
-        <f>MAX(G2:G30)</f>
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="H45">
-        <f>MAX(H2:H29)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46">
-        <f>MIN(D2:D34)</f>
-        <v>3</v>
-      </c>
-      <c r="G46" s="1">
-        <f>MIN(G2:G30)</f>
-        <v>0.7</v>
-      </c>
-      <c r="H46">
-        <f>MIN(H2:H29)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>216</v>
-      </c>
-      <c r="E48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D49" t="s">
-        <v>215</v>
-      </c>
-      <c r="E49">
+      <c r="F49">
         <v>11</v>
       </c>
     </row>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CED20A-D7F9-497B-B39D-B55AD33D9BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC743A-FD94-4BB9-9440-D835520CAE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="264">
   <si>
     <t>Reference</t>
   </si>
@@ -939,6 +939,24 @@
   </si>
   <si>
     <t>KnE</t>
+  </si>
+  <si>
+    <t>Bourahmoune et al. 2022</t>
+  </si>
+  <si>
+    <t>9 E-Textile Pressure Sensor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile App &amp; Haptic Feedback </t>
+  </si>
+  <si>
+    <t>Upright, Slouching Forward, Extreme Slouching Forward, Leaning Back, Extreme Leaning Back, Left Shoulder Slouch, Right Shoulder Slouch, Left Side Slouch, Right Side Slouch, Left Lumbar Slouch, Right Lumbar Slouch, Rounded Shoulders, Forward Head Posture, Slight Correction Needed, and No User</t>
+  </si>
+  <si>
+    <t>Placed on the seat's back rest</t>
+  </si>
+  <si>
+    <t>decision trees-classification and regression trees (DT-CART), Random Forest (RF), k-nearest neighbors (k-NN), linear regression (LR), linear discriminant analysis (LDA), naive Bayes (NB), and neural network-multilayer perceptron (MLP)</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1120,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1139,6 +1157,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1303,9 +1324,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$B$2:$B$29</c:f>
+              <c:f>'Sitting Posture System'!$B$2:$B$34</c:f>
               <c:strCache>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>Pereira and Plácido Da Silva, 2023</c:v>
                 </c:pt>
@@ -1389,16 +1410,31 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>R. et al, 2023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Fu and MacLeod, 2014</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>AbuTerkia et al, 2022</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Xu et al, 2013</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>La Mura et al, 2023</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Haeyoon Cho et al</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$E$2:$E$29</c:f>
+              <c:f>'Sitting Posture System'!$E$2:$E$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1479,6 +1515,21 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3237,15 +3288,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>126771</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>149831</xdr:rowOff>
+      <xdr:colOff>141654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>138111</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>161171</xdr:rowOff>
+      <xdr:colOff>152994</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>56991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3608,8 +3659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="A3" sqref="A2:A3"/>
+    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5047,10 +5098,48 @@
         <v>118</v>
       </c>
     </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35">
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="I35">
+        <v>18</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>61</v>
+      </c>
+      <c r="N35" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E44">
-        <f>AVERAGE(E2:E34)</f>
-        <v>7.290322580645161</v>
+        <f>AVERAGE(E2:E35)</f>
+        <v>7.53125</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -5069,7 +5158,7 @@
         <v>97</v>
       </c>
       <c r="E45">
-        <f>MAX(E2:E34)</f>
+        <f>MAX(E2:E35)</f>
         <v>15</v>
       </c>
       <c r="H45" s="1">
@@ -5086,7 +5175,7 @@
         <v>98</v>
       </c>
       <c r="E46">
-        <f>MIN(E2:E34)</f>
+        <f>MIN(E2:E35)</f>
         <v>3</v>
       </c>
       <c r="H46" s="1">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC743A-FD94-4BB9-9440-D835520CAE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA3A02-1054-4C11-828F-A30DEE470B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="266">
   <si>
     <t>Reference</t>
   </si>
@@ -521,9 +521,6 @@
 Cross Right Leg</t>
   </si>
   <si>
-    <t>Pressure Array (IMM00014, I-MOTION</t>
-  </si>
-  <si>
     <t>Haptic motor Vibrations</t>
   </si>
   <si>
@@ -957,6 +954,18 @@
   </si>
   <si>
     <t>decision trees-classification and regression trees (DT-CART), Random Forest (RF), k-nearest neighbors (k-NN), linear regression (LR), linear discriminant analysis (LDA), naive Bayes (NB), and neural network-multilayer perceptron (MLP)</t>
+  </si>
+  <si>
+    <t>Develop Lifechair which is a Iot-based system that can classify 15 different sitting postures. 
+The study also looked at incorperating user BMI data which saw an improving in the classification
+Also looked at the development of  the first stretch recommendation system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of real-world implementation to further prove its practicality.
+</t>
+  </si>
+  <si>
+    <t>Pressure Array (IMM00014, I-MOTION)</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1129,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1160,6 +1169,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3659,8 +3671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E15" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3681,7 +3693,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3720,12 +3732,12 @@
         <v>66</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
@@ -3766,12 +3778,12 @@
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>107</v>
       </c>
       <c r="D3" t="s">
@@ -3807,12 +3819,12 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="9" t="s">
         <v>104</v>
       </c>
       <c r="D4" t="s">
@@ -3848,12 +3860,12 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3889,7 +3901,7 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>14</v>
@@ -3930,7 +3942,7 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>15</v>
@@ -3971,7 +3983,7 @@
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -3998,10 +4010,10 @@
         <v>118</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -4012,16 +4024,16 @@
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
-        <v>137</v>
+      <c r="C9" s="9" t="s">
+        <v>265</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9">
         <v>7</v>
@@ -4030,7 +4042,7 @@
         <v>136</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H9" s="1">
         <v>0.97070000000000001</v>
@@ -4039,21 +4051,21 @@
         <v>100</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -4062,13 +4074,13 @@
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -4080,7 +4092,7 @@
         <v>9</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>118</v>
@@ -4089,71 +4101,71 @@
         <v>75</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" t="s">
         <v>149</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" t="s">
         <v>155</v>
-      </c>
-      <c r="D12" t="s">
-        <v>156</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H12" s="1">
         <v>0.99270000000000003</v>
@@ -4162,7 +4174,7 @@
         <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>118</v>
@@ -4171,21 +4183,21 @@
         <v>75</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -4203,7 +4215,7 @@
         <v>11</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>118</v>
@@ -4212,12 +4224,12 @@
         <v>75</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>27</v>
@@ -4226,13 +4238,13 @@
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -4244,7 +4256,7 @@
         <v>36</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>118</v>
@@ -4253,12 +4265,12 @@
         <v>75</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>29</v>
@@ -4267,13 +4279,13 @@
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -4285,7 +4297,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>54</v>
@@ -4294,27 +4306,27 @@
         <v>61</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -4326,7 +4338,7 @@
         <v>20</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>118</v>
@@ -4335,12 +4347,12 @@
         <v>75</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>33</v>
@@ -4349,7 +4361,7 @@
         <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -4367,7 +4379,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>118</v>
@@ -4376,12 +4388,12 @@
         <v>75</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>41</v>
@@ -4390,13 +4402,13 @@
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -4408,7 +4420,7 @@
         <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>118</v>
@@ -4417,12 +4429,12 @@
         <v>75</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>42</v>
@@ -4431,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -4449,30 +4461,30 @@
         <v>20</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
         <v>61</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>190</v>
+      <c r="C20" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -4490,7 +4502,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>118</v>
@@ -4499,12 +4511,12 @@
         <v>75</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>48</v>
@@ -4513,7 +4525,7 @@
         <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -4531,30 +4543,30 @@
         <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L21" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -4581,21 +4593,21 @@
         <v>61</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -4622,7 +4634,7 @@
         <v>61</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N23" s="7" t="s">
         <v>118</v>
@@ -4630,7 +4642,7 @@
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -4639,7 +4651,7 @@
         <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>118</v>
@@ -4674,16 +4686,16 @@
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -4701,7 +4713,7 @@
         <v>118</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>118</v>
@@ -4710,21 +4722,21 @@
         <v>118</v>
       </c>
       <c r="N25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E26" s="16">
         <v>4</v>
@@ -4741,7 +4753,7 @@
         <v>74</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>75</v>
@@ -4755,7 +4767,7 @@
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
@@ -4764,7 +4776,7 @@
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20" t="s">
@@ -4780,7 +4792,7 @@
         <v>118</v>
       </c>
       <c r="J27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>78</v>
@@ -4797,7 +4809,7 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>81</v>
@@ -4806,7 +4818,7 @@
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -4833,15 +4845,15 @@
         <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
@@ -4850,7 +4862,7 @@
         <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -4868,7 +4880,7 @@
         <v>118</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>118</v>
@@ -4877,7 +4889,7 @@
         <v>61</v>
       </c>
       <c r="M29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N29" s="18" t="s">
         <v>118</v>
@@ -4885,7 +4897,7 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B30" t="s">
         <v>92</v>
@@ -4894,7 +4906,7 @@
         <v>94</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E30">
         <v>7</v>
@@ -4910,7 +4922,7 @@
         <v>118</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>118</v>
@@ -4924,13 +4936,13 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>118</v>
@@ -4939,7 +4951,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>118</v>
@@ -4951,7 +4963,7 @@
         <v>118</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>118</v>
@@ -4960,7 +4972,7 @@
         <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N31" s="18" t="s">
         <v>118</v>
@@ -4968,25 +4980,25 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D32" t="s">
         <v>208</v>
-      </c>
-      <c r="D32" t="s">
-        <v>209</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G32" t="s">
         <v>205</v>
-      </c>
-      <c r="G32" t="s">
-        <v>206</v>
       </c>
       <c r="H32" s="1">
         <v>0.85899999999999999</v>
@@ -4995,16 +5007,16 @@
         <v>14</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L32" t="s">
         <v>61</v>
       </c>
       <c r="M32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N32" s="18" t="s">
         <v>118</v>
@@ -5012,22 +5024,22 @@
     </row>
     <row r="33" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>118</v>
@@ -5039,7 +5051,7 @@
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>86</v>
@@ -5048,7 +5060,7 @@
         <v>61</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N33" s="18" t="s">
         <v>118</v>
@@ -5056,25 +5068,25 @@
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E34">
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H34" s="4">
         <v>0.96</v>
@@ -5083,16 +5095,16 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>220</v>
       </c>
       <c r="L34" t="s">
         <v>61</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N34" s="18" t="s">
         <v>118</v>
@@ -5100,22 +5112,22 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E35">
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>40</v>
@@ -5126,14 +5138,20 @@
       <c r="I35">
         <v>18</v>
       </c>
+      <c r="J35" s="2" t="s">
+        <v>264</v>
+      </c>
       <c r="K35" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s">
         <v>61</v>
       </c>
+      <c r="M35" s="2" t="s">
+        <v>263</v>
+      </c>
       <c r="N35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -5194,7 +5212,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F48">
         <v>22</v>
@@ -5202,7 +5220,7 @@
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F49">
         <v>11</v>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA3A02-1054-4C11-828F-A30DEE470B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FEF05-4218-45B9-B4BD-EE5D61B122F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -17,6 +17,14 @@
     <sheet name="Pressure Sensors" sheetId="3" r:id="rId2"/>
     <sheet name="Literature review Papers" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$E$48:$E$49</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$F$48:$F$49</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$E$48:$E$49</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$F$48:$F$49</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sitting Posture System'!$E$48:$E$49</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sitting Posture System'!$F$48:$F$49</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -365,10 +373,6 @@
     <t>Web Camera</t>
   </si>
   <si>
-    <t>8 Force Sensing Resistors (FSR)
-FSR 406</t>
-  </si>
-  <si>
     <t>HMM Decision Tree</t>
   </si>
   <si>
@@ -966,6 +970,9 @@
   </si>
   <si>
     <t>Pressure Array (IMM00014, I-MOTION)</t>
+  </si>
+  <si>
+    <t>8 Force Sensing Resistors FSR 406</t>
   </si>
 </sst>
 </file>
@@ -1129,7 +1136,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1171,6 +1178,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1769,13 +1779,32 @@
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
@@ -1800,10 +1829,11 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln>
                 <a:noFill/>
@@ -1870,27 +1900,29 @@
             </c:txPr>
             <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -1929,17 +1961,134 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
+          <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
+        <c:gapWidth val="100"/>
+        <c:axId val="125105072"/>
+        <c:axId val="125353168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="125105072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125353168"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="125353168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="125105072"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3671,8 +3820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3693,7 +3842,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3732,27 +3881,27 @@
         <v>66</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -3764,36 +3913,36 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L2" t="s">
         <v>75</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
         <v>107</v>
-      </c>
-      <c r="D3" t="s">
-        <v>108</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -3805,36 +3954,36 @@
         <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L3" t="s">
         <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
@@ -3843,124 +3992,124 @@
         <v>0.92200000000000004</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L4" t="s">
         <v>75</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5">
         <v>5</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L5" t="s">
         <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" t="s">
         <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>123</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I6">
         <v>12</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L6" t="s">
         <v>61</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H7" s="1">
         <v>0.91679999999999995</v>
@@ -3969,21 +4118,21 @@
         <v>40</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>17</v>
@@ -3992,57 +4141,57 @@
         <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="1">
         <v>0.97070000000000001</v>
@@ -4051,21 +4200,21 @@
         <v>100</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="L9" t="s">
         <v>61</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
@@ -4074,13 +4223,13 @@
         <v>21</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
         <v>22</v>
@@ -4092,80 +4241,80 @@
         <v>9</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
         <v>75</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" t="s">
         <v>148</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="K11" t="s">
-        <v>149</v>
       </c>
       <c r="L11" t="s">
         <v>61</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="C12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D12" t="s">
         <v>154</v>
-      </c>
-      <c r="D12" t="s">
-        <v>155</v>
       </c>
       <c r="E12">
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H12" s="1">
         <v>0.99270000000000003</v>
@@ -4174,36 +4323,36 @@
         <v>14</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
         <v>75</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>198</v>
+      <c r="C13" s="10" t="s">
+        <v>197</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13">
         <v>7</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -4215,36 +4364,36 @@
         <v>11</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
         <v>75</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
         <v>8</v>
@@ -4256,36 +4405,36 @@
         <v>36</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L14" t="s">
         <v>75</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G15" t="s">
         <v>12</v>
@@ -4297,7 +4446,7 @@
         <v>30</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>54</v>
@@ -4306,27 +4455,27 @@
         <v>61</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
-        <v>171</v>
+      <c r="C16" s="10" t="s">
+        <v>170</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E16">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -4338,30 +4487,30 @@
         <v>20</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s">
         <v>75</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E17">
         <v>5</v>
@@ -4379,36 +4528,36 @@
         <v>12</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L17" t="s">
         <v>75</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18">
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -4420,30 +4569,30 @@
         <v>41</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L18" t="s">
         <v>75</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19">
         <v>10</v>
@@ -4461,30 +4610,30 @@
         <v>20</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
         <v>61</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E20">
         <v>5</v>
@@ -4502,30 +4651,30 @@
         <v>10</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L20" t="s">
         <v>75</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E21">
         <v>7</v>
@@ -4543,21 +4692,21 @@
         <v>12</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
         <v>61</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -4566,7 +4715,7 @@
         <v>53</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -4593,12 +4742,12 @@
         <v>61</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -4607,7 +4756,7 @@
         <v>59</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -4628,21 +4777,21 @@
         <v>62</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L23" t="s">
         <v>61</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -4651,13 +4800,13 @@
         <v>64</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -4666,7 +4815,7 @@
         <v>0.9</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>80</v>
@@ -4681,21 +4830,21 @@
         <v>67</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
-        <v>226</v>
+      <c r="C25" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E25">
         <v>5</v>
@@ -4710,33 +4859,33 @@
         <v>0.89</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="N25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E26" s="16">
         <v>4</v>
@@ -4753,7 +4902,7 @@
         <v>74</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L26" s="16" t="s">
         <v>75</v>
@@ -4762,37 +4911,37 @@
         <v>76</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
         <v>72</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="10" t="s">
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I27" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>78</v>
@@ -4804,21 +4953,21 @@
         <v>79</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -4845,15 +4994,15 @@
         <v>61</v>
       </c>
       <c r="M28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s">
         <v>89</v>
@@ -4862,7 +5011,7 @@
         <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E29">
         <v>6</v>
@@ -4877,128 +5026,128 @@
         <v>0.92500000000000004</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L29" t="s">
         <v>61</v>
       </c>
       <c r="M29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>94</v>
+      <c r="C30" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30">
         <v>7</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s">
         <v>61</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D31" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31">
         <v>7</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L31" t="s">
         <v>75</v>
       </c>
       <c r="M31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" t="s">
         <v>207</v>
-      </c>
-      <c r="D32" t="s">
-        <v>208</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" t="s">
         <v>204</v>
-      </c>
-      <c r="G32" t="s">
-        <v>205</v>
       </c>
       <c r="H32" s="1">
         <v>0.85899999999999999</v>
@@ -5007,51 +5156,51 @@
         <v>14</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K32" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L32" t="s">
         <v>61</v>
       </c>
       <c r="M32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E33">
         <v>6</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I33">
         <v>2</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>86</v>
@@ -5060,33 +5209,33 @@
         <v>61</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="C34" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E34">
         <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H34" s="4">
         <v>0.96</v>
@@ -5095,39 +5244,39 @@
         <v>8</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K34" s="13" t="s">
         <v>218</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>219</v>
       </c>
       <c r="L34" t="s">
         <v>61</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E35">
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G35" s="21" t="s">
         <v>40</v>
@@ -5139,19 +5288,19 @@
         <v>18</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s">
         <v>61</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -5173,7 +5322,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45">
         <f>MAX(E2:E35)</f>
@@ -5190,7 +5339,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46">
         <f>MIN(E2:E35)</f>
@@ -5207,12 +5356,12 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F48">
         <v>22</v>
@@ -5220,7 +5369,7 @@
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F49">
         <v>11</v>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87FEF05-4218-45B9-B4BD-EE5D61B122F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A03299-6429-439B-8DD2-FB088209AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -17,14 +17,6 @@
     <sheet name="Pressure Sensors" sheetId="3" r:id="rId2"/>
     <sheet name="Literature review Papers" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$E$48:$E$49</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$F$48:$F$49</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$E$48:$E$49</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$F$48:$F$49</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sitting Posture System'!$E$48:$E$49</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sitting Posture System'!$F$48:$F$49</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -46,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="270">
   <si>
     <t>Reference</t>
   </si>
@@ -973,6 +965,23 @@
   </si>
   <si>
     <t>8 Force Sensing Resistors FSR 406</t>
+  </si>
+  <si>
+    <t>Used Confusion Matrix</t>
+  </si>
+  <si>
+    <t>Naïve Bayes
+MLR
+Decision Tree
+Support Vector Machine
+NN</t>
+  </si>
+  <si>
+    <t>DT-SPR, KM-SPR, BP-SPR, and SOM-SPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DT,RF, Bayes, ANN, KNN, LG, SVM
+</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1145,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1183,6 +1192,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -2017,6 +2027,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="125353168"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2087,6 +2098,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="125105072"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -3818,10 +3830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3840,7 +3852,7 @@
     <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>229</v>
       </c>
@@ -3883,8 +3895,11 @@
       <c r="N1" s="6" t="s">
         <v>223</v>
       </c>
+      <c r="O1" s="24" t="s">
+        <v>266</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>230</v>
       </c>
@@ -3925,7 +3940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>230</v>
       </c>
@@ -3965,8 +3980,14 @@
       <c r="M3" t="s">
         <v>109</v>
       </c>
+      <c r="N3" t="s">
+        <v>109</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>255</v>
       </c>
@@ -4006,8 +4027,14 @@
       <c r="M4" t="s">
         <v>113</v>
       </c>
+      <c r="N4" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>254</v>
       </c>
@@ -4048,7 +4075,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -4089,7 +4116,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>230</v>
       </c>
@@ -4130,7 +4157,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>253</v>
       </c>
@@ -4171,7 +4198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>247</v>
       </c>
@@ -4211,8 +4238,14 @@
       <c r="M9" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>230</v>
       </c>
@@ -4253,7 +4286,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>247</v>
       </c>
@@ -4293,8 +4326,14 @@
       <c r="M11" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="N11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>231</v>
       </c>
@@ -4335,7 +4374,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>231</v>
       </c>
@@ -4376,7 +4415,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>231</v>
       </c>
@@ -4417,7 +4456,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -4458,7 +4497,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>251</v>
       </c>
@@ -4499,7 +4538,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>230</v>
       </c>
@@ -4540,7 +4579,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>250</v>
       </c>
@@ -4581,7 +4620,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>230</v>
       </c>
@@ -4622,7 +4661,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>249</v>
       </c>
@@ -4662,8 +4701,14 @@
       <c r="M20" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="N20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>248</v>
       </c>
@@ -4704,7 +4749,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>230</v>
       </c>
@@ -4744,8 +4789,14 @@
       <c r="M22" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="N22" t="s">
+        <v>268</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="23" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>247</v>
       </c>
@@ -4789,7 +4840,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>246</v>
       </c>
@@ -4833,7 +4884,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>231</v>
       </c>
@@ -4874,7 +4925,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>245</v>
       </c>
@@ -4914,7 +4965,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>230</v>
       </c>
@@ -4956,7 +5007,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>231</v>
       </c>
@@ -4999,8 +5050,11 @@
       <c r="N28" t="s">
         <v>233</v>
       </c>
+      <c r="O28" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="29" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>231</v>
       </c>
@@ -5044,7 +5098,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>231</v>
       </c>
@@ -5083,7 +5137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>231</v>
       </c>
@@ -5127,7 +5181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>231</v>
       </c>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A03299-6429-439B-8DD2-FB088209AE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3995A312-6E73-4088-B37A-EDF93EC29834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="270">
   <si>
     <t>Reference</t>
   </si>
@@ -3832,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4838,6 +4838,9 @@
       </c>
       <c r="N23" s="7" t="s">
         <v>117</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3995A312-6E73-4088-B37A-EDF93EC29834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258342AB-8090-4C60-97D5-7C75628B39D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -3832,8 +3832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258342AB-8090-4C60-97D5-7C75628B39D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B73BD-DCF8-47B8-B4DF-B499F12C1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -17,6 +17,18 @@
     <sheet name="Pressure Sensors" sheetId="3" r:id="rId2"/>
     <sheet name="Literature review Papers" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sitting Posture System'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sitting Posture System'!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Sitting Posture System'!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="271">
   <si>
     <t>Reference</t>
   </si>
@@ -680,9 +692,6 @@
     <t>Comapred 5 different algorithm; RF achieve the best accuracy</t>
   </si>
   <si>
-    <t>Haeyoon Cho et al</t>
-  </si>
-  <si>
     <t>13 sensors placed on top of the seating cushion</t>
   </si>
   <si>
@@ -982,6 +991,12 @@
   <si>
     <t xml:space="preserve">DT,RF, Bayes, ANN, KNN, LG, SVM
 </t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Cho et al, 2019</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1160,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1193,6 +1208,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -1274,7 +1290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$E$1</c:f>
+              <c:f>'Sitting Posture System'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1356,7 +1372,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$B$2:$B$34</c:f>
+              <c:f>'Sitting Posture System'!$C$2:$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -1456,14 +1472,14 @@
                   <c:v>La Mura et al, 2023</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Haeyoon Cho et al</c:v>
+                  <c:v>Cho et al, 2019</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$E$2:$E$34</c:f>
+              <c:f>'Sitting Posture System'!$F$2:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1937,7 +1953,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$E$48:$E$49</c:f>
+              <c:f>'Sitting Posture System'!$F$48:$F$49</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1951,7 +1967,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$F$48:$F$49</c:f>
+              <c:f>'Sitting Posture System'!$G$48:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2205,6 +2221,102 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Publication Year</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Publication Year</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{E0598879-4B19-4DA5-8C89-6AB697A9D926}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Year</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.419999987"/>
+        <cx:title/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Number of Published Papers</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Number of Published Papers</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2285,6 +2397,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
@@ -3456,17 +3608,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>141654</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>45651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>152994</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>56991</xdr:rowOff>
@@ -3496,13 +4156,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>849759</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>180226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>477321</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>33820</xdr:rowOff>
@@ -3528,6 +4188,84 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>565149</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2429E224-5665-46FD-42C7-C191EF2BAC64}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3441700" y="10515600"/>
+              <a:ext cx="5200649" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3830,269 +4568,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="25.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="23" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="B2" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3">
         <v>4</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="O1" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E2">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="I2">
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>32</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>133</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
-      </c>
-      <c r="M3" t="s">
-        <v>109</v>
       </c>
       <c r="N3" t="s">
         <v>109</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>105</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>110</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="O4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="P4" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="B5" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B6" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>122</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>9</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>117</v>
@@ -4100,84 +4853,90 @@
       <c r="H6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="N6" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B7" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>128</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>126</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>0.91679999999999995</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>40</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>132</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>129</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>117</v>
@@ -4185,128 +4944,137 @@
       <c r="I8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>7</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>139</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>0.97070000000000001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>100</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="L9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="N9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="P9" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>143</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.97940000000000005</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>9</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="N10" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>117</v>
@@ -4314,853 +5082,910 @@
       <c r="I11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>148</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="N11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="N11" s="7" t="s">
+      <c r="O11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>153</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>154</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>3</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>156</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>158</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <v>0.99270000000000003</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>14</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="N12" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>7</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <v>0.97430000000000005</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>11</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B14" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>11</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="4">
+      <c r="I14" s="4">
         <v>0.92</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>36</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>75</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>252</v>
-      </c>
-      <c r="B15" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B15" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>167</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <v>0.7</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>30</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="L15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B16" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="25">
+        <v>2007</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>171</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>0.78</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>20</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="N16" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B17" s="10">
+        <v>2017</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>0.99470000000000003</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>12</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>75</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="N17" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="B18" s="25">
+        <v>2016</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>7</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="8">
         <v>0.90900000000000003</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>41</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>75</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="N18" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="E19">
+      <c r="M19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2018</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="J20">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="I19">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" t="s">
+        <v>75</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>185</v>
-      </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20">
+    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B21" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="L21" t="s">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B22" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="J22">
+        <v>40</v>
+      </c>
+      <c r="K22" t="s">
+        <v>56</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>267</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B23" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F23">
         <v>5</v>
       </c>
-      <c r="F20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="G23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="1">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="I20">
-        <v>10</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="I23" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="O20" s="10" t="s">
+      <c r="M23" t="s">
         <v>61</v>
       </c>
+      <c r="N23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="1">
-        <v>0.81</v>
-      </c>
-      <c r="I21">
-        <v>12</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0.95669999999999999</v>
-      </c>
-      <c r="I22">
-        <v>40</v>
-      </c>
-      <c r="J22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s">
-        <v>268</v>
-      </c>
-      <c r="O22" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>247</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="1">
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" t="s">
-        <v>61</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>117</v>
+      <c r="E24" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="4">
+      <c r="I24" s="4">
         <v>0.9</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K24" s="13" t="s">
+      <c r="L24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>61</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>67</v>
       </c>
-      <c r="N24" s="7" t="s">
+      <c r="O24" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B25" s="10">
+        <v>2020</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="D25" t="s">
-        <v>221</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25" t="s">
+        <v>220</v>
+      </c>
+      <c r="F25">
         <v>5</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>70</v>
       </c>
-      <c r="H25" s="4">
+      <c r="I25" s="4">
         <v>0.89</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>117</v>
+      <c r="K25" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N25" t="s">
+      <c r="M25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>226</v>
       </c>
+      <c r="E26" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="F26" s="16">
+        <v>4</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="16">
+        <v>5</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="E26" s="16">
-        <v>4</v>
-      </c>
-      <c r="F26" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="16">
-        <v>5</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="N26" s="18" t="s">
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>220</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="20" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>12</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="I27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="J27" t="s">
-        <v>194</v>
-      </c>
-      <c r="K27" s="10" t="s">
+      <c r="J27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" t="s">
+        <v>193</v>
+      </c>
+      <c r="L27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="N27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N27" s="18" t="s">
+      <c r="O27" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="10">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28">
+      <c r="F28">
         <v>15</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>82</v>
       </c>
-      <c r="H28" s="1">
+      <c r="I28" s="1">
         <v>0.88519999999999999</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>19</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="L28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>61</v>
-      </c>
-      <c r="M28" t="s">
-        <v>234</v>
       </c>
       <c r="N28" t="s">
         <v>233</v>
       </c>
       <c r="O28" t="s">
+        <v>232</v>
+      </c>
+      <c r="P28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" t="s">
+        <v>61</v>
+      </c>
+      <c r="N29" t="s">
         <v>235</v>
       </c>
-      <c r="E29">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" s="1">
-        <v>0.92500000000000004</v>
-      </c>
-      <c r="I29" s="7" t="s">
+      <c r="O29" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" s="10">
+        <v>2014</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>94</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L29" t="s">
+      <c r="K30" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M30" t="s">
         <v>61</v>
       </c>
-      <c r="M29" t="s">
-        <v>236</v>
-      </c>
-      <c r="N29" s="18" t="s">
+      <c r="O30" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E30">
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B31" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31">
         <v>7</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" t="s">
-        <v>94</v>
-      </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L30" t="s">
-        <v>61</v>
-      </c>
-      <c r="N30" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="G31" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>117</v>
@@ -5168,267 +5993,282 @@
       <c r="I31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" t="s">
+        <v>200</v>
+      </c>
+      <c r="O31" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="10">
+        <v>2013</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>203</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="L32" t="s">
+        <v>201</v>
+      </c>
+      <c r="M32" t="s">
+        <v>61</v>
+      </c>
+      <c r="N32" t="s">
         <v>240</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="O32" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L31" t="s">
-        <v>75</v>
-      </c>
-      <c r="M31" t="s">
-        <v>201</v>
-      </c>
-      <c r="N31" s="18" t="s">
-        <v>117</v>
-      </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D32" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G32" t="s">
-        <v>204</v>
-      </c>
-      <c r="H32" s="1">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="I32">
-        <v>14</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K32" t="s">
-        <v>202</v>
-      </c>
-      <c r="L32" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" t="s">
-        <v>241</v>
-      </c>
-      <c r="N32" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B33" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B33" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33">
+      <c r="E33" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F33">
         <v>6</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>117</v>
+      <c r="G33" s="2" t="s">
+        <v>242</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33">
         <v>2</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>61</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="N33" s="18" t="s">
+      <c r="N33" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="O33" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B34" s="10">
+        <v>2019</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H34" t="s">
         <v>215</v>
       </c>
-      <c r="E34">
+      <c r="I34" s="4">
+        <v>0.96</v>
+      </c>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="M34" t="s">
+        <v>61</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="O34" s="18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2022</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F35">
         <v>15</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G34" t="s">
-        <v>216</v>
-      </c>
-      <c r="H34" s="4">
-        <v>0.96</v>
-      </c>
-      <c r="I34">
-        <v>8</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="K34" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="L34" t="s">
+      <c r="G35" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H35" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.98819999999999997</v>
+      </c>
+      <c r="J35">
+        <v>18</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="s">
         <v>61</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="N34" s="18" t="s">
-        <v>117</v>
+      <c r="N35" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="O35" t="s">
+        <v>260</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <f>AVERAGE(F2:F35)</f>
+        <v>7.53125</v>
+      </c>
+      <c r="H44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="1">
+        <f>AVERAGE(I2:I30)</f>
+        <v>0.92472727272727273</v>
+      </c>
+      <c r="J44">
+        <f>AVERAGE(J2:J30)</f>
+        <v>23.142857142857142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C45" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <f>MAX(F2:F35)</f>
         <v>15</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="H35" s="1">
-        <v>0.98819999999999997</v>
-      </c>
-      <c r="I35">
-        <v>18</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="L35" t="s">
-        <v>61</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="N35" t="s">
-        <v>261</v>
+      <c r="I45" s="1">
+        <f>MAX(I2:I30)</f>
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="J45">
+        <f>MAX(J2:J29)</f>
+        <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E44">
-        <f>AVERAGE(E2:E35)</f>
-        <v>7.53125</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="1">
-        <f>AVERAGE(H2:H30)</f>
-        <v>0.92472727272727273</v>
-      </c>
-      <c r="I44">
-        <f>AVERAGE(I2:I30)</f>
-        <v>23.142857142857142</v>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46">
+        <f>MIN(F2:F35)</f>
+        <v>3</v>
+      </c>
+      <c r="I46" s="1">
+        <f>MIN(I2:I30)</f>
+        <v>0.7</v>
+      </c>
+      <c r="J46">
+        <f>MIN(J2:J29)</f>
+        <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45">
-        <f>MAX(E2:E35)</f>
-        <v>15</v>
-      </c>
-      <c r="H45" s="1">
-        <f>MAX(H2:H30)</f>
-        <v>0.99819999999999998</v>
-      </c>
-      <c r="I45">
-        <f>MAX(I2:I29)</f>
-        <v>100</v>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>97</v>
-      </c>
-      <c r="E46">
-        <f>MIN(E2:E35)</f>
-        <v>3</v>
-      </c>
-      <c r="H46" s="1">
-        <f>MIN(H2:H30)</f>
-        <v>0.7</v>
-      </c>
-      <c r="I46">
-        <f>MIN(I2:I29)</f>
-        <v>5</v>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>208</v>
+      </c>
+      <c r="G48">
+        <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E48" t="s">
-        <v>209</v>
-      </c>
-      <c r="F48">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>207</v>
+      </c>
+      <c r="G49">
         <v>11</v>
       </c>
     </row>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37B73BD-DCF8-47B8-B4DF-B499F12C1792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006223C-64AC-402D-9B8B-1C540E93F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -20,14 +20,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sitting Posture System'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sitting Posture System'!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sitting Posture System'!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$A$46:$A$50</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$B$46:$B$50</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Sitting Posture System'!$A$46:$A$50</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Sitting Posture System'!$B$46:$B$50</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Sitting Posture System'!$A$46:$A$50</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Sitting Posture System'!$B$46:$B$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="279">
   <si>
     <t>Reference</t>
   </si>
@@ -997,6 +995,30 @@
   </si>
   <si>
     <t>Cho et al, 2019</t>
+  </si>
+  <si>
+    <t>Sensor Type</t>
+  </si>
+  <si>
+    <t>Load Cell</t>
+  </si>
+  <si>
+    <t>Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Flex Sensor</t>
+  </si>
+  <si>
+    <t>Distance Sensor</t>
+  </si>
+  <si>
+    <t>Distance Sensor &amp; Presssure Sensor</t>
+  </si>
+  <si>
+    <t>Camera Sensor</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1312,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$F$1</c:f>
+              <c:f>'Sitting Posture System'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1479,7 +1501,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$F$2:$F$34</c:f>
+              <c:f>'Sitting Posture System'!$G$2:$G$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -1953,7 +1975,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$F$48:$F$49</c:f>
+              <c:f>'Sitting Posture System'!$G$49:$G$50</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1967,7 +1989,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$G$48:$G$49</c:f>
+              <c:f>'Sitting Posture System'!$H$49:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2221,12 +2243,486 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sensor Type</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:pattFill prst="pct75">
+                <a:fgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:sysClr>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$A$46:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Pressure Sensor</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Load Cell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Distance Sensor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Flex Sensor</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Camera Sensor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$B$46:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA35-41F7-B605-199A6C4515C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="850954448"/>
+        <c:axId val="1956656639"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="850954448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956656639"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1956656639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Publihed Research Pappers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="850954448"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2264,7 +2760,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E0598879-4B19-4DA5-8C89-6AB697A9D926}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Year</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2437,6 +2933,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
@@ -4116,19 +4652,620 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>141654</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>45651</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>152994</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>56991</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4162,9 +5299,9 @@
       <xdr:rowOff>180226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>477321</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>33820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4194,13 +5331,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>565149</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -4237,8 +5374,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3441700" y="10515600"/>
-              <a:ext cx="5200649" cy="2743200"/>
+              <a:off x="3441700" y="10464800"/>
+              <a:ext cx="5191124" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4266,6 +5403,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1543048</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2349499</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5763D5A7-05AB-4925-CB57-00E39E97838D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4568,29 +5741,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
-    <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" customWidth="1"/>
+    <col min="3" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" customWidth="1"/>
+    <col min="12" max="12" width="23" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>228</v>
       </c>
@@ -4601,46 +5774,49 @@
         <v>0</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="Q1" s="24" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>229</v>
       </c>
@@ -4650,41 +5826,44 @@
       <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>229</v>
       </c>
@@ -4694,47 +5873,50 @@
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>107</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>100</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>133</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>61</v>
-      </c>
-      <c r="N3" t="s">
-        <v>109</v>
       </c>
       <c r="O3" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>254</v>
       </c>
@@ -4744,47 +5926,50 @@
       <c r="C4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>105</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>110</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>75</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>253</v>
       </c>
@@ -4794,41 +5979,44 @@
       <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>114</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5">
         <v>5</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>61</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>249</v>
       </c>
@@ -4838,17 +6026,17 @@
       <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>122</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>117</v>
@@ -4856,23 +6044,26 @@
       <c r="I6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6">
         <v>12</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>229</v>
       </c>
@@ -4882,41 +6073,44 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>128</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>126</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>0.91679999999999995</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>40</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>132</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -4927,19 +6121,19 @@
         <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>129</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>117</v>
@@ -4947,20 +6141,23 @@
       <c r="J8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>61</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>246</v>
       </c>
@@ -4970,47 +6167,50 @@
       <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>7</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>139</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>0.97070000000000001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>100</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="M9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>229</v>
       </c>
@@ -5021,40 +6221,43 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>143</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <v>0.97940000000000005</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>75</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>246</v>
       </c>
@@ -5064,20 +6267,20 @@
       <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>147</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>117</v>
@@ -5085,26 +6288,29 @@
       <c r="J11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>148</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>61</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="O11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>230</v>
       </c>
@@ -5115,40 +6321,43 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
+        <v>274</v>
+      </c>
+      <c r="E12" t="s">
         <v>153</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>154</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>156</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>158</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <v>0.99270000000000003</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>14</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>75</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>230</v>
       </c>
@@ -5158,41 +6367,44 @@
       <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <v>0.97430000000000005</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>11</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="O13" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>230</v>
       </c>
@@ -5202,41 +6414,44 @@
       <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" t="s">
+        <v>277</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>11</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="4">
+      <c r="J14" s="4">
         <v>0.92</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>36</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>75</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="O14" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>251</v>
       </c>
@@ -5246,41 +6461,44 @@
       <c r="C15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>167</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <v>0.7</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>30</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="O15" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>250</v>
       </c>
@@ -5290,41 +6508,44 @@
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>171</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="4">
+      <c r="J16" s="4">
         <v>0.78</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>20</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>229</v>
       </c>
@@ -5334,41 +6555,44 @@
       <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>5</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>0.99470000000000003</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>12</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>75</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>249</v>
       </c>
@@ -5378,41 +6602,44 @@
       <c r="C18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>7</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="8">
+      <c r="J18" s="8">
         <v>0.90900000000000003</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>41</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>75</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>229</v>
       </c>
@@ -5422,41 +6649,44 @@
       <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>45</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>20</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="M19" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>61</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>248</v>
       </c>
@@ -5466,47 +6696,50 @@
       <c r="C20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <v>0.95299999999999996</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>10</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>75</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="Q20" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>247</v>
       </c>
@@ -5516,41 +6749,44 @@
       <c r="C21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>7</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <v>0.81</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>12</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>190</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>229</v>
       </c>
@@ -5560,47 +6796,50 @@
       <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J22" s="1">
         <v>0.95669999999999999</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>40</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="M22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>61</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>267</v>
       </c>
-      <c r="P22" s="10" t="s">
+      <c r="Q22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>246</v>
       </c>
@@ -5610,47 +6849,50 @@
       <c r="C23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>5</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>46</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J23" s="1">
         <v>0.99819999999999998</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>8</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>61</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P23" s="10" t="s">
+      <c r="Q23" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>245</v>
       </c>
@@ -5661,43 +6903,46 @@
         <v>63</v>
       </c>
       <c r="D24" t="s">
+        <v>274</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I24" t="s">
         <v>46</v>
       </c>
-      <c r="I24" s="4">
+      <c r="J24" s="4">
         <v>0.9</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="M24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>61</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>67</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>230</v>
       </c>
@@ -5707,81 +6952,85 @@
       <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>220</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>5</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>70</v>
       </c>
-      <c r="I25" s="4">
+      <c r="J25" s="4">
         <v>0.89</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="O25" t="s">
+      <c r="N25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>244</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26"/>
+      <c r="E26" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="F26" s="16">
+      <c r="G26" s="16">
         <v>4</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="H26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="19"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="16">
+      <c r="J26" s="19"/>
+      <c r="K26" s="16">
         <v>5</v>
       </c>
-      <c r="K26" s="16" t="s">
+      <c r="L26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="M26" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="N26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="O26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O26" s="18" t="s">
+      <c r="P26" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>229</v>
       </c>
@@ -5791,42 +7040,45 @@
       <c r="C27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="3"/>
+      <c r="H27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>12</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="J27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="L27" t="s">
         <v>193</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="M27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>61</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O27" s="18" t="s">
+      <c r="P27" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>230</v>
       </c>
@@ -5836,47 +7088,50 @@
       <c r="C28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>15</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="1">
         <v>0.88519999999999999</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>19</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="M28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>61</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>233</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>232</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>230</v>
       </c>
@@ -5887,43 +7142,46 @@
         <v>89</v>
       </c>
       <c r="D29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E29" t="s">
         <v>93</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>234</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>6</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>61</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>235</v>
       </c>
-      <c r="O29" s="18" t="s">
+      <c r="P29" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>230</v>
       </c>
@@ -5933,39 +7191,42 @@
       <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>7</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>94</v>
       </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="3"/>
+      <c r="K30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>61</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="P30" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>230</v>
       </c>
@@ -5975,20 +7236,20 @@
       <c r="C31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>7</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>117</v>
@@ -5996,23 +7257,26 @@
       <c r="J31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="M31" t="s">
+      <c r="N31" t="s">
         <v>75</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>200</v>
       </c>
-      <c r="O31" s="18" t="s">
+      <c r="P31" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>230</v>
       </c>
@@ -6022,44 +7286,47 @@
       <c r="C32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>206</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>203</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J32" s="1">
         <v>0.85899999999999999</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>14</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>201</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>61</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>240</v>
       </c>
-      <c r="O32" s="18" t="s">
+      <c r="P32" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>229</v>
       </c>
@@ -6069,44 +7336,47 @@
       <c r="C33" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>6</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33">
         <v>2</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="M33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
         <v>61</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="O33" s="18" t="s">
+      <c r="P33" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>230</v>
       </c>
@@ -6116,44 +7386,47 @@
       <c r="C34" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" t="s">
+        <v>277</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>15</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>215</v>
       </c>
-      <c r="I34" s="4">
+      <c r="J34" s="4">
         <v>0.96</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>8</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L34" s="13" t="s">
+      <c r="M34" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="O34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="O34" s="18" t="s">
+      <c r="P34" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>229</v>
       </c>
@@ -6163,112 +7436,149 @@
       <c r="C35" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E35" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>15</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H35" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>0.98819999999999997</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>18</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="M35" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>61</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="O35" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F44">
-        <f>AVERAGE(F2:F35)</f>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f>AVERAGE(G2:G35)</f>
         <v>7.53125</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>12</v>
       </c>
-      <c r="I44" s="1">
-        <f>AVERAGE(I2:I30)</f>
+      <c r="J44" s="1">
+        <f>AVERAGE(J2:J30)</f>
         <v>0.92472727272727273</v>
       </c>
-      <c r="J44">
-        <f>AVERAGE(J2:J30)</f>
+      <c r="K44">
+        <f>AVERAGE(K2:K30)</f>
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F45">
-        <f>MAX(F2:F35)</f>
+      <c r="D45" s="5"/>
+      <c r="G45">
+        <f>MAX(G2:G35)</f>
         <v>15</v>
       </c>
-      <c r="I45" s="1">
-        <f>MAX(I2:I30)</f>
+      <c r="J45" s="1">
+        <f>MAX(J2:J30)</f>
         <v>0.99819999999999998</v>
       </c>
-      <c r="J45">
-        <f>MAX(J2:J29)</f>
+      <c r="K45">
+        <f>MAX(K2:K29)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>273</v>
+      </c>
+      <c r="B46">
+        <v>26</v>
+      </c>
       <c r="C46" t="s">
         <v>97</v>
       </c>
-      <c r="F46">
-        <f>MIN(F2:F35)</f>
+      <c r="G46">
+        <f>MIN(G2:G35)</f>
         <v>3</v>
       </c>
-      <c r="I46" s="1">
-        <f>MIN(I2:I30)</f>
+      <c r="J46" s="1">
+        <f>MIN(J2:J30)</f>
         <v>0.7</v>
       </c>
-      <c r="J46">
-        <f>MIN(J2:J29)</f>
+      <c r="K46">
+        <f>MIN(K2:K29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="J47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>275</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
         <v>208</v>
       </c>
-      <c r="G48">
+      <c r="H49">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="G50" t="s">
         <v>207</v>
       </c>
-      <c r="G49">
+      <c r="H50">
         <v>11</v>
       </c>
     </row>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0006223C-64AC-402D-9B8B-1C540E93F132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF468287-BA20-4DDD-B2D1-6FD495BB4A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -20,12 +20,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$A$46:$A$50</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$B$46:$B$50</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sitting Posture System'!$A$46:$A$50</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sitting Posture System'!$B$46:$B$50</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sitting Posture System'!$A$46:$A$50</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sitting Posture System'!$B$46:$B$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="285">
   <si>
     <t>Reference</t>
   </si>
@@ -1019,6 +1013,24 @@
   </si>
   <si>
     <t>Camera Sensor</t>
+  </si>
+  <si>
+    <t>ML Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>SNN</t>
+  </si>
+  <si>
+    <t>Participants</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,6 +1149,30 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1171,7 +1207,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1181,8 +1217,12 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1220,9 +1260,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1231,8 +1268,22 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="13">
+    <cellStyle name="40% - Accent1" xfId="9" builtinId="31"/>
+    <cellStyle name="40% - Accent3" xfId="10" builtinId="39"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="60% - Accent6" xfId="12" builtinId="52"/>
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
     <cellStyle name="Accent4" xfId="6" builtinId="41"/>
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2522,6 +2573,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1956656639"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -2647,6 +2699,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="850954448"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -2693,6 +2746,1004 @@
         <a:schemeClr val="dk1">
           <a:lumMod val="25000"/>
           <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11474165816493775"/>
+                  <c:y val="3.6693616249782318E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8701FAD5-76F2-4700-B6F3-3CAA040F0273}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.1321744232473017E-2"/>
+                  <c:y val="2.2933510156114001E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9F6D1838-8AC2-4A47-A3C7-53A8040B52C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17082368872204817"/>
+                  <c:y val="8.2560636562010362E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{07DF33B0-258C-42BE-B129-1F296C269052}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12602927927483487"/>
+                  <c:y val="8.256063656201032E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4DB1A14E-71D4-4DBB-ADCC-EECAB775A8DE}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.858242467336587E-2"/>
+                  <c:y val="-4.5867020312228002E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C0281079-1DCE-41C8-BF4B-7789845BD6A8}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.363346245437069E-3"/>
+                  <c:y val="-3.2106914218559643E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{29179271-AB4E-47AB-98A2-363E1D40BE19}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11944693484989712"/>
+                  <c:y val="-0.1009074446869016"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE9CA4B3-80ED-42AD-9A4F-9E4017683E29}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12127949321582869"/>
+                  <c:y val="-5.5040424374673561E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A5279095-1948-44E7-BD77-C5B1A7E7D30D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.124727763785463E-2"/>
+                  <c:y val="4.5867020312228002E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8C599A39-7C2A-43A6-A29A-A6F065D8B3F2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17754745455713503"/>
+                  <c:y val="-7.7973934530787603E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F30A599D-BF04-4194-8BC2-2F72447CD7AB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13440585105333433"/>
+                  <c:y val="7.1517082858928327E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E97D876D-7D24-4CB2-AE6F-5ABA0D431290}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-GB"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AF8B-4725-A40B-AA4E5E075150}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$B$72:$B$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$C$72:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.94724000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94235000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89128333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96329999999999993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98520000000000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88519999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91679999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0%">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99029999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$D$72:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>'Sitting Posture System'!$A$72:$A$82</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>KNN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Decision Tree</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>ANN</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Random Forest</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SOM (ISOM-SPR)</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SNN</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>EMN</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>SimpleLogistic</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>LightGBM </c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF8B-4725-A40B-AA4E5E075150}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="30"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="1764869535"/>
+        <c:axId val="1094205999"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="1764869535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Postures</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1094205999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1094205999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.02"/>
+          <c:min val="0.70000000000000007"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1764869535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -2973,6 +4024,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
@@ -5249,6 +6340,541 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -5374,8 +7000,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3441700" y="10464800"/>
-              <a:ext cx="5191124" cy="2743200"/>
+              <a:off x="3441700" y="10655300"/>
+              <a:ext cx="7724774" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5436,6 +7062,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>315815</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>92593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1277493</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>17281</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547AE827-9929-D486-2FF2-084607F8C9D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5741,15 +7403,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="61" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
     <col min="3" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="44.140625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
@@ -5812,7 +7475,7 @@
       <c r="P1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="23" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5841,7 +7504,7 @@
       <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1">
@@ -5941,7 +7604,7 @@
       <c r="H4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1">
@@ -6182,7 +7845,7 @@
       <c r="H9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="29" t="s">
         <v>139</v>
       </c>
       <c r="J9" s="1">
@@ -6235,7 +7898,7 @@
       <c r="H10" t="s">
         <v>143</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1">
@@ -6270,7 +7933,7 @@
       <c r="D11" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="21" t="s">
         <v>149</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -6335,7 +7998,7 @@
       <c r="H12" t="s">
         <v>156</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="27" t="s">
         <v>158</v>
       </c>
       <c r="J12" s="1">
@@ -6382,7 +8045,7 @@
       <c r="H13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="29" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="1">
@@ -6429,7 +8092,7 @@
       <c r="H14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="25" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="4">
@@ -6476,7 +8139,7 @@
       <c r="H15" t="s">
         <v>167</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="1">
@@ -6502,7 +8165,7 @@
       <c r="A16" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="24">
         <v>2007</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -6570,7 +8233,7 @@
       <c r="H17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="26" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="1">
@@ -6596,7 +8259,7 @@
       <c r="A18" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="24">
         <v>2016</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -6617,7 +8280,7 @@
       <c r="H18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="27" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="8">
@@ -6664,7 +8327,7 @@
       <c r="H19" t="s">
         <v>45</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="12" t="s">
         <v>44</v>
       </c>
       <c r="J19" s="1">
@@ -6711,7 +8374,7 @@
       <c r="H20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J20" s="1">
@@ -6764,7 +8427,7 @@
       <c r="H21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="1">
@@ -6864,7 +8527,7 @@
       <c r="H23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J23" s="1">
@@ -6917,7 +8580,7 @@
       <c r="H24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="9" t="s">
         <v>46</v>
       </c>
       <c r="J24" s="4">
@@ -6967,7 +8630,7 @@
       <c r="H25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="26" t="s">
         <v>70</v>
       </c>
       <c r="J25" s="4">
@@ -7053,7 +8716,7 @@
       <c r="H27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="29" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="20" t="s">
@@ -7156,7 +8819,7 @@
       <c r="H29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="9" t="s">
         <v>90</v>
       </c>
       <c r="J29" s="1">
@@ -7206,7 +8869,7 @@
       <c r="H30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="26" t="s">
         <v>94</v>
       </c>
       <c r="J30" s="3"/>
@@ -7289,7 +8952,7 @@
       <c r="D32" t="s">
         <v>273</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>205</v>
       </c>
       <c r="F32" t="s">
@@ -7401,7 +9064,7 @@
       <c r="H34" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="9" t="s">
         <v>215</v>
       </c>
       <c r="J34" s="4">
@@ -7451,7 +9114,7 @@
       <c r="H35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="28" t="s">
         <v>40</v>
       </c>
       <c r="J35" s="1">
@@ -7580,6 +9243,192 @@
       </c>
       <c r="H50">
         <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72">
+        <f>AVERAGE(G20,G23,G29,G34)</f>
+        <v>7.75</v>
+      </c>
+      <c r="C72" s="1">
+        <f>AVERAGE(J20,J23,J24,J29,J34)</f>
+        <v>0.94724000000000008</v>
+      </c>
+      <c r="D72">
+        <f>AVERAGE(K23, K34,K20)</f>
+        <v>8.6666666666666661</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73">
+        <f>AVERAGE(G14,G2)</f>
+        <v>9.5</v>
+      </c>
+      <c r="C73" s="1">
+        <f>AVERAGE(J2,J14)</f>
+        <v>0.95250000000000001</v>
+      </c>
+      <c r="D73">
+        <f>AVERAGE(K14,K2)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74">
+        <f>AVERAGE(G30,G25,G17)</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="C74" s="1">
+        <f>AVERAGE(J17,J25)</f>
+        <v>0.94235000000000002</v>
+      </c>
+      <c r="D74">
+        <f>AVERAGE(K17)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75">
+        <f>AVERAGE(G4,G9,G13,G21,G15)</f>
+        <v>7.4</v>
+      </c>
+      <c r="C75" s="1">
+        <f>AVERAGE(J4,J9,J9,J13,J15,J21)</f>
+        <v>0.89128333333333332</v>
+      </c>
+      <c r="D75">
+        <f>AVERAGE(K9,K13,K15,K21)</f>
+        <v>38.25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>40</v>
+      </c>
+      <c r="B76">
+        <f>AVERAGE(G35,G18,G12)</f>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="C76" s="1">
+        <f>AVERAGE(J18,J12,J35)</f>
+        <v>0.96329999999999993</v>
+      </c>
+      <c r="D76">
+        <f>AVERAGE(K12,K18,K35)</f>
+        <v>24.333333333333332</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77">
+        <f>AVERAGE(G10,G19)</f>
+        <v>8</v>
+      </c>
+      <c r="C77" s="1">
+        <f>AVERAGE(J19,J10)</f>
+        <v>0.98520000000000008</v>
+      </c>
+      <c r="D77">
+        <f>AVERAGE(K19,K10)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78">
+        <v>6</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="D78">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="D79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0.91679999999999995</v>
+      </c>
+      <c r="D80">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0.78</v>
+      </c>
+      <c r="D81">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="D82">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF468287-BA20-4DDD-B2D1-6FD495BB4A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ED874D-3B1F-49D5-ADA5-EA69E44F2F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -2818,7 +2818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8701FAD5-76F2-4700-B6F3-3CAA040F0273}" type="CELLRANGE">
+                    <a:fld id="{998B1F0B-76DB-4BF5-9BE5-2D4D0B4908B4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2857,7 +2857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F6D1838-8AC2-4A47-A3C7-53A8040B52C7}" type="CELLRANGE">
+                    <a:fld id="{7CD169F8-7EA6-482C-8E55-C895C0AFDE46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2896,7 +2896,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{07DF33B0-258C-42BE-B129-1F296C269052}" type="CELLRANGE">
+                    <a:fld id="{523557FA-CAA1-4115-86AC-467448089278}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2935,7 +2935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DB1A14E-71D4-4DBB-ADCC-EECAB775A8DE}" type="CELLRANGE">
+                    <a:fld id="{F54BAEA3-E94B-4F7E-B52A-72A739E25608}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2974,7 +2974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0281079-1DCE-41C8-BF4B-7789845BD6A8}" type="CELLRANGE">
+                    <a:fld id="{6E34A9E4-78D3-40FA-95CC-AFE331416618}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3013,7 +3013,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29179271-AB4E-47AB-98A2-363E1D40BE19}" type="CELLRANGE">
+                    <a:fld id="{68605866-F7C7-4004-8D61-7E177A379020}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3052,7 +3052,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EE9CA4B3-80ED-42AD-9A4F-9E4017683E29}" type="CELLRANGE">
+                    <a:fld id="{5A451024-A520-412A-96C4-4493D4BEB127}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3091,7 +3091,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5279095-1948-44E7-BD77-C5B1A7E7D30D}" type="CELLRANGE">
+                    <a:fld id="{39D7C7E8-781A-420C-9874-BA478D59EF61}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3130,7 +3130,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C599A39-7C2A-43A6-A29A-A6F065D8B3F2}" type="CELLRANGE">
+                    <a:fld id="{C18AC6CC-62D9-4571-A3A3-EAE853EDF77F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3169,7 +3169,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F30A599D-BF04-4194-8BC2-2F72447CD7AB}" type="CELLRANGE">
+                    <a:fld id="{5F6B15BC-489F-4352-9B9E-9F25E29F8C05}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3208,7 +3208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E97D876D-7D24-4CB2-AE6F-5ABA0D431290}" type="CELLRANGE">
+                    <a:fld id="{9C3E03DE-2B7F-45C7-BEAF-DCA1EB90BE32}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7000,7 +7000,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3441700" y="10655300"/>
+              <a:off x="4260850" y="10655300"/>
               <a:ext cx="7724774" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7069,16 +7069,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>315815</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>92593</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1471305</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>155053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1277493</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>17281</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1386795</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>79740</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7405,8 +7405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="61" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="81" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ED874D-3B1F-49D5-ADA5-EA69E44F2F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA719E7-266C-4A48-BD59-E9A0430525AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -7405,8 +7405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="81" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="84" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71:D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA719E7-266C-4A48-BD59-E9A0430525AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2F6C59-B66D-495A-A942-C50CEDD1AF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="289">
   <si>
     <t>Reference</t>
   </si>
@@ -1031,6 +1033,18 @@
   </si>
   <si>
     <t>Participants</t>
+  </si>
+  <si>
+    <t>[2019, 2023]</t>
+  </si>
+  <si>
+    <t>[2007, 2010]</t>
+  </si>
+  <si>
+    <t>[2011, 2014]</t>
+  </si>
+  <si>
+    <t>[2015, 2018]</t>
   </si>
 </sst>
 </file>
@@ -1112,7 +1126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1173,6 +1187,24 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1207,7 +1239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1221,8 +1253,11 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1267,7 +1302,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="11"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="9"/>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="12"/>
@@ -1278,10 +1312,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="13" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="14"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="15" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="16">
     <cellStyle name="40% - Accent1" xfId="9" builtinId="31"/>
     <cellStyle name="40% - Accent3" xfId="10" builtinId="39"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40"/>
     <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
     <cellStyle name="60% - Accent6" xfId="12" builtinId="52"/>
     <cellStyle name="Accent1" xfId="5" builtinId="29"/>
@@ -2818,7 +2859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{998B1F0B-76DB-4BF5-9BE5-2D4D0B4908B4}" type="CELLRANGE">
+                    <a:fld id="{C7BEF8E7-0592-43DA-9C28-60AE006C21EC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2857,7 +2898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7CD169F8-7EA6-482C-8E55-C895C0AFDE46}" type="CELLRANGE">
+                    <a:fld id="{DE14BDFD-B55A-4F77-AB75-781850779293}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2896,7 +2937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{523557FA-CAA1-4115-86AC-467448089278}" type="CELLRANGE">
+                    <a:fld id="{D5CA44FE-C4BA-43B9-977D-6E0F33B6ABF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2935,7 +2976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F54BAEA3-E94B-4F7E-B52A-72A739E25608}" type="CELLRANGE">
+                    <a:fld id="{BD04C8D9-C66C-49B3-8806-EEF24EE4C95C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2974,7 +3015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E34A9E4-78D3-40FA-95CC-AFE331416618}" type="CELLRANGE">
+                    <a:fld id="{A10ACB26-C4A7-4CAE-9A96-997FE43BC8BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3013,7 +3054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{68605866-F7C7-4004-8D61-7E177A379020}" type="CELLRANGE">
+                    <a:fld id="{0D4AC473-AF03-4776-A126-AD54FAEF7145}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3052,7 +3093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5A451024-A520-412A-96C4-4493D4BEB127}" type="CELLRANGE">
+                    <a:fld id="{31597374-56E7-480F-BD37-82C02EDF9867}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3091,7 +3132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{39D7C7E8-781A-420C-9874-BA478D59EF61}" type="CELLRANGE">
+                    <a:fld id="{8840AB37-0419-4F28-9F9C-5D4EE04AAF4C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3130,7 +3171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C18AC6CC-62D9-4571-A3A3-EAE853EDF77F}" type="CELLRANGE">
+                    <a:fld id="{566B06C8-531E-4E89-9FB5-D52CD009C0AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3169,7 +3210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5F6B15BC-489F-4352-9B9E-9F25E29F8C05}" type="CELLRANGE">
+                    <a:fld id="{206931EF-34CC-4A07-BD81-07B3F63BDF40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3208,7 +3249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C3E03DE-2B7F-45C7-BEAF-DCA1EB90BE32}" type="CELLRANGE">
+                    <a:fld id="{DB3A827F-D221-409A-8403-294E00AC2069}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3768,12 +3809,761 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Summay</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of Published Research Papers by the Senors being utilised from 2017 to 2023 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$A$102</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pressure Sensor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>[2007, 2010]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[2011, 2014]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[2015, 2018]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[2019, 2023]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$B$102:$E$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B43-4357-8B4B-8441E2CFEAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$A$103</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Load Cell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>[2007, 2010]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[2011, 2014]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[2015, 2018]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[2019, 2023]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$B$103:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B43-4357-8B4B-8441E2CFEAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$A$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Camera</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>[2007, 2010]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[2011, 2014]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[2015, 2018]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[2019, 2023]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$B$104:$E$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B43-4357-8B4B-8441E2CFEAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$A$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Flex Sensor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>[2007, 2010]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[2011, 2014]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[2015, 2018]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[2019, 2023]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$B$105:$E$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B43-4357-8B4B-8441E2CFEAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$A$106</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distance Sensor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>[2007, 2010]</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>[2011, 2014]</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>[2015, 2018]</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>[2019, 2023]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sitting Posture System'!$B$106:$E$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7B43-4357-8B4B-8441E2CFEAFE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="77"/>
+        <c:overlap val="100"/>
+        <c:axId val="696241728"/>
+        <c:axId val="762071583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="696241728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Publication Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="762071583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="762071583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Numbers of Papers Published</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696241728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3811,7 +4601,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E0598879-4B19-4DA5-8C89-6AB697A9D926}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Year</cx:v>
             </cx:txData>
           </cx:tx>
@@ -4064,6 +4854,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
@@ -6860,6 +7690,511 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6955,16 +8290,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2857954</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>97518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>565149</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>383720</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>173718</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7000,8 +8335,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4260850" y="10655300"/>
-              <a:ext cx="7724774" cy="2743200"/>
+              <a:off x="11317061" y="10563679"/>
+              <a:ext cx="7719784" cy="2774950"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7033,16 +8368,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1543048</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1112156</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>145597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2349499</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>455838</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>107497</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7098,6 +8433,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2514265</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>187551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1052487</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487705D8-EC89-D01D-FA1F-64E8A2EAFAE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7403,10 +8774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="84" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71:D82"/>
+    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7483,7 +8854,7 @@
       <c r="A2" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="24">
         <v>2023</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -7504,7 +8875,7 @@
       <c r="H2" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="1">
@@ -7530,7 +8901,7 @@
       <c r="A3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="24">
         <v>2021</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -7583,7 +8954,7 @@
       <c r="A4" t="s">
         <v>254</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="32">
         <v>2017</v>
       </c>
       <c r="C4" s="11" t="s">
@@ -7604,7 +8975,7 @@
       <c r="H4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J4" s="1">
@@ -7636,7 +9007,7 @@
       <c r="A5" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="24">
         <v>2023</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -7683,7 +9054,7 @@
       <c r="A6" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="24">
         <v>2020</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -7730,7 +9101,7 @@
       <c r="A7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="24">
         <v>2022</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -7777,7 +9148,7 @@
       <c r="A8" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="24">
         <v>2022</v>
       </c>
       <c r="C8" s="12" t="s">
@@ -7824,7 +9195,7 @@
       <c r="A9" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="24">
         <v>2021</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -7845,7 +9216,7 @@
       <c r="H9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="28" t="s">
         <v>139</v>
       </c>
       <c r="J9" s="1">
@@ -7877,7 +9248,7 @@
       <c r="A10" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="32">
         <v>2018</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -7924,7 +9295,7 @@
       <c r="A11" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="32">
         <v>2018</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -7977,7 +9348,7 @@
       <c r="A12" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="24">
         <v>2019</v>
       </c>
       <c r="C12" t="s">
@@ -7998,7 +9369,7 @@
       <c r="H12" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="27" t="s">
+      <c r="I12" s="26" t="s">
         <v>158</v>
       </c>
       <c r="J12" s="1">
@@ -8024,7 +9395,7 @@
       <c r="A13" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="24">
         <v>2020</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -8045,7 +9416,7 @@
       <c r="H13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="28" t="s">
         <v>26</v>
       </c>
       <c r="J13" s="1">
@@ -8071,7 +9442,7 @@
       <c r="A14" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="24">
         <v>2021</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -8092,7 +9463,7 @@
       <c r="H14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="4">
@@ -8118,7 +9489,7 @@
       <c r="A15" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="31">
         <v>2013</v>
       </c>
       <c r="C15" s="14" t="s">
@@ -8139,7 +9510,7 @@
       <c r="H15" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="29" t="s">
+      <c r="I15" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J15" s="1">
@@ -8165,7 +9536,7 @@
       <c r="A16" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="30">
         <v>2007</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -8212,8 +9583,8 @@
       <c r="A17" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="10">
-        <v>2017</v>
+      <c r="B17" s="33">
+        <v>2016</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>33</v>
@@ -8233,7 +9604,7 @@
       <c r="H17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="1">
@@ -8259,7 +9630,7 @@
       <c r="A18" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="33">
         <v>2016</v>
       </c>
       <c r="C18" s="9" t="s">
@@ -8280,7 +9651,7 @@
       <c r="H18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="26" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="8">
@@ -8306,7 +9677,7 @@
       <c r="A19" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="24">
         <v>2023</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -8353,7 +9724,7 @@
       <c r="A20" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="32">
         <v>2018</v>
       </c>
       <c r="C20" t="s">
@@ -8406,7 +9777,7 @@
       <c r="A21" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="24">
         <v>2021</v>
       </c>
       <c r="C21" s="10" t="s">
@@ -8427,7 +9798,7 @@
       <c r="H21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="29" t="s">
+      <c r="I21" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J21" s="1">
@@ -8453,7 +9824,7 @@
       <c r="A22" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="24">
         <v>2021</v>
       </c>
       <c r="C22" t="s">
@@ -8506,7 +9877,7 @@
       <c r="A23" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="24">
         <v>2020</v>
       </c>
       <c r="C23" t="s">
@@ -8559,7 +9930,7 @@
       <c r="A24" t="s">
         <v>245</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="24">
         <v>2019</v>
       </c>
       <c r="C24" t="s">
@@ -8609,7 +9980,7 @@
       <c r="A25" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="24">
         <v>2020</v>
       </c>
       <c r="C25" t="s">
@@ -8630,7 +10001,7 @@
       <c r="H25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="25" t="s">
         <v>70</v>
       </c>
       <c r="J25" s="4">
@@ -8697,7 +10068,7 @@
       <c r="A27" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="31">
         <v>2013</v>
       </c>
       <c r="C27" t="s">
@@ -8716,7 +10087,7 @@
       <c r="H27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="29" t="s">
+      <c r="I27" s="28" t="s">
         <v>12</v>
       </c>
       <c r="J27" s="20" t="s">
@@ -8745,7 +10116,7 @@
       <c r="A28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="24">
         <v>2021</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -8798,7 +10169,7 @@
       <c r="A29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="24">
         <v>2023</v>
       </c>
       <c r="C29" t="s">
@@ -8848,7 +10219,7 @@
       <c r="A30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="31">
         <v>2014</v>
       </c>
       <c r="C30" t="s">
@@ -8869,7 +10240,7 @@
       <c r="H30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="26" t="s">
+      <c r="I30" s="25" t="s">
         <v>94</v>
       </c>
       <c r="J30" s="3"/>
@@ -8893,7 +10264,7 @@
       <c r="A31" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="24">
         <v>2022</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -8943,7 +10314,7 @@
       <c r="A32" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="31">
         <v>2013</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -8993,7 +10364,7 @@
       <c r="A33" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="24">
         <v>2023</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -9043,7 +10414,7 @@
       <c r="A34" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="24">
         <v>2019</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -9093,7 +10464,7 @@
       <c r="A35" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="24">
         <v>2022</v>
       </c>
       <c r="C35" s="10" t="s">
@@ -9114,7 +10485,7 @@
       <c r="H35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I35" s="28" t="s">
+      <c r="I35" s="27" t="s">
         <v>40</v>
       </c>
       <c r="J35" s="1">
@@ -9246,16 +10617,16 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="29" t="s">
         <v>284</v>
       </c>
     </row>
@@ -9429,6 +10800,108 @@
       </c>
       <c r="D82">
         <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>274</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2F6C59-B66D-495A-A942-C50CEDD1AF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23413374-F05B-4C2F-A3E8-7B83E4A8A5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sitting Posture System'!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4563,7 +4561,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4601,7 +4599,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E0598879-4B19-4DA5-8C89-6AB697A9D926}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>Year</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8335,8 +8333,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11317061" y="10563679"/>
-              <a:ext cx="7719784" cy="2774950"/>
+              <a:off x="11335204" y="10498818"/>
+              <a:ext cx="7707991" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8776,8 +8774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23413374-F05B-4C2F-A3E8-7B83E4A8A5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62466621-B7FD-4C44-A8E6-7A433574F50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="293">
   <si>
     <t>Reference</t>
   </si>
@@ -1043,6 +1043,18 @@
   </si>
   <si>
     <t>[2015, 2018]</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Scholar </t>
+  </si>
+  <si>
+    <t>Researches</t>
   </si>
 </sst>
 </file>
@@ -4556,6 +4568,485 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Accumulaative</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> number of published studies from 2013 and 2023</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Literature review Papers'!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researches</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Literature review Papers'!$B$7:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Literature review Papers'!$C$7:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>714</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-98BE-4E14-85CB-0C086ABB63D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="198380863"/>
+        <c:axId val="1143064927"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="198380863"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Publication</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Year</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1143064927"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1143064927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Published</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Studies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="198380863"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -4892,6 +5383,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="218">
   <cs:axisTitle>
@@ -8180,6 +8711,522 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8467,6 +9514,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB7E65B-DEC4-D4FD-F990-3CC4104A7AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8775,7 +9863,7 @@
   <dimension ref="A1:Q106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10922,12 +12010,329 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB0D1E6-A3F9-43EF-8681-7C71C58C09B5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2013</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2014</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2015</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2016</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2017</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="K1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>23</v>
+      </c>
+      <c r="J2">
+        <v>54</v>
+      </c>
+      <c r="K2">
+        <v>52</v>
+      </c>
+      <c r="L2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3">
+        <v>124</v>
+      </c>
+      <c r="C3">
+        <v>143</v>
+      </c>
+      <c r="D3">
+        <v>142</v>
+      </c>
+      <c r="E3">
+        <v>149</v>
+      </c>
+      <c r="F3">
+        <v>155</v>
+      </c>
+      <c r="G3">
+        <v>183</v>
+      </c>
+      <c r="H3">
+        <v>222</v>
+      </c>
+      <c r="I3">
+        <v>229</v>
+      </c>
+      <c r="J3">
+        <v>232</v>
+      </c>
+      <c r="K3">
+        <v>287</v>
+      </c>
+      <c r="L3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>129</v>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4">
+        <v>160</v>
+      </c>
+      <c r="F4">
+        <v>164</v>
+      </c>
+      <c r="G4">
+        <v>215</v>
+      </c>
+      <c r="H4">
+        <v>212</v>
+      </c>
+      <c r="I4">
+        <v>272</v>
+      </c>
+      <c r="J4">
+        <v>329</v>
+      </c>
+      <c r="K4">
+        <v>375</v>
+      </c>
+      <c r="L4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>237</v>
+      </c>
+      <c r="C5">
+        <f>SUM(C2:C4)</f>
+        <v>275</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="C5:L5" si="0">SUM(D2:D4)</f>
+        <v>272</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>325</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>451</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>524</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>758</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>2013</v>
+      </c>
+      <c r="C7">
+        <f>B5</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>2014</v>
+      </c>
+      <c r="C8">
+        <f>C5</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2015</v>
+      </c>
+      <c r="C9">
+        <f>D5</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10">
+        <f>E5</f>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>2017</v>
+      </c>
+      <c r="C11">
+        <f>F5</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>2018</v>
+      </c>
+      <c r="C12">
+        <f>G5</f>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>2019</v>
+      </c>
+      <c r="C13">
+        <f>H5</f>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14">
+        <f>I5</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15">
+        <f>J5</f>
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>2022</v>
+      </c>
+      <c r="C16">
+        <f>K5</f>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>2023</v>
+      </c>
+      <c r="C17">
+        <f>L5</f>
+        <v>758</v>
+      </c>
+      <c r="D17">
+        <f>AVERAGE(C13:C17)</f>
+        <v>612.4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62466621-B7FD-4C44-A8E6-7A433574F50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43025A2E-1CA1-4345-8139-34F6A29A3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -9862,7 +9862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12184,7 +12184,7 @@
         <v>275</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="C5:L5" si="0">SUM(D2:D4)</f>
+        <f t="shared" ref="D5:L5" si="0">SUM(D2:D4)</f>
         <v>272</v>
       </c>
       <c r="E5">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43025A2E-1CA1-4345-8139-34F6A29A3C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47202211-8D9B-4A01-8A5C-309279DAAE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="294">
   <si>
     <t>Reference</t>
   </si>
@@ -1055,6 +1055,9 @@
   </si>
   <si>
     <t>Researches</t>
+  </si>
+  <si>
+    <t>Test Subjects</t>
   </si>
 </sst>
 </file>
@@ -9862,8 +9865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11594,6 +11597,15 @@
       </c>
       <c r="P35" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40">
+        <f>AVERAGE(K2:K35)</f>
+        <v>21.12</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47202211-8D9B-4A01-8A5C-309279DAAE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B061AF95-C44A-46D6-98AA-1ED914A00AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
     <sheet name="Pressure Sensors" sheetId="3" r:id="rId2"/>
     <sheet name="Literature review Papers" sheetId="2" r:id="rId3"/>
+    <sheet name="Posture Popularity" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$B$1</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="323">
   <si>
     <t>Reference</t>
   </si>
@@ -1059,12 +1060,100 @@
   <si>
     <t>Test Subjects</t>
   </si>
+  <si>
+    <t>1. Upright sitting with backrest</t>
+  </si>
+  <si>
+    <t>2. Leaning forward with backrest (slouching)  </t>
+  </si>
+  <si>
+    <t>4. Sitting on the front edge</t>
+  </si>
+  <si>
+    <t>5. Leaning Left</t>
+  </si>
+  <si>
+    <t>6. Leaning Right              </t>
+  </si>
+  <si>
+    <t>7.Rotating the trunk (Left)         </t>
+  </si>
+  <si>
+    <t>8.Rotating the trunk (Right)</t>
+  </si>
+  <si>
+    <t>9. Left Ankle Resting (LAR) on the right leg       </t>
+  </si>
+  <si>
+    <t>10. Right Ankle Resting (RAR) on the Left Leg  </t>
+  </si>
+  <si>
+    <t>11. Left Ankle Resting (LAR) on the right leg and leaning back </t>
+  </si>
+  <si>
+    <t>12. Right Ankle Resting (RAR) on the Left Leg and leaning back</t>
+  </si>
+  <si>
+    <t>13. Right Leg Crossed (RLC) over the right leg and seated upright         </t>
+  </si>
+  <si>
+    <t>14. Left Leg crossed (LLC) over the right leg and seated upright             </t>
+  </si>
+  <si>
+    <t>15. Right Leg Crossed (RLC) over the right leg and leaning back            </t>
+  </si>
+  <si>
+    <t>16. Left Leg crossed (LLC) over the right leg and leaning back</t>
+  </si>
+  <si>
+    <t>17. Lean back  </t>
+  </si>
+  <si>
+    <t>18. Lounge        </t>
+  </si>
+  <si>
+    <t>19. Lean back and sit on the edge         </t>
+  </si>
+  <si>
+    <t>20. Cross-legged</t>
+  </si>
+  <si>
+    <t>3. Leaning forward without backrest         </t>
+  </si>
+  <si>
+    <t>Postures</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>16 FSR Pressure Sensors</t>
+  </si>
+  <si>
+    <t>Placed on the back seat and seating area</t>
+  </si>
+  <si>
+    <t>P01 - Neutral sedestation, P02 - Leaning right, P03 - Leaning left, P04 - Hyperkyphosis,
+P05 - Leaning forward, P06 - Slouching posture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desktop App </t>
+  </si>
+  <si>
+    <t>K Fold</t>
+  </si>
+  <si>
+    <t>Controlled env testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1226,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1270,7 +1365,7 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1329,6 +1424,9 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="14"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="15"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="15" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="40% - Accent1" xfId="9" builtinId="31"/>
@@ -9267,15 +9365,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>141654</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>45651</xdr:rowOff>
+      <xdr:colOff>183067</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>152994</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>56991</xdr:rowOff>
+      <xdr:colOff>194407</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>153621</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9567,9 +9665,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9607,7 +9705,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9713,7 +9811,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9855,7 +9953,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9865,8 +9963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="E26" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9884,6 +9982,7 @@
     <col min="12" max="12" width="23" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" customWidth="1"/>
     <col min="14" max="14" width="22.140625" customWidth="1"/>
+    <col min="15" max="15" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11597,6 +11696,47 @@
       </c>
       <c r="P35" t="s">
         <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B36" s="24">
+        <v>2023</v>
+      </c>
+      <c r="D36" t="s">
+        <v>273</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I36" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="K36">
+        <v>37</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="N36" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -12347,4 +12487,295 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7096C7BC-272F-4D7D-987C-AA7C2F768B1C}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2">
+        <f>SUM(1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1)</f>
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <f>B2/34*100</f>
+        <v>82.35294117647058</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B3">
+        <f>SUM(1, 1, 1, 1,1, 1, 1, 1, 1)</f>
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C21" si="0">B3/34*100</f>
+        <v>26.47058823529412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="B4">
+        <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>70.588235294117652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5">
+        <f>SUM(0, 1, 1, 1, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>11.76470588235294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6">
+        <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>67.64705882352942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7">
+        <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
+        <v>23</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>67.64705882352942</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8">
+        <f>SUM(0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9">
+        <f>SUM(0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10">
+        <f>SUM(0, 1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B11">
+        <f>SUM(0, 1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>304</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="B14">
+        <f>SUM(1,1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1,1)</f>
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>55.882352941176471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15">
+        <f>SUM(1,1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>55.882352941176471</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B16">
+        <f>SUM(0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="B17">
+        <f>SUM(0, 1)</f>
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2.9411764705882351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18">
+        <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1)</f>
+        <v>23</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>67.64705882352942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19">
+        <f>SUM(0, 1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B20">
+        <f>SUM(1, 1)</f>
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5.8823529411764701</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21">
+        <f>SUM(0, 1, 1, 1)</f>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>8.8235294117647065</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B061AF95-C44A-46D6-98AA-1ED914A00AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4BB622-D254-49DC-ACF4-A8E45E3414EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -9481,7 +9481,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11335204" y="10498818"/>
+              <a:off x="11335204" y="10546443"/>
               <a:ext cx="7707991" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4BB622-D254-49DC-ACF4-A8E45E3414EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD4A0A9-28A3-42DD-9227-C203D91EFF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="324">
   <si>
     <t>Reference</t>
   </si>
@@ -1147,6 +1147,9 @@
   </si>
   <si>
     <t>Controlled env testing</t>
+  </si>
+  <si>
+    <t>Vermander et al, 2023</t>
   </si>
 </sst>
 </file>
@@ -2970,7 +2973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C7BEF8E7-0592-43DA-9C28-60AE006C21EC}" type="CELLRANGE">
+                    <a:fld id="{03DAE29D-AFE7-4041-BB95-C60CF3CE95AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3009,7 +3012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE14BDFD-B55A-4F77-AB75-781850779293}" type="CELLRANGE">
+                    <a:fld id="{E8E0A181-D02C-4278-8664-4A90A5BB5F12}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3048,7 +3051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D5CA44FE-C4BA-43B9-977D-6E0F33B6ABF9}" type="CELLRANGE">
+                    <a:fld id="{4AE05B3D-8BDA-4C93-83AE-C36952C16142}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3087,7 +3090,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BD04C8D9-C66C-49B3-8806-EEF24EE4C95C}" type="CELLRANGE">
+                    <a:fld id="{06897333-E035-41FA-A1DC-99A8240BF736}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3126,7 +3129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A10ACB26-C4A7-4CAE-9A96-997FE43BC8BC}" type="CELLRANGE">
+                    <a:fld id="{67627B95-DC11-4656-A5A7-0C641FABEA51}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3165,7 +3168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0D4AC473-AF03-4776-A126-AD54FAEF7145}" type="CELLRANGE">
+                    <a:fld id="{62881201-66E4-4667-B7A5-CFEC3EB66B8A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3204,7 +3207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31597374-56E7-480F-BD37-82C02EDF9867}" type="CELLRANGE">
+                    <a:fld id="{6402BE80-444E-41D0-80EA-A7D7AA67B192}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3243,7 +3246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8840AB37-0419-4F28-9F9C-5D4EE04AAF4C}" type="CELLRANGE">
+                    <a:fld id="{7837401E-0956-4673-9A87-A2A38E13FC8D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3282,7 +3285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{566B06C8-531E-4E89-9FB5-D52CD009C0AD}" type="CELLRANGE">
+                    <a:fld id="{1791D863-0B2F-4D21-A038-1F478CAD39C3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3321,7 +3324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{206931EF-34CC-4A07-BD81-07B3F63BDF40}" type="CELLRANGE">
+                    <a:fld id="{54087ABF-C292-48AA-8339-A1A54E1C0A2E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3360,7 +3363,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB3A827F-D221-409A-8403-294E00AC2069}" type="CELLRANGE">
+                    <a:fld id="{8DE01ED7-7B02-449A-B10C-366C2188319C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9963,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView topLeftCell="E26" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11704,6 +11707,9 @@
       </c>
       <c r="B36" s="24">
         <v>2023</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="D36" t="s">
         <v>273</v>
@@ -12493,7 +12499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7096C7BC-272F-4D7D-987C-AA7C2F768B1C}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD4A0A9-28A3-42DD-9227-C203D91EFF8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF524512-744B-46CE-8D2E-F50BCFCF9049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView minimized="1" xWindow="28560" yWindow="2250" windowWidth="15375" windowHeight="7785" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -9966,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF524512-744B-46CE-8D2E-F50BCFCF9049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9500ED91-07E7-4E1F-B677-28C2E8A2B2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28560" yWindow="2250" windowWidth="15375" windowHeight="7785" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sitting Posture System" sheetId="1" r:id="rId1"/>
@@ -1034,18 +1034,6 @@
     <t>Participants</t>
   </si>
   <si>
-    <t>[2019, 2023]</t>
-  </si>
-  <si>
-    <t>[2007, 2010]</t>
-  </si>
-  <si>
-    <t>[2011, 2014]</t>
-  </si>
-  <si>
-    <t>[2015, 2018]</t>
-  </si>
-  <si>
     <t>Databases</t>
   </si>
   <si>
@@ -1150,6 +1138,18 @@
   </si>
   <si>
     <t>Vermander et al, 2023</t>
+  </si>
+  <si>
+    <t>[2011 - 2014]</t>
+  </si>
+  <si>
+    <t>[2007 - 2010]</t>
+  </si>
+  <si>
+    <t>[2015 - 2018]</t>
+  </si>
+  <si>
+    <t>[2019 - 2023]</t>
   </si>
 </sst>
 </file>
@@ -2973,7 +2973,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{03DAE29D-AFE7-4041-BB95-C60CF3CE95AB}" type="CELLRANGE">
+                    <a:fld id="{2AAA33E6-0726-4836-82DE-8CB174D82640}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3012,7 +3012,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E8E0A181-D02C-4278-8664-4A90A5BB5F12}" type="CELLRANGE">
+                    <a:fld id="{4E5DBB9F-4CF1-4AD2-BA68-D81DE6401A65}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3051,7 +3051,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AE05B3D-8BDA-4C93-83AE-C36952C16142}" type="CELLRANGE">
+                    <a:fld id="{B06B6F76-F62C-4539-8EF6-425185801712}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3090,7 +3090,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06897333-E035-41FA-A1DC-99A8240BF736}" type="CELLRANGE">
+                    <a:fld id="{4E1EB3AD-D834-4805-B47D-AE16A8CB5169}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3129,7 +3129,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{67627B95-DC11-4656-A5A7-0C641FABEA51}" type="CELLRANGE">
+                    <a:fld id="{A8950C07-73A0-44C8-8196-A41FF939061A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3168,7 +3168,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{62881201-66E4-4667-B7A5-CFEC3EB66B8A}" type="CELLRANGE">
+                    <a:fld id="{8480B093-81B9-40E4-8A04-089BCDF2549E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3207,7 +3207,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6402BE80-444E-41D0-80EA-A7D7AA67B192}" type="CELLRANGE">
+                    <a:fld id="{17455520-9F02-4F84-96DE-C894DA037640}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3246,7 +3246,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7837401E-0956-4673-9A87-A2A38E13FC8D}" type="CELLRANGE">
+                    <a:fld id="{81192E18-4D86-423E-94DF-4DFCAD018A46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3285,7 +3285,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1791D863-0B2F-4D21-A038-1F478CAD39C3}" type="CELLRANGE">
+                    <a:fld id="{B13FF1D4-9086-40DC-8DFA-C5B8FA786B33}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3324,7 +3324,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{54087ABF-C292-48AA-8339-A1A54E1C0A2E}" type="CELLRANGE">
+                    <a:fld id="{D899C84F-C30A-4AA9-9A05-DD50814B5EA0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3363,7 +3363,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DE01ED7-7B02-449A-B10C-366C2188319C}" type="CELLRANGE">
+                    <a:fld id="{B0D1EC30-659A-44E8-A777-D6F3C0229EBB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4034,16 +4034,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>[2007, 2010]</c:v>
+                  <c:v>[2007 - 2010]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[2011, 2014]</c:v>
+                  <c:v>[2011 - 2014]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[2015, 2018]</c:v>
+                  <c:v>[2015 - 2018]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[2019, 2023]</c:v>
+                  <c:v>[2019 - 2023]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4105,16 +4105,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>[2007, 2010]</c:v>
+                  <c:v>[2007 - 2010]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[2011, 2014]</c:v>
+                  <c:v>[2011 - 2014]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[2015, 2018]</c:v>
+                  <c:v>[2015 - 2018]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[2019, 2023]</c:v>
+                  <c:v>[2019 - 2023]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4176,16 +4176,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>[2007, 2010]</c:v>
+                  <c:v>[2007 - 2010]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[2011, 2014]</c:v>
+                  <c:v>[2011 - 2014]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[2015, 2018]</c:v>
+                  <c:v>[2015 - 2018]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[2019, 2023]</c:v>
+                  <c:v>[2019 - 2023]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4247,16 +4247,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>[2007, 2010]</c:v>
+                  <c:v>[2007 - 2010]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[2011, 2014]</c:v>
+                  <c:v>[2011 - 2014]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[2015, 2018]</c:v>
+                  <c:v>[2015 - 2018]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[2019, 2023]</c:v>
+                  <c:v>[2019 - 2023]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4318,16 +4318,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>[2007, 2010]</c:v>
+                  <c:v>[2007 - 2010]</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>[2011, 2014]</c:v>
+                  <c:v>[2011 - 2014]</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>[2015, 2018]</c:v>
+                  <c:v>[2015 - 2018]</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>[2019, 2023]</c:v>
+                  <c:v>[2019 - 2023]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9966,8 +9966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="D74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11709,25 +11709,25 @@
         <v>2023</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D36" t="s">
         <v>273</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G36">
         <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I36" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J36" s="4">
         <v>0.95</v>
@@ -11736,10 +11736,10 @@
         <v>37</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N36" t="s">
         <v>61</v>
@@ -11747,7 +11747,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G40" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H40">
         <f>AVERAGE(K2:K35)</f>
@@ -12051,16 +12051,16 @@
         <v>271</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -12182,7 +12182,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B1" s="5">
         <v>2013</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B4">
         <v>109</v>
@@ -12383,7 +12383,7 @@
         <v>269</v>
       </c>
       <c r="C6" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -12511,18 +12511,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B2">
         <f>SUM(1,1,1,1,1,1,1,1,1,1,1,1,1,1,1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1)</f>
@@ -12535,7 +12535,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B3">
         <f>SUM(1, 1, 1, 1,1, 1, 1, 1, 1)</f>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="34" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B4">
         <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
@@ -12561,7 +12561,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B5">
         <f>SUM(0, 1, 1, 1, 1)</f>
@@ -12574,7 +12574,7 @@
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B6">
         <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B7">
         <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
@@ -12600,7 +12600,7 @@
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B8">
         <f>SUM(0, 1)</f>
@@ -12613,7 +12613,7 @@
     </row>
     <row r="9" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B9">
         <f>SUM(0, 1)</f>
@@ -12626,7 +12626,7 @@
     </row>
     <row r="10" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B10">
         <f>SUM(0, 1, 1)</f>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="11" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B11">
         <f>SUM(0, 1, 1)</f>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12664,7 +12664,7 @@
     </row>
     <row r="13" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -12676,7 +12676,7 @@
     </row>
     <row r="14" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B14">
         <f>SUM(1,1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1,1)</f>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B15">
         <f>SUM(1,1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1)</f>
@@ -12702,7 +12702,7 @@
     </row>
     <row r="16" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B16">
         <f>SUM(0, 1)</f>
@@ -12715,7 +12715,7 @@
     </row>
     <row r="17" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B17">
         <f>SUM(0, 1)</f>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B18">
         <f>SUM(1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1, 1, 1, 1, 1, 1, 1, 1, 1,1, 1)</f>
@@ -12741,7 +12741,7 @@
     </row>
     <row r="19" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B19">
         <f>SUM(0, 1, 1)</f>
@@ -12754,7 +12754,7 @@
     </row>
     <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B20">
         <f>SUM(1, 1)</f>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="21" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B21">
         <f>SUM(0, 1, 1, 1)</f>

--- a/Literature Review.xlsx
+++ b/Literature Review.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faith\Documents\PhD stuff\Literature Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9500ED91-07E7-4E1F-B677-28C2E8A2B2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C1C38A-A9C9-4F43-833E-BC4FF71FB405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9D36B1F-B9B3-4197-B5F4-3831E3A01BC7}"/>
   </bookViews>
@@ -19,8 +19,8 @@
     <sheet name="Posture Popularity" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$B$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$B$2:$B$35</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Sitting Posture System'!$C$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Sitting Posture System'!$C$2:$C$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="327">
   <si>
     <t>Reference</t>
   </si>
@@ -1150,6 +1150,15 @@
   </si>
   <si>
     <t>[2019 - 2023]</t>
+  </si>
+  <si>
+    <t>Pubmed</t>
+  </si>
+  <si>
+    <t>Wan</t>
+  </si>
+  <si>
+    <t>MDPI Sensors</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1377,7 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1430,6 +1439,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="40% - Accent1" xfId="9" builtinId="31"/>
@@ -1518,7 +1530,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$G$1</c:f>
+              <c:f>'Sitting Posture System'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1600,7 +1612,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$C$2:$C$34</c:f>
+              <c:f>'Sitting Posture System'!$D$2:$D$34</c:f>
               <c:strCache>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
@@ -1707,7 +1719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$G$2:$G$34</c:f>
+              <c:f>'Sitting Posture System'!$H$2:$H$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -2181,7 +2193,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$G$49:$G$50</c:f>
+              <c:f>'Sitting Posture System'!$H$49:$H$50</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2195,7 +2207,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$H$49:$H$50</c:f>
+              <c:f>'Sitting Posture System'!$I$49:$I$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2619,7 +2631,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$46:$A$50</c:f>
+              <c:f>'Sitting Posture System'!$B$46:$B$50</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2642,7 +2654,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$B$46:$B$50</c:f>
+              <c:f>'Sitting Posture System'!$C$46:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2973,7 +2985,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AAA33E6-0726-4836-82DE-8CB174D82640}" type="CELLRANGE">
+                    <a:fld id="{CC6A812A-993C-4F81-A601-A08AD034EC9C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3012,7 +3024,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E5DBB9F-4CF1-4AD2-BA68-D81DE6401A65}" type="CELLRANGE">
+                    <a:fld id="{CA6FE2F1-0A50-4F91-AD13-23202EF18DBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3051,7 +3063,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B06B6F76-F62C-4539-8EF6-425185801712}" type="CELLRANGE">
+                    <a:fld id="{C6849EF4-81A2-41DE-B0B4-64BDEFAE99FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3090,7 +3102,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E1EB3AD-D834-4805-B47D-AE16A8CB5169}" type="CELLRANGE">
+                    <a:fld id="{0D993ED6-5B0C-4D69-A2ED-49751CE1A8C4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3129,7 +3141,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8950C07-73A0-44C8-8196-A41FF939061A}" type="CELLRANGE">
+                    <a:fld id="{B53DA7B5-3D3C-48E9-957A-4D961085DCB5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3168,7 +3180,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8480B093-81B9-40E4-8A04-089BCDF2549E}" type="CELLRANGE">
+                    <a:fld id="{3289B340-AA7F-4F27-BDCF-4A1351F7DFC1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3207,7 +3219,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17455520-9F02-4F84-96DE-C894DA037640}" type="CELLRANGE">
+                    <a:fld id="{30F0DA0B-ABEB-4939-BCC6-40478124D837}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3246,7 +3258,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81192E18-4D86-423E-94DF-4DFCAD018A46}" type="CELLRANGE">
+                    <a:fld id="{2499C4BC-C79B-413D-9054-50104E5A1F1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3285,7 +3297,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B13FF1D4-9086-40DC-8DFA-C5B8FA786B33}" type="CELLRANGE">
+                    <a:fld id="{5910AB81-446C-49FD-8C6C-C3440DBDF4FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3324,7 +3336,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D899C84F-C30A-4AA9-9A05-DD50814B5EA0}" type="CELLRANGE">
+                    <a:fld id="{5CECAAF6-DD5C-450C-82CF-C2C88D0765F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3363,7 +3375,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B0D1EC30-659A-44E8-A777-D6F3C0229EBB}" type="CELLRANGE">
+                    <a:fld id="{F9B14CC5-5938-4FB0-9B32-4386841E90FC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3449,7 +3461,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$B$72:$B$82</c:f>
+              <c:f>'Sitting Posture System'!$C$72:$C$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3491,7 +3503,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$C$72:$C$82</c:f>
+              <c:f>'Sitting Posture System'!$D$72:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3533,7 +3545,7 @@
           </c:yVal>
           <c:bubbleSize>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$D$72:$D$82</c:f>
+              <c:f>'Sitting Posture System'!$E$72:$E$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3577,7 +3589,7 @@
           <c:extLst>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>'Sitting Posture System'!$A$72:$A$82</c15:f>
+                <c15:f>'Sitting Posture System'!$B$72:$B$82</c15:f>
                 <c15:dlblRangeCache>
                   <c:ptCount val="11"/>
                   <c:pt idx="0">
@@ -4009,7 +4021,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$102</c:f>
+              <c:f>'Sitting Posture System'!$B$102</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4030,7 +4042,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:f>'Sitting Posture System'!$C$101:$F$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4050,7 +4062,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$B$102:$E$102</c:f>
+              <c:f>'Sitting Posture System'!$C$102:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4080,7 +4092,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$103</c:f>
+              <c:f>'Sitting Posture System'!$B$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4101,7 +4113,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:f>'Sitting Posture System'!$C$101:$F$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4121,7 +4133,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$B$103:$E$103</c:f>
+              <c:f>'Sitting Posture System'!$C$103:$F$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4151,7 +4163,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$104</c:f>
+              <c:f>'Sitting Posture System'!$B$104</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4172,7 +4184,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:f>'Sitting Posture System'!$C$101:$F$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4192,7 +4204,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$B$104:$E$104</c:f>
+              <c:f>'Sitting Posture System'!$C$104:$F$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4222,7 +4234,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$105</c:f>
+              <c:f>'Sitting Posture System'!$B$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4243,7 +4255,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:f>'Sitting Posture System'!$C$101:$F$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4263,7 +4275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$B$105:$E$105</c:f>
+              <c:f>'Sitting Posture System'!$C$105:$F$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4293,7 +4305,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$A$106</c:f>
+              <c:f>'Sitting Posture System'!$B$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4314,7 +4326,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Sitting Posture System'!$B$101:$E$101</c:f>
+              <c:f>'Sitting Posture System'!$C$101:$F$101</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -4334,7 +4346,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sitting Posture System'!$B$106:$E$106</c:f>
+              <c:f>'Sitting Posture System'!$C$106:$F$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -9367,13 +9379,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>183067</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>142282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>194407</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>153621</xdr:rowOff>
@@ -9403,16 +9415,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>849759</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180226</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>925959</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>189751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>477321</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>33820</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>553521</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>43345</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9439,13 +9451,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2857954</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>97518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>383720</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>173718</xdr:rowOff>
@@ -9517,13 +9529,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1112156</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>145597</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>455838</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>107497</xdr:rowOff>
@@ -9553,13 +9565,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>1471305</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>155053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1386795</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>79740</xdr:rowOff>
@@ -9589,13 +9601,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2514265</xdr:colOff>
       <xdr:row>78</xdr:row>
       <xdr:rowOff>187551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>1052487</xdr:colOff>
       <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9964,307 +9976,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB66E-634F-4264-B1B7-3EC9A3CB3421}">
-  <dimension ref="A1:Q106"/>
+  <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="44.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="23" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="22.140625" customWidth="1"/>
-    <col min="15" max="15" width="54.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="5" width="38" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" customWidth="1"/>
+    <col min="16" max="16" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:18" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="24">
+      <c r="C2" s="24">
         <v>2023</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>0.98499999999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B3" s="24">
+      <c r="C3" s="24">
         <v>2021</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>273</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>107</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>100</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>133</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>109</v>
       </c>
       <c r="P3" t="s">
         <v>109</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>254</v>
       </c>
-      <c r="B4" s="32">
+      <c r="C4" s="32">
         <v>2017</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>105</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>110</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="J4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>0.92200000000000004</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>112</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>75</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>113</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="R4" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="24">
+      <c r="C5" s="24">
         <v>2023</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>273</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>114</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>61</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>249</v>
       </c>
-      <c r="B6" s="24">
+      <c r="C6" s="24">
         <v>2020</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>273</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>122</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>117</v>
@@ -10272,96 +10290,100 @@
       <c r="J6" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6">
         <v>12</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="P6" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="24">
+      <c r="C7" s="24">
         <v>2022</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>273</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>8</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>128</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>126</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>0.91679999999999995</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>40</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>132</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>61</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35" t="s">
         <v>252</v>
       </c>
-      <c r="B8" s="24">
+      <c r="C8" s="36">
         <v>2022</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>273</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>129</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>117</v>
@@ -10369,146 +10391,149 @@
       <c r="K8" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>61</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>246</v>
       </c>
-      <c r="B9" s="24">
+      <c r="C9" s="24">
         <v>2021</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="J9" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>0.97070000000000001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>100</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M9" s="10" t="s">
+      <c r="N9" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>61</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="P9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="32">
+      <c r="C10" s="32">
         <v>2018</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>272</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>0.97940000000000005</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>9</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>75</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="P10" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="32">
+      <c r="C11" s="32">
         <v>2018</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="D11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>147</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>117</v>
@@ -10516,968 +10541,975 @@
       <c r="K11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>148</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="P11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B12" s="24">
+      <c r="C12" s="24">
         <v>2019</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>274</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>153</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>154</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>0.99270000000000003</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>14</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>75</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="P12" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B13" s="24">
+      <c r="C13" s="24">
         <v>2020</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="D13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>275</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="F13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>7</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="J13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>0.97430000000000005</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>11</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="P13" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B14" s="24">
+      <c r="C14" s="24">
         <v>2021</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>277</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="J14" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="4">
+      <c r="K14" s="4">
         <v>0.92</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>36</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="M14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>75</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="P14" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="31">
+      <c r="C15" s="31">
         <v>2013</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>273</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="F15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>8</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="J15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>0.7</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>30</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="N15" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>61</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="P15" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>250</v>
       </c>
-      <c r="B16" s="30">
+      <c r="C16" s="30">
         <v>2007</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>171</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="4">
+      <c r="K16" s="4">
         <v>0.78</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>20</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>75</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="P16" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B17" s="33">
+      <c r="C17" s="33">
         <v>2016</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>273</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>5</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="J17" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>0.99470000000000003</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>12</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="N17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>75</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="P17" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>249</v>
       </c>
-      <c r="B18" s="33">
+      <c r="C18" s="33">
         <v>2016</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>273</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>7</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="J18" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="J18" s="8">
+      <c r="K18" s="8">
         <v>0.90900000000000003</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>41</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>75</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="P18" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="24">
+      <c r="C19" s="24">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="D19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>273</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="F19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>10</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>0.99099999999999999</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>20</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="N19" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>61</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="P19" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="B20" s="32">
+      <c r="C20" s="32">
         <v>2018</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>273</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="J20" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>0.95299999999999996</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>10</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="N20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>75</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="Q20" s="10" t="s">
+      <c r="R20" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="24">
+      <c r="C21" s="24">
         <v>2021</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="D21" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>273</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="F21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="J21" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>0.81</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>12</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>190</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="P21" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="24">
+      <c r="C22" s="24">
         <v>2021</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>51</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>273</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>6</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>0.95669999999999999</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>40</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>56</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="N22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="P22" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="P22" t="s">
+      <c r="Q22" t="s">
         <v>267</v>
       </c>
-      <c r="Q22" s="10" t="s">
+      <c r="R22" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="24">
+      <c r="C23" s="24">
         <v>2020</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>273</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>5</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="J23" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="1">
         <v>0.99819999999999998</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>8</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="N23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="P23" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="Q23" s="10" t="s">
+      <c r="R23" s="10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>245</v>
       </c>
-      <c r="B24" s="24">
+      <c r="C24" s="24">
         <v>2019</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>63</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>274</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="4">
+      <c r="K24" s="4">
         <v>0.9</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="M24" s="13" t="s">
+      <c r="N24" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>61</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>67</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="24">
+      <c r="C25" s="24">
         <v>2020</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>273</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>220</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="J25" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="4">
+      <c r="K25" s="4">
         <v>0.89</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P25" t="s">
+      <c r="O25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="26" spans="1:18" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D26"/>
-      <c r="E26" s="16" t="s">
+      <c r="E26"/>
+      <c r="F26" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="G26" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G26" s="16">
+      <c r="H26" s="16">
         <v>4</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="I26" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="19"/>
       <c r="J26" s="19"/>
-      <c r="K26" s="16">
+      <c r="K26" s="19"/>
+      <c r="L26" s="16">
         <v>5</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="M26" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="N26" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="N26" s="16" t="s">
+      <c r="O26" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="O26" s="17" t="s">
+      <c r="P26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="P26" s="18" t="s">
+      <c r="Q26" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B27" s="31">
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="10"/>
+      <c r="C27" s="31">
         <v>2013</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>273</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>220</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="3"/>
+      <c r="I27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="I27" s="28" t="s">
+      <c r="J27" s="28" t="s">
         <v>12</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>117</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L27" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M27" t="s">
         <v>193</v>
       </c>
-      <c r="M27" s="10" t="s">
+      <c r="N27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>61</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="P27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P27" s="18" t="s">
+      <c r="Q27" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="24">
+      <c r="C28" s="24">
         <v>2021</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="D28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>273</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>15</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>0.88519999999999999</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>19</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="M28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="10" t="s">
+      <c r="N28" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>61</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>233</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>232</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="29" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B29" s="24">
+      <c r="C29" s="24">
         <v>2023</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>274</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>93</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>234</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>6</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="J29" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>0.92500000000000004</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="M29" s="7" t="s">
+      <c r="N29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N29" t="s">
+      <c r="O29" t="s">
         <v>61</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>235</v>
       </c>
-      <c r="P29" s="18" t="s">
+      <c r="Q29" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="31">
+      <c r="C30" s="31">
         <v>2014</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>273</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="F30" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>7</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I30" s="25" t="s">
+      <c r="J30" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="3"/>
+      <c r="L30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="M30" s="7" t="s">
+      <c r="N30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N30" t="s">
+      <c r="O30" t="s">
         <v>61</v>
       </c>
-      <c r="P30" s="18" t="s">
+      <c r="Q30" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B31" s="24">
+      <c r="C31" s="24">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="F31" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="G31" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>7</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>117</v>
@@ -11485,624 +11517,644 @@
       <c r="K31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="N31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N31" t="s">
+      <c r="O31" t="s">
         <v>75</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>200</v>
       </c>
-      <c r="P31" s="18" t="s">
+      <c r="Q31" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="31">
+      <c r="C32" s="31">
         <v>2013</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>273</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="F32" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>206</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>7</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>203</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>0.85899999999999999</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>14</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>201</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>61</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>240</v>
       </c>
-      <c r="P32" s="18" t="s">
+      <c r="Q32" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+    <row r="33" spans="1:17" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B33" s="24">
+      <c r="C33" s="24">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>273</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="F33" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>6</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L33">
         <v>2</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="N33" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="N33" t="s">
+      <c r="O33" t="s">
         <v>61</v>
       </c>
-      <c r="O33" s="2" t="s">
+      <c r="P33" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="P33" s="18" t="s">
+      <c r="Q33" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
+    <row r="34" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B34" s="24">
+      <c r="C34" s="24">
         <v>2019</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>277</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="F34" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>15</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="J34" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J34" s="4">
+      <c r="K34" s="4">
         <v>0.96</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>8</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="M34" s="13" t="s">
+      <c r="N34" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>61</v>
       </c>
-      <c r="O34" s="2" t="s">
+      <c r="P34" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="P34" s="18" t="s">
+      <c r="Q34" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="35" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="B35" s="24">
+      <c r="C35" s="24">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="F35" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>15</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I35" s="27" t="s">
+      <c r="J35" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>0.98819999999999997</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>18</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="M35" s="10" t="s">
+      <c r="N35" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>61</v>
       </c>
-      <c r="O35" s="2" t="s">
+      <c r="P35" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="B36" s="24">
+      <c r="C36" s="24">
         <v>2023</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>273</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="F36" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>6</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>317</v>
       </c>
-      <c r="J36" s="4">
+      <c r="K36" s="4">
         <v>0.95</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>37</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="M36" s="10" t="s">
+      <c r="N36" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="N36" t="s">
+      <c r="O36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G40" t="s">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C37" s="24">
+        <v>2021</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
         <v>289</v>
       </c>
-      <c r="H40">
-        <f>AVERAGE(K2:K35)</f>
+      <c r="I40">
+        <f>AVERAGE(L2:L35)</f>
         <v>21.12</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G44">
-        <f>AVERAGE(G2:G35)</f>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f>AVERAGE(H2:H35)</f>
         <v>7.53125</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="1">
-        <f>AVERAGE(J2:J30)</f>
+      <c r="K44" s="1">
+        <f>AVERAGE(K2:K30)</f>
         <v>0.92472727272727273</v>
       </c>
-      <c r="K44">
-        <f>AVERAGE(K2:K30)</f>
+      <c r="L44">
+        <f>AVERAGE(L2:L30)</f>
         <v>23.142857142857142</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C45" s="5" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D45" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="5"/>
-      <c r="G45">
-        <f>MAX(G2:G35)</f>
+      <c r="E45" s="5"/>
+      <c r="H45">
+        <f>MAX(H2:H35)</f>
         <v>15</v>
       </c>
-      <c r="J45" s="1">
-        <f>MAX(J2:J30)</f>
+      <c r="K45" s="1">
+        <f>MAX(K2:K30)</f>
         <v>0.99819999999999998</v>
       </c>
-      <c r="K45">
-        <f>MAX(K2:K29)</f>
+      <c r="L45">
+        <f>MAX(L2:L29)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>273</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>26</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>97</v>
       </c>
-      <c r="G46">
-        <f>MIN(G2:G35)</f>
+      <c r="H46">
+        <f>MIN(H2:H35)</f>
         <v>3</v>
       </c>
-      <c r="J46" s="1">
-        <f>MIN(J2:J30)</f>
+      <c r="K46" s="1">
+        <f>MIN(K2:K30)</f>
         <v>0.7</v>
       </c>
-      <c r="K46">
-        <f>MIN(K2:K29)</f>
+      <c r="L46">
+        <f>MIN(L2:L29)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>272</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>276</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>2</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>275</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>2</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>278</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>207</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="29" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="C71" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C71" s="29" t="s">
+      <c r="D71" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="E71" s="29" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>281</v>
       </c>
-      <c r="B72">
-        <f>AVERAGE(G20,G23,G29,G34)</f>
+      <c r="C72">
+        <f>AVERAGE(H20,H23,H29,H34)</f>
         <v>7.75</v>
       </c>
-      <c r="C72" s="1">
-        <f>AVERAGE(J20,J23,J24,J29,J34)</f>
+      <c r="D72" s="1">
+        <f>AVERAGE(K20,K23,K24,K29,K34)</f>
         <v>0.94724000000000008</v>
       </c>
-      <c r="D72">
-        <f>AVERAGE(K23, K34,K20)</f>
+      <c r="E72">
+        <f>AVERAGE(L23, L34,L20)</f>
         <v>8.6666666666666661</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
         <v>225</v>
       </c>
-      <c r="B73">
-        <f>AVERAGE(G14,G2)</f>
+      <c r="C73">
+        <f>AVERAGE(H14,H2)</f>
         <v>9.5</v>
       </c>
-      <c r="C73" s="1">
-        <f>AVERAGE(J2,J14)</f>
+      <c r="D73" s="1">
+        <f>AVERAGE(K2,K14)</f>
         <v>0.95250000000000001</v>
       </c>
-      <c r="D73">
-        <f>AVERAGE(K14,K2)</f>
+      <c r="E73">
+        <f>AVERAGE(L14,L2)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>70</v>
       </c>
-      <c r="B74">
-        <f>AVERAGE(G30,G25,G17)</f>
+      <c r="C74">
+        <f>AVERAGE(H30,H25,H17)</f>
         <v>5.666666666666667</v>
       </c>
-      <c r="C74" s="1">
-        <f>AVERAGE(J17,J25)</f>
+      <c r="D74" s="1">
+        <f>AVERAGE(K17,K25)</f>
         <v>0.94235000000000002</v>
       </c>
-      <c r="D74">
-        <f>AVERAGE(K17)</f>
+      <c r="E74">
+        <f>AVERAGE(L17)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>12</v>
       </c>
-      <c r="B75">
-        <f>AVERAGE(G4,G9,G13,G21,G15)</f>
+      <c r="C75">
+        <f>AVERAGE(H4,H9,H13,H21,H15)</f>
         <v>7.4</v>
       </c>
-      <c r="C75" s="1">
-        <f>AVERAGE(J4,J9,J9,J13,J15,J21)</f>
+      <c r="D75" s="1">
+        <f>AVERAGE(K4,K9,K9,K13,K15,K21)</f>
         <v>0.89128333333333332</v>
       </c>
-      <c r="D75">
-        <f>AVERAGE(K9,K13,K15,K21)</f>
+      <c r="E75">
+        <f>AVERAGE(L9,L13,L15,L21)</f>
         <v>38.25</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>40</v>
       </c>
-      <c r="B76">
-        <f>AVERAGE(G35,G18,G12)</f>
+      <c r="C76">
+        <f>AVERAGE(H35,H18,H12)</f>
         <v>8.3333333333333339</v>
       </c>
-      <c r="C76" s="1">
-        <f>AVERAGE(J18,J12,J35)</f>
+      <c r="D76" s="1">
+        <f>AVERAGE(K18,K12,K35)</f>
         <v>0.96329999999999993</v>
       </c>
-      <c r="D76">
-        <f>AVERAGE(K12,K18,K35)</f>
+      <c r="E76">
+        <f>AVERAGE(L12,L18,L35)</f>
         <v>24.333333333333332</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>282</v>
       </c>
-      <c r="B77">
-        <f>AVERAGE(G10,G19)</f>
+      <c r="C77">
+        <f>AVERAGE(H10,H19)</f>
         <v>8</v>
       </c>
-      <c r="C77" s="1">
-        <f>AVERAGE(J19,J10)</f>
+      <c r="D77" s="1">
+        <f>AVERAGE(K19,K10)</f>
         <v>0.98520000000000008</v>
       </c>
-      <c r="D77">
-        <f>AVERAGE(K19,K10)</f>
+      <c r="E77">
+        <f>AVERAGE(L19,L10)</f>
         <v>14.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
         <v>52</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>6</v>
       </c>
-      <c r="C78" s="1">
+      <c r="D78" s="1">
         <v>0.95669999999999999</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
         <v>283</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>15</v>
       </c>
-      <c r="C79" s="1">
+      <c r="D79" s="1">
         <v>0.88519999999999999</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
         <v>126</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>8</v>
       </c>
-      <c r="C80" s="1">
+      <c r="D80" s="1">
         <v>0.91679999999999995</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>32</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>10</v>
       </c>
-      <c r="C81" s="4">
+      <c r="D81" s="4">
         <v>0.78</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>10</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>4</v>
       </c>
-      <c r="C82" s="1">
+      <c r="D82" s="1">
         <v>0.99029999999999996</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="F101" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
         <v>273</v>
       </c>
-      <c r="B102">
+      <c r="C102">
         <v>1</v>
       </c>
-      <c r="C102">
+      <c r="D102">
         <v>4</v>
       </c>
-      <c r="D102">
+      <c r="E102">
         <v>5</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
         <v>272</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
         <v>1</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
         <v>274</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -12111,15 +12163,15 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
         <v>275</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -12128,15 +12180,15 @@
         <v>0</v>
       </c>
       <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>276</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -12145,6 +12197,9 @@
         <v>0</v>
       </c>
       <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>2</v>
       </c>
     </row>
